--- a/DaySale_2025-09-07_00-00.xlsx
+++ b/DaySale_2025-09-07_00-00.xlsx
@@ -44,25 +44,49 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>CARVID 6.25MG 30TAB</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
     <t>HEPTA PANTHENOL HAIR CREAM 100 GM</t>
   </si>
   <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>149.00</t>
   </si>
   <si>
     <t>149.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>Sunday, 7 September, 2025 9:34 AM</t>
+    <t>Sunday, 7 September, 2025 9:35 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -724,38 +748,104 @@
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13">
-        <v>149</v>
-      </c>
-      <c r="Q8" s="13"/>
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c t="s" r="C8" s="8">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c t="s" r="H8" s="9">
+        <v>12</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c t="s" r="L8" s="10">
+        <v>18</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c t="s" r="N8" s="8">
+        <v>19</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c t="s" r="P8" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q8" s="12">
+        <v>16</v>
+      </c>
     </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c t="s" r="A9" s="14">
-        <v>17</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c t="s" r="G9" s="15">
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
+        <v>21</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
+        <v>22</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
         <v>18</v>
       </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c t="s" r="K9" s="17">
-        <v>19</v>
-      </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
+        <v>23</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="P10" s="13">
+        <v>260</v>
+      </c>
+      <c r="Q10" s="13"/>
+    </row>
+    <row r="11" ht="16.5" customHeight="1">
+      <c t="s" r="A11" s="14">
+        <v>25</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c t="s" r="G11" s="15">
+        <v>26</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16"/>
+      <c t="s" r="K11" s="17">
+        <v>27</v>
+      </c>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="27">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -769,10 +859,20 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="K11:Q11"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-07_00-00.xlsx
+++ b/DaySale_2025-09-07_00-00.xlsx
@@ -86,7 +86,7 @@
     <t>149.0000</t>
   </si>
   <si>
-    <t>Sunday, 7 September, 2025 9:35 AM</t>
+    <t>Sunday, 7 September, 2025 9:39 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-07_00-00.xlsx
+++ b/DaySale_2025-09-07_00-00.xlsx
@@ -86,7 +86,22 @@
     <t>149.0000</t>
   </si>
   <si>
-    <t>Sunday, 7 September, 2025 9:39 AM</t>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>27:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>Sunday, 7 September, 2025 9:44 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -814,38 +829,104 @@
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
-      <c r="P10" s="13">
-        <v>260</v>
-      </c>
-      <c r="Q10" s="13"/>
-    </row>
-    <row r="11" ht="16.5" customHeight="1">
-      <c t="s" r="A11" s="14">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
         <v>25</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c t="s" r="G11" s="15">
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
         <v>26</v>
       </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
-      <c t="s" r="K11" s="17">
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>13</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
         <v>27</v>
       </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
+        <v>29</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
+        <v>22</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>13</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
+        <v>27</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="P12" s="13">
+        <v>290</v>
+      </c>
+      <c r="Q12" s="13"/>
+    </row>
+    <row r="13" ht="16.5" customHeight="1">
+      <c t="s" r="A13" s="14">
+        <v>30</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c t="s" r="G13" s="15">
+        <v>31</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
+      <c t="s" r="K13" s="17">
+        <v>32</v>
+      </c>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="37">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -869,10 +950,20 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="K13:Q13"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-07_00-00.xlsx
+++ b/DaySale_2025-09-07_00-00.xlsx
@@ -44,6 +44,33 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>BETOLVEX 1MG/ML 2 AMP</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>64.00</t>
+  </si>
+  <si>
+    <t>64.0000</t>
+  </si>
+  <si>
+    <t>BRUFEN 100MG/5ML SYRUP 150ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
     <t>CARVID 6.25MG 30TAB</t>
   </si>
   <si>
@@ -59,21 +86,27 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>66.00</t>
   </si>
   <si>
     <t>66.0000</t>
   </si>
   <si>
+    <t>GLIPTUS 50 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>151.50</t>
+  </si>
+  <si>
+    <t>151.5000</t>
+  </si>
+  <si>
     <t>HEPTA PANTHENOL HAIR CREAM 100 GM</t>
   </si>
   <si>
@@ -86,6 +119,18 @@
     <t>149.0000</t>
   </si>
   <si>
+    <t>PLEGICA 1% EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
@@ -98,10 +143,22 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Sunday, 7 September, 2025 9:44 AM</t>
+    <t>Sunday, 7 September, 2025 10:27 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -759,7 +816,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -768,31 +825,31 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -801,20 +858,20 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
@@ -825,7 +882,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -841,7 +898,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -851,14 +908,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -867,14 +924,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -884,49 +941,214 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
-      <c r="P12" s="13">
-        <v>290</v>
-      </c>
-      <c r="Q12" s="13"/>
-    </row>
-    <row r="13" ht="16.5" customHeight="1">
-      <c t="s" r="A13" s="14">
-        <v>30</v>
-      </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c t="s" r="G13" s="15">
-        <v>31</v>
-      </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c t="s" r="K13" s="17">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
         <v>32</v>
       </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
+        <v>33</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>13</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
+        <v>34</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
+        <v>35</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
+        <v>36</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>37</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>13</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
+        <v>38</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>39</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
+        <v>40</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>41</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>22</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>42</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>43</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
+        <v>44</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>33</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>22</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>45</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>46</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>48</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>33</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>22</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>42</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>43</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="P17" s="13">
+        <v>582.5</v>
+      </c>
+      <c r="Q17" s="13"/>
+    </row>
+    <row r="18" ht="16.5" customHeight="1">
+      <c t="s" r="A18" s="14">
+        <v>49</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c t="s" r="G18" s="15">
+        <v>50</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+      <c t="s" r="K18" s="17">
+        <v>51</v>
+      </c>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="62">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -960,10 +1182,35 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="K18:Q18"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-07_00-00.xlsx
+++ b/DaySale_2025-09-07_00-00.xlsx
@@ -158,7 +158,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Sunday, 7 September, 2025 10:27 AM</t>
+    <t>Sunday, 7 September, 2025 10:30 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-07_00-00.xlsx
+++ b/DaySale_2025-09-07_00-00.xlsx
@@ -158,7 +158,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Sunday, 7 September, 2025 10:30 AM</t>
+    <t>Sunday, 7 September, 2025 10:32 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-07_00-00.xlsx
+++ b/DaySale_2025-09-07_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ANALLERGE 4 MG 60 TAB.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>9.9000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>BETOLVEX 1MG/ML 2 AMP</t>
   </si>
   <si>
     <t>1:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>64.00</t>
   </si>
   <si>
@@ -74,9 +89,6 @@
     <t>CARVID 6.25MG 30TAB</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -129,6 +141,18 @@
   </si>
   <si>
     <t>27.0000</t>
+  </si>
+  <si>
+    <t>VETOCETAMOL 24 TAB.</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
   </si>
   <si>
     <t>بلاستر مترسيلك 2 سم</t>
@@ -816,7 +840,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -825,14 +849,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -842,14 +866,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -858,20 +882,20 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
@@ -882,7 +906,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -898,24 +922,24 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -924,14 +948,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -948,7 +972,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -981,7 +1005,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1014,7 +1038,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1036,7 +1060,7 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1047,7 +1071,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1063,24 +1087,24 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1096,59 +1120,125 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
+        <v>52</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>37</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>26</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
+        <v>53</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>54</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" ht="25.5" customHeight="1">
-      <c r="P17" s="13">
-        <v>582.5</v>
-      </c>
-      <c r="Q17" s="13"/>
-    </row>
-    <row r="18" ht="16.5" customHeight="1">
-      <c t="s" r="A18" s="14">
-        <v>49</v>
-      </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c t="s" r="G18" s="15">
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>56</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>37</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>26</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
         <v>50</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-      <c t="s" r="K18" s="17">
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
         <v>51</v>
       </c>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
+      <c t="s" r="Q18" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="P19" s="13">
+        <v>610.39999999999998</v>
+      </c>
+      <c r="Q19" s="13"/>
+    </row>
+    <row r="20" ht="16.5" customHeight="1">
+      <c t="s" r="A20" s="14">
+        <v>57</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c t="s" r="G20" s="15">
+        <v>58</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
+      <c t="s" r="K20" s="17">
+        <v>59</v>
+      </c>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="72">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1207,10 +1297,20 @@
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="K20:Q20"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-07_00-00.xlsx
+++ b/DaySale_2025-09-07_00-00.xlsx
@@ -155,6 +155,18 @@
     <t>18.0000</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
@@ -167,6 +179,15 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -180,6 +201,15 @@
   </si>
   <si>
     <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>مجموعه برد</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
   </si>
   <si>
     <t>Sunday, 7 September, 2025 10:32 AM</t>
@@ -1126,7 +1156,7 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1137,7 +1167,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1153,7 +1183,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1163,14 +1193,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>55</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1196,49 +1226,148 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
-      <c r="P19" s="13">
-        <v>610.39999999999998</v>
-      </c>
-      <c r="Q19" s="13"/>
-    </row>
-    <row r="20" ht="16.5" customHeight="1">
-      <c t="s" r="A20" s="14">
-        <v>57</v>
-      </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c t="s" r="G20" s="15">
-        <v>58</v>
-      </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
-      <c t="s" r="K20" s="17">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
         <v>59</v>
       </c>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>37</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>26</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>60</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>63</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>37</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>26</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>54</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>55</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
+        <v>64</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>37</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>26</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>65</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="P22" s="13">
+        <v>637.23000000000002</v>
+      </c>
+      <c r="Q22" s="13"/>
+    </row>
+    <row r="23" ht="16.5" customHeight="1">
+      <c t="s" r="A23" s="14">
+        <v>67</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c t="s" r="G23" s="15">
+        <v>68</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
+      <c t="s" r="K23" s="17">
+        <v>69</v>
+      </c>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
+  <mergeCells count="87">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1307,10 +1436,25 @@
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="K23:Q23"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-07_00-00.xlsx
+++ b/DaySale_2025-09-07_00-00.xlsx
@@ -119,12 +119,30 @@
     <t>151.5000</t>
   </si>
   <si>
+    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>63.3600</t>
+  </si>
+  <si>
+    <t>HAIR PHOTO SHAMPOO</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>235.00</t>
+  </si>
+  <si>
+    <t>235.0000</t>
+  </si>
+  <si>
     <t>HEPTA PANTHENOL HAIR CREAM 100 GM</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>149.00</t>
   </si>
   <si>
@@ -143,6 +161,15 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>PLEX BEAUTY HAIR CREAM</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
     <t>VETOCETAMOL 24 TAB.</t>
   </si>
   <si>
@@ -200,6 +227,24 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>صابون ديتول اوريجنيال 115 جم</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>فرشه للشعر</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -212,7 +257,10 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>Sunday, 7 September, 2025 10:32 AM</t>
+    <t>مشط بلاستك طويل</t>
+  </si>
+  <si>
+    <t>Sunday, 7 September, 2025 10:45 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1051,7 +1099,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1061,14 +1109,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1077,28 +1125,28 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>18</v>
@@ -1110,14 +1158,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1127,14 +1175,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1143,14 +1191,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1160,14 +1208,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1176,14 +1224,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1193,11 +1241,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>18</v>
@@ -1209,31 +1257,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1242,31 +1290,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1275,14 +1323,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1292,11 +1340,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>18</v>
@@ -1308,14 +1356,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1325,49 +1373,247 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
-      <c r="P22" s="13">
-        <v>637.23000000000002</v>
-      </c>
-      <c r="Q22" s="13"/>
-    </row>
-    <row r="23" ht="16.5" customHeight="1">
-      <c t="s" r="A23" s="14">
-        <v>67</v>
-      </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c t="s" r="G23" s="15">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
         <v>68</v>
       </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
-      <c t="s" r="K23" s="17">
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>40</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>26</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
         <v>69</v>
       </c>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>70</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>72</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>47</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>26</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>14</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>73</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>74</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>75</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>26</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>76</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>77</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>78</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>40</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>26</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>63</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>64</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>79</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>40</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>26</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>80</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>81</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
+        <v>82</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>18</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>26</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>63</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>64</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="P28" s="13">
+        <v>1135.5899999999999</v>
+      </c>
+      <c r="Q28" s="13"/>
+    </row>
+    <row r="29" ht="16.5" customHeight="1">
+      <c t="s" r="A29" s="14">
+        <v>83</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c t="s" r="G29" s="15">
+        <v>84</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="16"/>
+      <c t="s" r="K29" s="17">
+        <v>85</v>
+      </c>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="87">
+  <mergeCells count="117">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1451,10 +1697,40 @@
     <mergeCell ref="H21:K21"/>
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="K29:Q29"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-07_00-00.xlsx
+++ b/DaySale_2025-09-07_00-00.xlsx
@@ -260,7 +260,7 @@
     <t>مشط بلاستك طويل</t>
   </si>
   <si>
-    <t>Sunday, 7 September, 2025 10:45 AM</t>
+    <t>Sunday, 7 September, 2025 10:48 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-07_00-00.xlsx
+++ b/DaySale_2025-09-07_00-00.xlsx
@@ -98,6 +98,27 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>DURICEF 500MG/5ML SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
     <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -149,6 +170,15 @@
     <t>149.0000</t>
   </si>
   <si>
+    <t>LAMIFEN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>PLEGICA 1% EYE DROPS 10 ML</t>
   </si>
   <si>
@@ -179,9 +209,6 @@
     <t>36.00</t>
   </si>
   <si>
-    <t>18.0000</t>
-  </si>
-  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -194,6 +221,18 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8302:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
@@ -209,9 +248,6 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>2.00</t>
-  </si>
-  <si>
     <t>2.0000</t>
   </si>
   <si>
@@ -224,9 +260,6 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>صابون ديتول اوريجنيال 115 جم</t>
   </si>
   <si>
@@ -260,7 +293,7 @@
     <t>مشط بلاستك طويل</t>
   </si>
   <si>
-    <t>Sunday, 7 September, 2025 10:48 AM</t>
+    <t>Sunday, 7 September, 2025 11:10 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1033,7 +1066,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1043,11 +1076,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>18</v>
@@ -1059,14 +1092,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1099,7 +1132,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1116,7 +1149,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1138,7 +1171,7 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1182,7 +1215,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1204,7 +1237,7 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1231,13 +1264,13 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1264,7 +1297,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1274,14 +1307,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1290,14 +1323,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1307,14 +1340,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1323,14 +1356,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1340,11 +1373,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>18</v>
@@ -1356,31 +1389,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1389,31 +1422,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1422,31 +1455,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1495,7 +1528,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1505,11 +1538,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>18</v>
@@ -1521,14 +1554,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1538,14 +1571,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1554,14 +1587,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1571,49 +1604,181 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
-      <c r="P28" s="13">
-        <v>1135.5899999999999</v>
-      </c>
-      <c r="Q28" s="13"/>
-    </row>
-    <row r="29" ht="16.5" customHeight="1">
-      <c t="s" r="A29" s="14">
-        <v>83</v>
-      </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c t="s" r="G29" s="15">
-        <v>84</v>
-      </c>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="16"/>
-      <c t="s" r="K29" s="17">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
         <v>85</v>
       </c>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>86</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>26</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>87</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>88</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>89</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>47</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>26</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>76</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>77</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>90</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>47</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>26</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>91</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
+        <v>93</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>18</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>26</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>76</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>77</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="P32" s="13">
+        <v>1257.5899999999999</v>
+      </c>
+      <c r="Q32" s="13"/>
+    </row>
+    <row r="33" ht="16.5" customHeight="1">
+      <c t="s" r="A33" s="14">
+        <v>94</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c t="s" r="G33" s="15">
+        <v>95</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="16"/>
+      <c t="s" r="K33" s="17">
+        <v>96</v>
+      </c>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="117">
+  <mergeCells count="137">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1727,10 +1892,30 @@
     <mergeCell ref="H27:K27"/>
     <mergeCell ref="L27:M27"/>
     <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="K33:Q33"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-07_00-00.xlsx
+++ b/DaySale_2025-09-07_00-00.xlsx
@@ -293,7 +293,7 @@
     <t>مشط بلاستك طويل</t>
   </si>
   <si>
-    <t>Sunday, 7 September, 2025 11:10 AM</t>
+    <t>Sunday, 7 September, 2025 11:44 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-07_00-00.xlsx
+++ b/DaySale_2025-09-07_00-00.xlsx
@@ -44,24 +44,36 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALPHINTERN 30 F.C.TABS</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ANALLERGE 4 MG 60 TAB.</t>
   </si>
   <si>
     <t>1:2</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>30.00</t>
   </si>
   <si>
     <t>9.9000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>BETOLVEX 1MG/ML 2 AMP</t>
   </si>
   <si>
@@ -110,6 +122,18 @@
     <t>78.0000</t>
   </si>
   <si>
+    <t>EXTRAUMA DNA CREAM 25 GM</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
     <t>GARAMYCIN 0.1% CREAM 15 GM</t>
   </si>
   <si>
@@ -152,9 +176,6 @@
     <t>HAIR PHOTO SHAMPOO</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>235.00</t>
   </si>
   <si>
@@ -179,6 +200,18 @@
     <t>18.0000</t>
   </si>
   <si>
+    <t>MELLITOFIX MET 12.5/500 MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>193.50</t>
+  </si>
+  <si>
+    <t>63.8550</t>
+  </si>
+  <si>
     <t>PLEGICA 1% EYE DROPS 10 ML</t>
   </si>
   <si>
@@ -293,7 +326,7 @@
     <t>مشط بلاستك طويل</t>
   </si>
   <si>
-    <t>Sunday, 7 September, 2025 11:44 AM</t>
+    <t>Sunday, 7 September, 2025 11:45 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -984,7 +1017,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1017,7 +1050,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1033,13 +1066,13 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
@@ -1050,7 +1083,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1066,13 +1099,13 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
@@ -1083,7 +1116,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1099,7 +1132,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1109,14 +1142,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1125,14 +1158,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1142,14 +1175,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1158,14 +1191,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1175,14 +1208,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1191,14 +1224,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1208,14 +1241,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1224,31 +1257,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1257,14 +1290,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1274,14 +1307,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1290,31 +1323,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1323,14 +1356,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1347,7 +1380,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1363,13 +1396,13 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1380,7 +1413,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1410,7 +1443,7 @@
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1422,14 +1455,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1439,14 +1472,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1455,20 +1488,20 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1479,7 +1512,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1501,7 +1534,7 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1509,10 +1542,10 @@
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1521,31 +1554,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1554,31 +1587,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1587,31 +1620,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1620,31 +1653,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1653,31 +1686,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1686,31 +1719,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1719,66 +1752,165 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
-      <c r="P32" s="13">
-        <v>1257.5899999999999</v>
-      </c>
-      <c r="Q32" s="13"/>
-    </row>
-    <row r="33" ht="16.5" customHeight="1">
-      <c t="s" r="A33" s="14">
-        <v>94</v>
-      </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c t="s" r="G33" s="15">
-        <v>95</v>
-      </c>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="16"/>
-      <c t="s" r="K33" s="17">
-        <v>96</v>
-      </c>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
+        <v>100</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>38</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>30</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>87</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>88</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
+        <v>101</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>38</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>30</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>102</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>103</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>104</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>22</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>30</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>87</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>88</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="P35" s="13">
+        <v>1378.155</v>
+      </c>
+      <c r="Q35" s="13"/>
+    </row>
+    <row r="36" ht="16.5" customHeight="1">
+      <c t="s" r="A36" s="14">
+        <v>105</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c t="s" r="G36" s="15">
+        <v>106</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="16"/>
+      <c t="s" r="K36" s="17">
+        <v>107</v>
+      </c>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="137">
+  <mergeCells count="152">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1912,10 +2044,25 @@
     <mergeCell ref="H31:K31"/>
     <mergeCell ref="L31:M31"/>
     <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="K36:Q36"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-07_00-00.xlsx
+++ b/DaySale_2025-09-07_00-00.xlsx
@@ -326,7 +326,7 @@
     <t>مشط بلاستك طويل</t>
   </si>
   <si>
-    <t>Sunday, 7 September, 2025 11:45 AM</t>
+    <t>Sunday, 7 September, 2025 11:51 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-07_00-00.xlsx
+++ b/DaySale_2025-09-07_00-00.xlsx
@@ -110,6 +110,18 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>CEVA-FRESH TAB</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>DURICEF 500MG/5ML SUSP. 60ML</t>
   </si>
   <si>
@@ -299,6 +311,9 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t>فرشه اسنان POWER GOLD كبار</t>
+  </si>
+  <si>
     <t>فرشه للشعر</t>
   </si>
   <si>
@@ -326,7 +341,7 @@
     <t>مشط بلاستك طويل</t>
   </si>
   <si>
-    <t>Sunday, 7 September, 2025 11:51 AM</t>
+    <t>Sunday, 7 September, 2025 12:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1138,7 +1153,7 @@
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
@@ -1198,7 +1213,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1208,11 +1223,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>22</v>
@@ -1224,14 +1239,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1241,11 +1256,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>22</v>
@@ -1257,14 +1272,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1297,7 +1312,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1307,14 +1322,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1323,31 +1338,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1356,28 +1371,28 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>22</v>
@@ -1389,14 +1404,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1406,11 +1421,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>22</v>
@@ -1422,14 +1437,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1446,7 +1461,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1479,7 +1494,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1495,21 +1510,21 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>22</v>
@@ -1521,20 +1536,20 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1542,10 +1557,10 @@
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1554,14 +1569,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1571,11 +1586,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1611,7 +1626,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1633,7 +1648,7 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1644,7 +1659,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1660,7 +1675,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1670,11 +1685,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>22</v>
@@ -1686,14 +1701,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1703,14 +1718,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1719,14 +1734,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1736,14 +1751,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1752,14 +1767,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1769,7 +1784,7 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
@@ -1802,11 +1817,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>22</v>
@@ -1825,7 +1840,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1835,11 +1850,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>22</v>
@@ -1851,14 +1866,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1868,49 +1883,115 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>22</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
-      <c r="P35" s="13">
-        <v>1378.155</v>
-      </c>
-      <c r="Q35" s="13"/>
-    </row>
-    <row r="36" ht="16.5" customHeight="1">
-      <c t="s" r="A36" s="14">
-        <v>105</v>
-      </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c t="s" r="G36" s="15">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
         <v>106</v>
       </c>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="16"/>
-      <c t="s" r="K36" s="17">
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>42</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>30</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
         <v>107</v>
       </c>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>108</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>109</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>22</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>30</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>91</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="P37" s="13">
+        <v>1420.155</v>
+      </c>
+      <c r="Q37" s="13"/>
+    </row>
+    <row r="38" ht="16.5" customHeight="1">
+      <c t="s" r="A38" s="14">
+        <v>110</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c t="s" r="G38" s="15">
+        <v>111</v>
+      </c>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="16"/>
+      <c t="s" r="K38" s="17">
+        <v>112</v>
+      </c>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="152">
+  <mergeCells count="162">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2059,10 +2140,20 @@
     <mergeCell ref="H34:K34"/>
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="K38:Q38"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-07_00-00.xlsx
+++ b/DaySale_2025-09-07_00-00.xlsx
@@ -212,12 +212,21 @@
     <t>18.0000</t>
   </si>
   <si>
+    <t>MACROFURAN 100 MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>27.0600</t>
+  </si>
+  <si>
     <t>MELLITOFIX MET 12.5/500 MG 30 F.C. TABS</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>193.50</t>
   </si>
   <si>
@@ -245,6 +254,15 @@
     <t>120.0000</t>
   </si>
   <si>
+    <t>URINEX 24 CAPS</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
     <t>VETOCETAMOL 24 TAB.</t>
   </si>
   <si>
@@ -254,6 +272,18 @@
     <t>36.00</t>
   </si>
   <si>
+    <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
+  </si>
+  <si>
+    <t>3:6</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>14.4000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -293,7 +323,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>2.0000</t>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>3:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -302,9 +335,6 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>6.0000</t>
-  </si>
-  <si>
     <t>صابون ديتول اوريجنيال 115 جم</t>
   </si>
   <si>
@@ -317,9 +347,6 @@
     <t>فرشه للشعر</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>35.00</t>
   </si>
   <si>
@@ -341,7 +368,7 @@
     <t>مشط بلاستك طويل</t>
   </si>
   <si>
-    <t>Sunday, 7 September, 2025 12:07 PM</t>
+    <t>Sunday, 7 September, 2025 12:42 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1510,7 +1537,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1520,14 +1547,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1536,20 +1563,20 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1576,24 +1603,24 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1609,7 +1636,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1619,11 +1646,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1635,14 +1662,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1652,14 +1679,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1668,31 +1695,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1701,31 +1728,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1741,21 +1768,21 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>38</v>
@@ -1767,14 +1794,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1784,11 +1811,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>22</v>
@@ -1800,14 +1827,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1817,14 +1844,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>22</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1833,14 +1860,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1850,14 +1877,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1866,14 +1893,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1883,11 +1910,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>22</v>
@@ -1899,14 +1926,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1916,11 +1943,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>22</v>
@@ -1932,14 +1959,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1949,49 +1976,148 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>22</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
-      <c r="P37" s="13">
-        <v>1420.155</v>
-      </c>
-      <c r="Q37" s="13"/>
-    </row>
-    <row r="38" ht="16.5" customHeight="1">
-      <c t="s" r="A38" s="14">
-        <v>110</v>
-      </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c t="s" r="G38" s="15">
-        <v>111</v>
-      </c>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="16"/>
-      <c t="s" r="K38" s="17">
-        <v>112</v>
-      </c>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
+        <v>114</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>42</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>30</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>101</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>102</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
+        <v>115</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>42</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>30</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>116</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>117</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
+        <v>118</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>22</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>30</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>101</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>102</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="P40" s="13">
+        <v>1486.615</v>
+      </c>
+      <c r="Q40" s="13"/>
+    </row>
+    <row r="41" ht="16.5" customHeight="1">
+      <c t="s" r="A41" s="14">
+        <v>119</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c t="s" r="G41" s="15">
+        <v>120</v>
+      </c>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="16"/>
+      <c t="s" r="K41" s="17">
+        <v>121</v>
+      </c>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="162">
+  <mergeCells count="177">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2150,10 +2276,25 @@
     <mergeCell ref="H36:K36"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="N36:O36"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="K38:Q38"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="K41:Q41"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-07_00-00.xlsx
+++ b/DaySale_2025-09-07_00-00.xlsx
@@ -155,6 +155,15 @@
     <t>22.0000</t>
   </si>
   <si>
+    <t>GLAPTIVIA 100MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>303.00</t>
+  </si>
+  <si>
+    <t>99.9900</t>
+  </si>
+  <si>
     <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -368,7 +377,7 @@
     <t>مشط بلاستك طويل</t>
   </si>
   <si>
-    <t>Sunday, 7 September, 2025 12:42 PM</t>
+    <t>Sunday, 7 September, 2025 1:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1306,7 +1315,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1323,7 +1332,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1339,7 +1348,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1349,11 +1358,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>22</v>
@@ -1365,14 +1374,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1389,7 +1398,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1405,13 +1414,13 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1422,7 +1431,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1444,7 +1453,7 @@
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1471,7 +1480,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1504,7 +1513,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1514,14 +1523,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1530,14 +1539,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1570,7 +1579,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1580,14 +1589,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1596,20 +1605,20 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1636,13 +1645,13 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1653,7 +1662,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1669,7 +1678,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1679,11 +1688,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1716,7 +1725,7 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1728,14 +1737,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1745,11 +1754,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1761,14 +1770,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1778,14 +1787,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1794,31 +1803,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1827,14 +1836,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1844,14 +1853,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>105</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1877,14 +1886,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>38</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1893,14 +1902,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1910,14 +1919,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1926,14 +1935,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1947,7 +1956,7 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>22</v>
@@ -1959,14 +1968,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1976,11 +1985,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>22</v>
@@ -1999,7 +2008,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2009,11 +2018,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>22</v>
@@ -2025,7 +2034,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2042,11 +2051,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>22</v>
@@ -2065,7 +2074,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2075,49 +2084,82 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>22</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
-      <c r="P40" s="13">
-        <v>1486.615</v>
-      </c>
-      <c r="Q40" s="13"/>
-    </row>
-    <row r="41" ht="16.5" customHeight="1">
-      <c t="s" r="A41" s="14">
-        <v>119</v>
-      </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c t="s" r="G41" s="15">
-        <v>120</v>
-      </c>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="16"/>
-      <c t="s" r="K41" s="17">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
         <v>121</v>
       </c>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>22</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>30</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>104</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>105</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="P41" s="13">
+        <v>1586.605</v>
+      </c>
+      <c r="Q41" s="13"/>
+    </row>
+    <row r="42" ht="16.5" customHeight="1">
+      <c t="s" r="A42" s="14">
+        <v>122</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c t="s" r="G42" s="15">
+        <v>123</v>
+      </c>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="16"/>
+      <c t="s" r="K42" s="17">
+        <v>124</v>
+      </c>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="177">
+  <mergeCells count="182">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2291,10 +2333,15 @@
     <mergeCell ref="H39:K39"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="K41:Q41"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="K42:Q42"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-07_00-00.xlsx
+++ b/DaySale_2025-09-07_00-00.xlsx
@@ -122,6 +122,18 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
     <t>DURICEF 500MG/5ML SUSP. 60ML</t>
   </si>
   <si>
@@ -212,6 +224,15 @@
     <t>149.0000</t>
   </si>
   <si>
+    <t>IVY ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
     <t>LAMIFEN 1% CREAM 15 GM</t>
   </si>
   <si>
@@ -263,6 +284,15 @@
     <t>120.0000</t>
   </si>
   <si>
+    <t>UNICTAM 250MG/5ML SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>71.0000</t>
+  </si>
+  <si>
     <t>URINEX 24 CAPS</t>
   </si>
   <si>
@@ -278,9 +308,6 @@
     <t>5:0</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
     <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
   </si>
   <si>
@@ -332,18 +359,18 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
     <t>6.0000</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
     <t>صابون ديتول اوريجنيال 115 جم</t>
   </si>
   <si>
@@ -377,7 +404,7 @@
     <t>مشط بلاستك طويل</t>
   </si>
   <si>
-    <t>Sunday, 7 September, 2025 1:02 PM</t>
+    <t>Sunday, 7 September, 2025 1:09 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1233,7 +1260,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1282,7 +1309,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1292,11 +1319,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>22</v>
@@ -1308,7 +1335,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1325,14 +1352,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1341,14 +1368,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1358,14 +1385,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1374,14 +1401,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1414,7 +1441,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1424,14 +1451,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1440,31 +1467,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1473,28 +1500,28 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>22</v>
@@ -1506,14 +1533,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1523,11 +1550,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>22</v>
@@ -1539,14 +1566,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1563,7 +1590,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1579,7 +1606,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1596,7 +1623,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1629,7 +1656,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1645,13 +1672,13 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1662,7 +1689,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1678,7 +1705,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1688,14 +1715,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1704,20 +1731,20 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1725,10 +1752,10 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1737,14 +1764,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1761,7 +1788,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1777,7 +1804,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1787,11 +1814,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1803,14 +1830,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1820,14 +1847,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1836,31 +1863,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1869,31 +1896,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>108</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1902,31 +1929,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1942,7 +1969,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1952,11 +1979,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>22</v>
@@ -1968,14 +1995,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1985,14 +2012,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>19</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>22</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2001,14 +2028,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2018,14 +2045,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2034,14 +2061,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2051,11 +2078,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>22</v>
@@ -2067,7 +2094,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2084,11 +2111,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>19</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>22</v>
@@ -2100,14 +2127,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2117,49 +2144,148 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>22</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
-      <c r="P41" s="13">
-        <v>1586.605</v>
-      </c>
-      <c r="Q41" s="13"/>
-    </row>
-    <row r="42" ht="16.5" customHeight="1">
-      <c t="s" r="A42" s="14">
-        <v>122</v>
-      </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c t="s" r="G42" s="15">
-        <v>123</v>
-      </c>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="16"/>
-      <c t="s" r="K42" s="17">
-        <v>124</v>
-      </c>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
+        <v>126</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>46</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>30</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>113</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>114</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
+        <v>127</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>46</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>30</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>128</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>129</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>130</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>22</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>30</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>113</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>114</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="P44" s="13">
+        <v>1738.4849999999999</v>
+      </c>
+      <c r="Q44" s="13"/>
+    </row>
+    <row r="45" ht="16.5" customHeight="1">
+      <c t="s" r="A45" s="14">
+        <v>131</v>
+      </c>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c t="s" r="G45" s="15">
+        <v>132</v>
+      </c>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="16"/>
+      <c t="s" r="K45" s="17">
+        <v>133</v>
+      </c>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="182">
+  <mergeCells count="197">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2338,10 +2464,25 @@
     <mergeCell ref="H40:K40"/>
     <mergeCell ref="L40:M40"/>
     <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="K45:Q45"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-07_00-00.xlsx
+++ b/DaySale_2025-09-07_00-00.xlsx
@@ -404,7 +404,7 @@
     <t>مشط بلاستك طويل</t>
   </si>
   <si>
-    <t>Sunday, 7 September, 2025 1:09 PM</t>
+    <t>Sunday, 7 September, 2025 1:36 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-07_00-00.xlsx
+++ b/DaySale_2025-09-07_00-00.xlsx
@@ -158,6 +158,18 @@
     <t>28.0000</t>
   </si>
   <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>7:1</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
     <t>GARAMYCIN 0.1% CREAM 15 GM</t>
   </si>
   <si>
@@ -308,6 +320,15 @@
     <t>5:0</t>
   </si>
   <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
   </si>
   <si>
@@ -356,6 +377,15 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -398,13 +428,10 @@
     <t>8.00</t>
   </si>
   <si>
-    <t>8.0000</t>
-  </si>
-  <si>
     <t>مشط بلاستك طويل</t>
   </si>
   <si>
-    <t>Sunday, 7 September, 2025 1:36 PM</t>
+    <t>Sunday, 7 September, 2025 2:13 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1342,7 +1369,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1352,14 +1379,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1368,7 +1395,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1385,14 +1412,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1401,14 +1428,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1418,14 +1445,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1434,14 +1461,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1474,7 +1501,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1484,14 +1511,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1500,31 +1527,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1533,7 +1560,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1546,15 +1573,15 @@
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>22</v>
@@ -1566,14 +1593,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1583,11 +1610,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>22</v>
@@ -1599,14 +1626,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1616,11 +1643,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>22</v>
@@ -1632,14 +1659,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1656,7 +1683,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1672,7 +1699,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1682,11 +1709,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1698,14 +1725,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1722,7 +1749,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1738,21 +1765,21 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>22</v>
@@ -1764,7 +1791,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1777,15 +1804,15 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>22</v>
@@ -1797,14 +1824,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1814,14 +1841,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1830,14 +1857,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1847,11 +1874,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1863,14 +1890,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1880,11 +1907,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1903,7 +1930,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1913,14 +1940,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1929,14 +1956,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1946,14 +1973,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1962,31 +1989,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1995,31 +2022,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>46</v>
+        <v>115</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>98</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2028,14 +2055,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>46</v>
+        <v>119</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2045,14 +2072,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2061,14 +2088,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2078,14 +2105,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>19</v>
+        <v>123</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2094,14 +2121,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2111,14 +2138,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>19</v>
+        <v>116</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>22</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2127,14 +2154,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2144,14 +2171,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2160,14 +2187,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2177,11 +2204,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>22</v>
@@ -2193,14 +2220,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2210,11 +2237,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>22</v>
@@ -2226,14 +2253,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2243,49 +2270,148 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>22</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
-      <c r="P44" s="13">
-        <v>1738.4849999999999</v>
-      </c>
-      <c r="Q44" s="13"/>
-    </row>
-    <row r="45" ht="16.5" customHeight="1">
-      <c t="s" r="A45" s="14">
-        <v>131</v>
-      </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c t="s" r="G45" s="15">
-        <v>132</v>
-      </c>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="16"/>
-      <c t="s" r="K45" s="17">
-        <v>133</v>
-      </c>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>136</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>46</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>30</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>120</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>121</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
+        <v>137</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>46</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>30</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>138</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>124</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>139</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>22</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>30</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>120</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>121</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="P47" s="13">
+        <v>1776.3250000000001</v>
+      </c>
+      <c r="Q47" s="13"/>
+    </row>
+    <row r="48" ht="16.5" customHeight="1">
+      <c t="s" r="A48" s="14">
+        <v>140</v>
+      </c>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c t="s" r="G48" s="15">
+        <v>141</v>
+      </c>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="16"/>
+      <c t="s" r="K48" s="17">
+        <v>142</v>
+      </c>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="197">
+  <mergeCells count="212">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2479,10 +2605,25 @@
     <mergeCell ref="H43:K43"/>
     <mergeCell ref="L43:M43"/>
     <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="K45:Q45"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="K48:Q48"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-07_00-00.xlsx
+++ b/DaySale_2025-09-07_00-00.xlsx
@@ -431,7 +431,7 @@
     <t>مشط بلاستك طويل</t>
   </si>
   <si>
-    <t>Sunday, 7 September, 2025 2:13 PM</t>
+    <t>Sunday, 7 September, 2025 2:32 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-07_00-00.xlsx
+++ b/DaySale_2025-09-07_00-00.xlsx
@@ -417,6 +417,18 @@
   </si>
   <si>
     <t>35.0000</t>
+  </si>
+  <si>
+    <t>قطن 100 جم</t>
+  </si>
+  <si>
+    <t>29:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
   </si>
   <si>
     <t xml:space="preserve">كالونا </t>
@@ -2293,7 +2305,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>46</v>
+        <v>137</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2303,11 +2315,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>22</v>
@@ -2319,7 +2331,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2336,11 +2348,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>22</v>
@@ -2352,14 +2364,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2369,49 +2381,82 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
+        <v>124</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>143</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>22</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>30</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>120</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
         <v>121</v>
       </c>
-      <c t="s" r="Q46" s="12">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="47" ht="25.5" customHeight="1">
-      <c r="P47" s="13">
-        <v>1776.3250000000001</v>
-      </c>
-      <c r="Q47" s="13"/>
-    </row>
-    <row r="48" ht="16.5" customHeight="1">
-      <c t="s" r="A48" s="14">
-        <v>140</v>
-      </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c t="s" r="G48" s="15">
-        <v>141</v>
-      </c>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="16"/>
-      <c t="s" r="K48" s="17">
-        <v>142</v>
-      </c>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
+      <c t="s" r="Q47" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="P48" s="13">
+        <v>1796.3250000000001</v>
+      </c>
+      <c r="Q48" s="13"/>
+    </row>
+    <row r="49" ht="16.5" customHeight="1">
+      <c t="s" r="A49" s="14">
+        <v>144</v>
+      </c>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c t="s" r="G49" s="15">
+        <v>145</v>
+      </c>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="16"/>
+      <c t="s" r="K49" s="17">
+        <v>146</v>
+      </c>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="212">
+  <mergeCells count="217">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2620,10 +2665,15 @@
     <mergeCell ref="H46:K46"/>
     <mergeCell ref="L46:M46"/>
     <mergeCell ref="N46:O46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="K48:Q48"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="K49:Q49"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-07_00-00.xlsx
+++ b/DaySale_2025-09-07_00-00.xlsx
@@ -443,7 +443,7 @@
     <t>مشط بلاستك طويل</t>
   </si>
   <si>
-    <t>Sunday, 7 September, 2025 2:32 PM</t>
+    <t>Sunday, 7 September, 2025 2:55 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-07_00-00.xlsx
+++ b/DaySale_2025-09-07_00-00.xlsx
@@ -134,12 +134,21 @@
     <t>11.8800</t>
   </si>
   <si>
+    <t>DIASMECT 20% SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>DURICEF 500MG/5ML SUSP. 60ML</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>78.00</t>
   </si>
   <si>
@@ -170,6 +179,15 @@
     <t>3.8400</t>
   </si>
   <si>
+    <t>FAYCID HAIR OIL 60 ML</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>GARAMYCIN 0.1% CREAM 15 GM</t>
   </si>
   <si>
@@ -317,9 +335,6 @@
     <t>VETOCETAMOL 24 TAB.</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -404,9 +419,6 @@
     <t>صابون ديتول اوريجنيال 115 جم</t>
   </si>
   <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t>فرشه اسنان POWER GOLD كبار</t>
   </si>
   <si>
@@ -443,7 +455,7 @@
     <t>مشط بلاستك طويل</t>
   </si>
   <si>
-    <t>Sunday, 7 September, 2025 2:55 PM</t>
+    <t>Sunday, 7 September, 2025 4:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1348,7 +1360,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1358,11 +1370,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>22</v>
@@ -1374,14 +1386,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1391,14 +1403,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1407,14 +1419,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1431,7 +1443,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1447,7 +1459,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1457,14 +1469,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
         <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1480,7 +1492,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1513,7 +1525,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1523,14 +1535,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1539,14 +1551,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1556,14 +1568,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1572,20 +1584,20 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1612,7 +1624,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1629,7 +1641,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1645,13 +1657,13 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1678,7 +1690,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1711,7 +1723,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1721,14 +1733,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1737,14 +1749,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1754,14 +1766,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1770,14 +1782,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1787,14 +1799,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1803,31 +1815,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1836,14 +1848,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1876,13 +1888,13 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -1893,7 +1905,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1909,7 +1921,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1919,14 +1931,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1935,14 +1947,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1952,14 +1964,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1968,14 +1980,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1985,11 +1997,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>39</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2001,14 +2013,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2018,14 +2030,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2034,14 +2046,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2051,14 +2063,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2067,31 +2079,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2100,28 +2112,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>42</v>
@@ -2133,14 +2145,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>46</v>
+        <v>124</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2150,14 +2162,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>102</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2173,7 +2185,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2206,7 +2218,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2216,14 +2228,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>19</v>
+        <v>121</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>22</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2239,7 +2251,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2249,14 +2261,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>19</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2265,14 +2277,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2282,11 +2294,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>19</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>22</v>
@@ -2305,7 +2317,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>137</v>
+        <v>42</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2315,11 +2327,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>22</v>
@@ -2331,14 +2343,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2348,11 +2360,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>22</v>
@@ -2364,14 +2376,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>46</v>
+        <v>141</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2385,7 +2397,7 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>22</v>
@@ -2397,14 +2409,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2414,49 +2426,115 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>22</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
-      <c r="P48" s="13">
-        <v>1796.3250000000001</v>
-      </c>
-      <c r="Q48" s="13"/>
-    </row>
-    <row r="49" ht="16.5" customHeight="1">
-      <c t="s" r="A49" s="14">
-        <v>144</v>
-      </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c t="s" r="G49" s="15">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
         <v>145</v>
       </c>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="16"/>
-      <c t="s" r="K49" s="17">
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>49</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>30</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
         <v>146</v>
       </c>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17"/>
-      <c r="Q49" s="17"/>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>129</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
+        <v>147</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>22</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>30</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>125</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="P50" s="13">
+        <v>1849.3250000000001</v>
+      </c>
+      <c r="Q50" s="13"/>
+    </row>
+    <row r="51" ht="16.5" customHeight="1">
+      <c t="s" r="A51" s="14">
+        <v>148</v>
+      </c>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c t="s" r="G51" s="15">
+        <v>149</v>
+      </c>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="16"/>
+      <c t="s" r="K51" s="17">
+        <v>150</v>
+      </c>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="217">
+  <mergeCells count="227">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2670,10 +2748,20 @@
     <mergeCell ref="H47:K47"/>
     <mergeCell ref="L47:M47"/>
     <mergeCell ref="N47:O47"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="K49:Q49"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="K51:Q51"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-07_00-00.xlsx
+++ b/DaySale_2025-09-07_00-00.xlsx
@@ -314,6 +314,12 @@
     <t>120.0000</t>
   </si>
   <si>
+    <t>ROSASEEF 30 CAPS</t>
+  </si>
+  <si>
+    <t>39.6000</t>
+  </si>
+  <si>
     <t>UNICTAM 250MG/5ML SUSP. 60ML</t>
   </si>
   <si>
@@ -455,7 +461,7 @@
     <t>مشط بلاستك طويل</t>
   </si>
   <si>
-    <t>Sunday, 7 September, 2025 4:33 PM</t>
+    <t>Sunday, 7 September, 2025 5:47 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1931,14 +1937,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1947,14 +1953,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1964,14 +1970,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1980,14 +1986,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1997,11 +2003,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2013,14 +2019,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2030,14 +2036,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2046,14 +2052,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2063,14 +2069,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2079,14 +2085,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2096,11 +2102,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2112,14 +2118,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2129,14 +2135,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2145,31 +2151,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2178,14 +2184,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>49</v>
+        <v>126</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2195,14 +2201,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2211,7 +2217,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2228,14 +2234,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2261,14 +2267,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2277,14 +2283,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2294,14 +2300,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>58</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2310,14 +2316,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2343,14 +2349,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2360,11 +2366,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>22</v>
@@ -2376,14 +2382,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>141</v>
+        <v>38</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2393,11 +2399,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>22</v>
@@ -2409,14 +2415,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>49</v>
+        <v>143</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2426,11 +2432,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>22</v>
@@ -2442,7 +2448,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2459,11 +2465,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>22</v>
@@ -2482,7 +2488,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2492,49 +2498,82 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>22</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
-      <c r="P50" s="13">
-        <v>1849.3250000000001</v>
-      </c>
-      <c r="Q50" s="13"/>
-    </row>
-    <row r="51" ht="16.5" customHeight="1">
-      <c t="s" r="A51" s="14">
-        <v>148</v>
-      </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c t="s" r="G51" s="15">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
         <v>149</v>
       </c>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="16"/>
-      <c t="s" r="K51" s="17">
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>22</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>30</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>127</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>128</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="P51" s="13">
+        <v>1888.925</v>
+      </c>
+      <c r="Q51" s="13"/>
+    </row>
+    <row r="52" ht="16.5" customHeight="1">
+      <c t="s" r="A52" s="14">
         <v>150</v>
       </c>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c t="s" r="G52" s="15">
+        <v>151</v>
+      </c>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="16"/>
+      <c t="s" r="K52" s="17">
+        <v>152</v>
+      </c>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="227">
+  <mergeCells count="232">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2758,10 +2797,15 @@
     <mergeCell ref="H49:K49"/>
     <mergeCell ref="L49:M49"/>
     <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="K51:Q51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="K52:Q52"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-07_00-00.xlsx
+++ b/DaySale_2025-09-07_00-00.xlsx
@@ -122,6 +122,18 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>3:4</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -461,7 +473,7 @@
     <t>مشط بلاستك طويل</t>
   </si>
   <si>
-    <t>Sunday, 7 September, 2025 5:47 PM</t>
+    <t>Sunday, 7 September, 2025 5:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1317,7 +1329,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1350,7 +1362,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1366,7 +1378,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1376,11 +1388,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>22</v>
@@ -1392,14 +1404,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1449,7 +1461,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1475,14 +1487,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1491,14 +1503,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1508,11 +1520,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>22</v>
@@ -1524,7 +1536,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1541,14 +1553,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1557,14 +1569,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1574,14 +1586,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1590,14 +1602,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1630,7 +1642,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1640,14 +1652,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1656,31 +1668,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1689,28 +1701,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>22</v>
@@ -1722,14 +1734,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1739,11 +1751,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>22</v>
@@ -1755,14 +1767,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1772,11 +1784,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>22</v>
@@ -1788,14 +1800,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1812,7 +1824,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1828,7 +1840,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1838,11 +1850,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1854,14 +1866,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1878,7 +1890,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1894,21 +1906,21 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>22</v>
@@ -1920,31 +1932,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1953,14 +1965,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1970,14 +1982,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1986,14 +1998,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2003,14 +2015,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2019,14 +2031,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2036,11 +2048,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2052,14 +2064,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2069,14 +2081,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2085,14 +2097,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2109,7 +2121,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2175,7 +2187,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2197,7 +2209,7 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2208,7 +2220,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2224,7 +2236,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>49</v>
+        <v>130</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2234,14 +2246,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2250,14 +2262,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2267,14 +2279,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2283,14 +2295,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2300,14 +2312,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2316,14 +2328,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2333,14 +2345,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>19</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>58</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2349,14 +2361,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2370,7 +2382,7 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>22</v>
@@ -2382,14 +2394,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2399,11 +2411,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>22</v>
@@ -2415,14 +2427,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>143</v>
+        <v>42</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2455,7 +2467,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>49</v>
+        <v>147</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2465,11 +2477,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>22</v>
@@ -2481,14 +2493,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2498,11 +2510,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>22</v>
@@ -2514,14 +2526,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2531,49 +2543,82 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>22</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
-      <c r="P51" s="13">
-        <v>1888.925</v>
-      </c>
-      <c r="Q51" s="13"/>
-    </row>
-    <row r="52" ht="16.5" customHeight="1">
-      <c t="s" r="A52" s="14">
-        <v>150</v>
-      </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c t="s" r="G52" s="15">
-        <v>151</v>
-      </c>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="16"/>
-      <c t="s" r="K52" s="17">
-        <v>152</v>
-      </c>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17"/>
-      <c r="Q52" s="17"/>
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
+        <v>153</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>22</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>30</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>131</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>132</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="P52" s="13">
+        <v>1973.925</v>
+      </c>
+      <c r="Q52" s="13"/>
+    </row>
+    <row r="53" ht="16.5" customHeight="1">
+      <c t="s" r="A53" s="14">
+        <v>154</v>
+      </c>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c t="s" r="G53" s="15">
+        <v>155</v>
+      </c>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="16"/>
+      <c t="s" r="K53" s="17">
+        <v>156</v>
+      </c>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="232">
+  <mergeCells count="237">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2802,10 +2847,15 @@
     <mergeCell ref="H50:K50"/>
     <mergeCell ref="L50:M50"/>
     <mergeCell ref="N50:O50"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="K52:Q52"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="K53:Q53"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-07_00-00.xlsx
+++ b/DaySale_2025-09-07_00-00.xlsx
@@ -167,6 +167,18 @@
     <t>78.0000</t>
   </si>
   <si>
+    <t>EREC 100MG 12 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>2:5</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>11.5200</t>
+  </si>
+  <si>
     <t>EXTRAUMA DNA CREAM 25 GM</t>
   </si>
   <si>
@@ -305,6 +317,12 @@
     <t>63.8550</t>
   </si>
   <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>132.0000</t>
+  </si>
+  <si>
     <t>PLEGICA 1% EYE DROPS 10 ML</t>
   </si>
   <si>
@@ -422,7 +440,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>10.0000</t>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>17:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -473,7 +494,7 @@
     <t>مشط بلاستك طويل</t>
   </si>
   <si>
-    <t>Sunday, 7 September, 2025 5:49 PM</t>
+    <t>Sunday, 7 September, 2025 5:51 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1461,7 +1482,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1494,7 +1515,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1520,14 +1541,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1536,14 +1557,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1553,11 +1574,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>22</v>
@@ -1569,7 +1590,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1586,14 +1607,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1602,14 +1623,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1619,14 +1640,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1635,14 +1656,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1675,7 +1696,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1685,14 +1706,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1701,31 +1722,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1734,28 +1755,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>22</v>
@@ -1767,14 +1788,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1784,11 +1805,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>22</v>
@@ -1800,14 +1821,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1817,11 +1838,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>22</v>
@@ -1833,14 +1854,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1857,7 +1878,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1873,7 +1894,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1883,11 +1904,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1899,14 +1920,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1923,7 +1944,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1939,24 +1960,24 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1965,14 +1986,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1982,14 +2003,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1998,28 +2019,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>22</v>
@@ -2031,14 +2052,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2048,7 +2069,7 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
@@ -2071,7 +2092,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2081,14 +2102,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>43</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2097,14 +2118,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2114,14 +2135,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2130,14 +2151,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>65</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2147,11 +2168,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>43</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2163,14 +2184,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2180,14 +2201,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2196,14 +2217,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2213,14 +2234,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2229,31 +2250,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2262,28 +2283,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>53</v>
+        <v>132</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>46</v>
@@ -2295,14 +2316,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>53</v>
+        <v>136</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2312,14 +2333,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>61</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2328,14 +2349,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2345,11 +2366,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>46</v>
@@ -2361,14 +2382,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2378,14 +2399,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>19</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>62</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>22</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2394,14 +2415,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2411,14 +2432,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>62</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2427,14 +2448,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2444,11 +2465,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>19</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>22</v>
@@ -2460,14 +2481,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>147</v>
+        <v>46</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2477,11 +2498,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>22</v>
@@ -2500,7 +2521,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2510,11 +2531,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>22</v>
@@ -2526,14 +2547,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>53</v>
+        <v>154</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2543,11 +2564,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>22</v>
@@ -2559,14 +2580,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2576,49 +2597,115 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>22</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
-      <c r="P52" s="13">
-        <v>1973.925</v>
-      </c>
-      <c r="Q52" s="13"/>
-    </row>
-    <row r="53" ht="16.5" customHeight="1">
-      <c t="s" r="A53" s="14">
-        <v>154</v>
-      </c>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c t="s" r="G53" s="15">
-        <v>155</v>
-      </c>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="16"/>
-      <c t="s" r="K53" s="17">
-        <v>156</v>
-      </c>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="17"/>
-      <c r="P53" s="17"/>
-      <c r="Q53" s="17"/>
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>158</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>57</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>30</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>159</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>141</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
+        <v>160</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>22</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>30</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>137</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>138</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="P54" s="13">
+        <v>2141.4450000000002</v>
+      </c>
+      <c r="Q54" s="13"/>
+    </row>
+    <row r="55" ht="16.5" customHeight="1">
+      <c t="s" r="A55" s="14">
+        <v>161</v>
+      </c>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c t="s" r="G55" s="15">
+        <v>162</v>
+      </c>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="16"/>
+      <c t="s" r="K55" s="17">
+        <v>163</v>
+      </c>
+      <c r="L55" s="17"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="17"/>
+      <c r="O55" s="17"/>
+      <c r="P55" s="17"/>
+      <c r="Q55" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="237">
+  <mergeCells count="247">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2852,10 +2939,20 @@
     <mergeCell ref="H51:K51"/>
     <mergeCell ref="L51:M51"/>
     <mergeCell ref="N51:O51"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="K53:Q53"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="K55:Q55"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-07_00-00.xlsx
+++ b/DaySale_2025-09-07_00-00.xlsx
@@ -350,6 +350,15 @@
     <t>39.6000</t>
   </si>
   <si>
+    <t>SYMBICORT 160/4.5MCG/DOSE TURBUHALER 120 DOSES</t>
+  </si>
+  <si>
+    <t>432.00</t>
+  </si>
+  <si>
+    <t>432.0000</t>
+  </si>
+  <si>
     <t>UNICTAM 250MG/5ML SUSP. 60ML</t>
   </si>
   <si>
@@ -494,7 +503,7 @@
     <t>مشط بلاستك طويل</t>
   </si>
   <si>
-    <t>Sunday, 7 September, 2025 5:51 PM</t>
+    <t>Sunday, 7 September, 2025 5:52 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2125,7 +2134,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2142,7 +2151,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2158,7 +2167,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2168,11 +2177,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>43</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2184,14 +2193,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2201,14 +2210,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>43</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2224,7 +2233,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2234,14 +2243,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2250,14 +2259,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2267,11 +2276,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2283,14 +2292,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2300,14 +2309,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2316,31 +2325,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2349,14 +2358,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>57</v>
+        <v>139</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2373,7 +2382,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>46</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2399,14 +2408,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>144</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2432,14 +2441,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
+        <v>146</v>
+      </c>
+      <c t="s" r="Q46" s="12">
         <v>147</v>
-      </c>
-      <c t="s" r="Q46" s="12">
-        <v>46</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2455,7 +2464,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2465,14 +2474,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>19</v>
+        <v>149</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>66</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2481,14 +2490,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2514,14 +2523,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2531,11 +2540,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>19</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>22</v>
@@ -2554,7 +2563,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>154</v>
+        <v>42</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2564,11 +2573,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>22</v>
@@ -2580,14 +2589,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>57</v>
+        <v>157</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2597,11 +2606,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>22</v>
@@ -2613,7 +2622,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2630,7 +2639,7 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
@@ -2646,14 +2655,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2663,49 +2672,82 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>22</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
-      <c r="P54" s="13">
-        <v>2141.4450000000002</v>
-      </c>
-      <c r="Q54" s="13"/>
-    </row>
-    <row r="55" ht="16.5" customHeight="1">
-      <c t="s" r="A55" s="14">
-        <v>161</v>
-      </c>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c t="s" r="G55" s="15">
-        <v>162</v>
-      </c>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="16"/>
-      <c t="s" r="K55" s="17">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
         <v>163</v>
       </c>
-      <c r="L55" s="17"/>
-      <c r="M55" s="17"/>
-      <c r="N55" s="17"/>
-      <c r="O55" s="17"/>
-      <c r="P55" s="17"/>
-      <c r="Q55" s="17"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>22</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>30</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>140</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>141</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="P55" s="13">
+        <v>2573.4450000000002</v>
+      </c>
+      <c r="Q55" s="13"/>
+    </row>
+    <row r="56" ht="16.5" customHeight="1">
+      <c t="s" r="A56" s="14">
+        <v>164</v>
+      </c>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c t="s" r="G56" s="15">
+        <v>165</v>
+      </c>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="16"/>
+      <c t="s" r="K56" s="17">
+        <v>166</v>
+      </c>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="17"/>
+      <c r="Q56" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="247">
+  <mergeCells count="252">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2949,10 +2991,15 @@
     <mergeCell ref="H53:K53"/>
     <mergeCell ref="L53:M53"/>
     <mergeCell ref="N53:O53"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="K55:Q55"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="K56:Q56"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-07_00-00.xlsx
+++ b/DaySale_2025-09-07_00-00.xlsx
@@ -62,6 +62,21 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>AMAGLUST 4/30 MG 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>102.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ANALLERGE 4 MG 60 TAB.</t>
   </si>
   <si>
@@ -74,12 +89,18 @@
     <t>9.9000</t>
   </si>
   <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
     <t>BETOLVEX 1MG/ML 2 AMP</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>64.00</t>
   </si>
   <si>
@@ -161,9 +182,6 @@
     <t>DURICEF 500MG/5ML SUSP. 60ML</t>
   </si>
   <si>
-    <t>78.00</t>
-  </si>
-  <si>
     <t>78.0000</t>
   </si>
   <si>
@@ -242,9 +260,6 @@
     <t>GLIPTUS 50 MG 30 TABS.</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>151.50</t>
   </si>
   <si>
@@ -323,6 +338,15 @@
     <t>132.0000</t>
   </si>
   <si>
+    <t>NORMOCARD 2.5 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>34.50</t>
+  </si>
+  <si>
+    <t>34.5000</t>
+  </si>
+  <si>
     <t>PLEGICA 1% EYE DROPS 10 ML</t>
   </si>
   <si>
@@ -449,10 +473,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>17:0</t>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>18:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -503,7 +527,7 @@
     <t>مشط بلاستك طويل</t>
   </si>
   <si>
-    <t>Sunday, 7 September, 2025 5:52 PM</t>
+    <t>Sunday, 7 September, 2025 6:13 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1194,7 +1218,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1203,14 +1227,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1220,14 +1244,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1236,14 +1260,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1260,7 +1284,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1276,24 +1300,24 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1302,31 +1326,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1335,31 +1359,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1368,31 +1392,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1401,14 +1425,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1418,14 +1442,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1434,14 +1458,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1458,7 +1482,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1491,7 +1515,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1507,7 +1531,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1517,14 +1541,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1533,14 +1557,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1550,11 +1574,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1566,14 +1590,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1583,14 +1607,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1599,14 +1623,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1623,7 +1647,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1639,7 +1663,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1649,14 +1673,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
         <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1672,7 +1696,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1689,7 +1713,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1705,7 +1729,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1715,14 +1739,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1731,14 +1755,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1748,14 +1772,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1764,31 +1788,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1797,14 +1821,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1814,14 +1838,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1830,31 +1854,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1863,14 +1887,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1880,14 +1904,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1896,14 +1920,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1913,14 +1937,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1929,14 +1953,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1946,14 +1970,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1962,14 +1986,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1979,14 +2003,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2002,7 +2026,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2012,14 +2036,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2028,31 +2052,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>22</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2061,14 +2085,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2078,14 +2102,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2094,14 +2118,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2118,7 +2142,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2134,13 +2158,13 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2151,7 +2175,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2167,7 +2191,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2177,11 +2201,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2193,14 +2217,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2210,14 +2234,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>43</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2226,14 +2250,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2243,14 +2267,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2259,14 +2283,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>127</v>
+        <v>53</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2299,7 +2323,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>131</v>
+        <v>71</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2309,11 +2333,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>50</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2325,14 +2349,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2342,14 +2366,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>46</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2358,31 +2382,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2391,31 +2415,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>57</v>
+        <v>139</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2424,31 +2448,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>57</v>
+        <v>143</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>147</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2457,31 +2481,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>57</v>
+        <v>147</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>46</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2490,31 +2514,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>19</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>66</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>22</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2523,31 +2547,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>19</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>66</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>22</v>
+        <v>155</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2556,31 +2580,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>22</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2589,31 +2613,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>157</v>
+        <v>113</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>24</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2629,24 +2653,24 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>140</v>
+        <v>24</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>141</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2662,13 +2686,13 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -2676,10 +2700,10 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2688,66 +2712,165 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>22</v>
+        <v>165</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
-      <c r="P55" s="13">
-        <v>2573.4450000000002</v>
-      </c>
-      <c r="Q55" s="13"/>
-    </row>
-    <row r="56" ht="16.5" customHeight="1">
-      <c t="s" r="A56" s="14">
-        <v>164</v>
-      </c>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c t="s" r="G56" s="15">
-        <v>165</v>
-      </c>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="16"/>
-      <c t="s" r="K56" s="17">
-        <v>166</v>
-      </c>
-      <c r="L56" s="17"/>
-      <c r="M56" s="17"/>
-      <c r="N56" s="17"/>
-      <c r="O56" s="17"/>
-      <c r="P56" s="17"/>
-      <c r="Q56" s="17"/>
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>168</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>63</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>37</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>148</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>149</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>169</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>63</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>37</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>170</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>152</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>171</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>21</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>37</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>148</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>149</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="P58" s="13">
+        <v>2724.4250000000002</v>
+      </c>
+      <c r="Q58" s="13"/>
+    </row>
+    <row r="59" ht="16.5" customHeight="1">
+      <c t="s" r="A59" s="14">
+        <v>172</v>
+      </c>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c t="s" r="G59" s="15">
+        <v>173</v>
+      </c>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="16"/>
+      <c t="s" r="K59" s="17">
+        <v>174</v>
+      </c>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="17"/>
+      <c r="Q59" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="252">
+  <mergeCells count="267">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2996,10 +3119,25 @@
     <mergeCell ref="H54:K54"/>
     <mergeCell ref="L54:M54"/>
     <mergeCell ref="N54:O54"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="K56:Q56"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="K59:Q59"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-07_00-00.xlsx
+++ b/DaySale_2025-09-07_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ABIMOL 300MG 5 RECTAL SUPP.</t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
     <t>2:3</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>87.00</t>
   </si>
   <si>
@@ -74,9 +89,6 @@
     <t>102.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>ANALLERGE 4 MG 60 TAB.</t>
   </si>
   <si>
@@ -98,6 +110,12 @@
     <t>12.4800</t>
   </si>
   <si>
+    <t>AUGRAM 642.9MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
+  </si>
+  <si>
+    <t>87.0000</t>
+  </si>
+  <si>
     <t>BETOLVEX 1MG/ML 2 AMP</t>
   </si>
   <si>
@@ -143,6 +161,12 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>CONGESTAL SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
@@ -350,9 +374,6 @@
     <t>PLEGICA 1% EYE DROPS 10 ML</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>27.00</t>
   </si>
   <si>
@@ -374,6 +395,15 @@
     <t>39.6000</t>
   </si>
   <si>
+    <t>SPASULANCE 62.5 MG 20 ORODISPERSIBLE FILMS</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
     <t>SYMBICORT 160/4.5MCG/DOSE TURBUHALER 120 DOSES</t>
   </si>
   <si>
@@ -419,9 +449,6 @@
     <t>3:6</t>
   </si>
   <si>
-    <t>90.00</t>
-  </si>
-  <si>
     <t>14.4000</t>
   </si>
   <si>
@@ -455,79 +482,73 @@
     <t>27:0</t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t>سرنجات 10 سم</t>
   </si>
   <si>
     <t>4.00</t>
   </si>
   <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>18:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>صابون ديتول اوريجنيال 115 جم</t>
+  </si>
+  <si>
+    <t>فرشه اسنان POWER GOLD كبار</t>
+  </si>
+  <si>
+    <t>فرشه للشعر</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>قطن 100 جم</t>
+  </si>
+  <si>
+    <t>29:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>مجموعه برد</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
     <t>8.0000</t>
   </si>
   <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>18:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>صابون ديتول اوريجنيال 115 جم</t>
-  </si>
-  <si>
-    <t>فرشه اسنان POWER GOLD كبار</t>
-  </si>
-  <si>
-    <t>فرشه للشعر</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>قطن 100 جم</t>
-  </si>
-  <si>
-    <t>29:0</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>مجموعه برد</t>
-  </si>
-  <si>
-    <t>8.00</t>
-  </si>
-  <si>
     <t>مشط بلاستك طويل</t>
   </si>
   <si>
-    <t>Sunday, 7 September, 2025 6:13 PM</t>
+    <t>Sunday, 7 September, 2025 6:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1267,7 +1288,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1277,14 +1298,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1293,7 +1314,7 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -1310,11 +1331,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>21</v>
@@ -1326,14 +1347,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1343,14 +1364,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1359,7 +1380,7 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1372,18 +1393,18 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1392,31 +1413,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1425,31 +1446,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1458,28 +1479,28 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1491,14 +1512,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1508,14 +1529,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1524,7 +1545,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1541,14 +1562,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1557,14 +1578,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1574,14 +1595,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1590,14 +1611,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1607,14 +1628,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1623,14 +1644,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1640,11 +1661,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1656,14 +1677,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1673,11 +1694,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1689,14 +1710,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1706,14 +1727,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1722,14 +1743,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1739,14 +1760,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1755,14 +1776,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1772,14 +1793,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1788,14 +1809,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1805,14 +1826,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1821,14 +1842,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1838,14 +1859,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1854,31 +1875,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1887,14 +1908,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1904,14 +1925,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1920,14 +1941,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1937,11 +1958,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -1953,31 +1974,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1986,14 +2007,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2003,11 +2024,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2019,14 +2040,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2036,11 +2057,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2052,14 +2073,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2069,14 +2090,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2085,14 +2106,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2125,7 +2146,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2135,11 +2156,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2151,31 +2172,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2184,14 +2205,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2201,11 +2222,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2217,14 +2238,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2234,14 +2255,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2250,31 +2271,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2283,14 +2304,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2300,14 +2321,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2316,7 +2337,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2333,11 +2354,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>50</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2356,7 +2377,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2373,7 +2394,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2389,7 +2410,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2399,11 +2420,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2415,14 +2436,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>139</v>
+        <v>61</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2432,14 +2453,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2448,14 +2469,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2465,14 +2486,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>58</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>53</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2481,31 +2502,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>147</v>
+        <v>51</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2514,31 +2535,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>63</v>
+        <v>145</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>53</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2547,31 +2568,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>63</v>
+        <v>148</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>155</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2580,31 +2601,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>63</v>
+        <v>152</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2613,31 +2634,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2646,31 +2667,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>24</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2679,31 +2700,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>161</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2712,31 +2733,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>165</v>
+        <v>71</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>61</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2745,31 +2766,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>148</v>
+        <v>28</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2778,31 +2799,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>28</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>152</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2811,66 +2832,198 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
-      <c r="P58" s="13">
-        <v>2724.4250000000002</v>
-      </c>
-      <c r="Q58" s="13"/>
-    </row>
-    <row r="59" ht="16.5" customHeight="1">
-      <c t="s" r="A59" s="14">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>170</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>171</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>43</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
         <v>172</v>
       </c>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c t="s" r="G59" s="15">
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
         <v>173</v>
       </c>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="16"/>
-      <c t="s" r="K59" s="17">
+      <c t="s" r="Q58" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
         <v>174</v>
       </c>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17"/>
-      <c r="N59" s="17"/>
-      <c r="O59" s="17"/>
-      <c r="P59" s="17"/>
-      <c r="Q59" s="17"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>71</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>43</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>14</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>175</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>71</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>43</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>176</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>177</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>178</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>16</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>43</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>14</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="P62" s="13">
+        <v>2964.4250000000002</v>
+      </c>
+      <c r="Q62" s="13"/>
+    </row>
+    <row r="63" ht="16.5" customHeight="1">
+      <c t="s" r="A63" s="14">
+        <v>179</v>
+      </c>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c t="s" r="G63" s="15">
+        <v>180</v>
+      </c>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="16"/>
+      <c t="s" r="K63" s="17">
+        <v>181</v>
+      </c>
+      <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="17"/>
+      <c r="O63" s="17"/>
+      <c r="P63" s="17"/>
+      <c r="Q63" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="267">
+  <mergeCells count="287">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3134,10 +3287,30 @@
     <mergeCell ref="H57:K57"/>
     <mergeCell ref="L57:M57"/>
     <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="K59:Q59"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="K63:Q63"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-07_00-00.xlsx
+++ b/DaySale_2025-09-07_00-00.xlsx
@@ -104,6 +104,9 @@
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
+    <t>3:1</t>
+  </si>
+  <si>
     <t>78.00</t>
   </si>
   <si>
@@ -548,7 +551,7 @@
     <t>مشط بلاستك طويل</t>
   </si>
   <si>
-    <t>Sunday, 7 September, 2025 6:27 PM</t>
+    <t>Sunday, 7 September, 2025 6:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1321,7 +1324,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1331,11 +1334,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>21</v>
@@ -1347,7 +1350,7 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1368,7 +1371,7 @@
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1380,7 +1383,7 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1397,11 +1400,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1413,14 +1416,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1430,11 +1433,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1446,7 +1449,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1459,15 +1462,15 @@
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1479,28 +1482,28 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1512,14 +1515,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1529,11 +1532,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1545,14 +1548,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1562,11 +1565,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1578,14 +1581,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1595,11 +1598,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1611,14 +1614,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1628,11 +1631,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1644,14 +1647,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1661,11 +1664,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1677,14 +1680,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1694,11 +1697,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1710,14 +1713,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1727,11 +1730,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1743,14 +1746,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1760,11 +1763,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1776,14 +1779,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1797,7 +1800,7 @@
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1809,14 +1812,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1826,11 +1829,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1842,7 +1845,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1859,11 +1862,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -1875,7 +1878,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1892,11 +1895,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1908,7 +1911,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1925,11 +1928,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1941,7 +1944,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1958,11 +1961,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -1974,28 +1977,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2007,14 +2010,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2024,11 +2027,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2040,7 +2043,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2057,11 +2060,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2073,14 +2076,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2090,11 +2093,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2106,14 +2109,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2123,11 +2126,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -2139,14 +2142,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2156,11 +2159,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2172,7 +2175,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2189,14 +2192,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2205,14 +2208,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2222,11 +2225,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2238,14 +2241,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2255,11 +2258,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2271,28 +2274,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2304,14 +2307,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2321,11 +2324,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2337,14 +2340,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2354,11 +2357,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2370,14 +2373,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2387,11 +2390,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2403,14 +2406,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2420,11 +2423,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2436,14 +2439,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2453,11 +2456,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2469,14 +2472,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2486,11 +2489,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2502,14 +2505,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2519,11 +2522,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2535,14 +2538,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2552,11 +2555,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2568,14 +2571,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2585,11 +2588,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2601,14 +2604,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2618,14 +2621,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2634,20 +2637,20 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2667,31 +2670,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2700,31 +2703,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2733,31 +2736,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2766,20 +2769,20 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -2787,7 +2790,7 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2799,20 +2802,20 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -2820,7 +2823,7 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2832,28 +2835,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2865,28 +2868,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2898,20 +2901,20 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -2931,28 +2934,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -2964,7 +2967,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -2977,7 +2980,7 @@
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
@@ -2999,7 +3002,7 @@
     </row>
     <row r="63" ht="16.5" customHeight="1">
       <c t="s" r="A63" s="14">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B63" s="14"/>
       <c r="C63" s="14"/>
@@ -3007,13 +3010,13 @@
       <c r="E63" s="14"/>
       <c r="F63" s="14"/>
       <c t="s" r="G63" s="15">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H63" s="15"/>
       <c r="I63" s="15"/>
       <c r="J63" s="16"/>
       <c t="s" r="K63" s="17">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L63" s="17"/>
       <c r="M63" s="17"/>

--- a/DaySale_2025-09-07_00-00.xlsx
+++ b/DaySale_2025-09-07_00-00.xlsx
@@ -551,7 +551,7 @@
     <t>مشط بلاستك طويل</t>
   </si>
   <si>
-    <t>Sunday, 7 September, 2025 6:28 PM</t>
+    <t>Sunday, 7 September, 2025 6:38 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-07_00-00.xlsx
+++ b/DaySale_2025-09-07_00-00.xlsx
@@ -101,6 +101,18 @@
     <t>9.9000</t>
   </si>
   <si>
+    <t>ANGIOSARTAN PLUS 40/25MG 28 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>81.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
@@ -257,6 +269,15 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">FLAMOGEST  30TABS</t>
+  </si>
+  <si>
+    <t>195.00</t>
+  </si>
+  <si>
+    <t>64.3500</t>
+  </si>
+  <si>
     <t>GARAMYCIN 0.1% CREAM 15 GM</t>
   </si>
   <si>
@@ -359,6 +380,15 @@
     <t>63.8550</t>
   </si>
   <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>117.0000</t>
+  </si>
+  <si>
     <t>NEUROTON 6 AMP</t>
   </si>
   <si>
@@ -434,6 +464,15 @@
     <t>21.0000</t>
   </si>
   <si>
+    <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
     <t>VETOCETAMOL 24 TAB.</t>
   </si>
   <si>
@@ -494,10 +533,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>18:0</t>
+    <t>54.0000</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -551,7 +587,7 @@
     <t>مشط بلاستك طويل</t>
   </si>
   <si>
-    <t>Sunday, 7 September, 2025 6:38 PM</t>
+    <t>Sunday, 7 September, 2025 7:10 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1324,7 +1360,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1334,14 +1370,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>32</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>33</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1357,7 +1393,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1367,14 +1403,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1383,7 +1419,7 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1400,11 +1436,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1416,14 +1452,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1456,13 +1492,13 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1489,13 +1525,13 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1528,15 +1564,15 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1548,14 +1584,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1565,11 +1601,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1605,7 +1641,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1638,7 +1674,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1654,7 +1690,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1664,11 +1700,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1680,14 +1716,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1697,14 +1733,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1737,7 +1773,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1770,7 +1806,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1796,14 +1832,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1812,14 +1848,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1829,11 +1865,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1845,28 +1881,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -1878,14 +1914,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1895,11 +1931,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1911,14 +1947,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1928,14 +1964,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1944,14 +1980,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1961,14 +1997,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1977,28 +2013,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2010,14 +2046,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2027,14 +2063,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2043,28 +2079,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2076,14 +2112,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2093,11 +2129,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2109,14 +2145,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2133,7 +2169,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2149,7 +2185,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2166,7 +2202,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2182,7 +2218,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2192,14 +2228,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>62</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2208,14 +2244,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2225,14 +2261,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2241,14 +2277,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2258,14 +2294,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2274,31 +2310,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2307,14 +2343,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2324,14 +2360,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2340,14 +2376,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2357,11 +2393,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2373,28 +2409,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2406,14 +2442,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2423,14 +2459,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2439,14 +2475,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2456,14 +2492,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2472,14 +2508,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2489,14 +2525,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>59</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2505,14 +2541,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2522,11 +2558,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2538,14 +2574,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>146</v>
+        <v>66</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2555,11 +2591,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2571,14 +2607,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>149</v>
+        <v>62</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2588,14 +2624,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2604,14 +2640,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>153</v>
+        <v>84</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2621,14 +2657,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>63</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>62</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2637,28 +2673,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>157</v>
+        <v>56</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>14</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2677,24 +2713,24 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>72</v>
+        <v>159</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>58</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2703,31 +2739,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>162</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2736,31 +2772,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>72</v>
+        <v>166</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2769,28 +2805,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>52</v>
+        <v>170</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2802,31 +2838,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>28</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2835,31 +2871,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
+        <v>174</v>
+      </c>
+      <c t="s" r="Q57" s="12">
         <v>170</v>
-      </c>
-      <c t="s" r="Q57" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2868,31 +2904,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>172</v>
+        <v>76</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2901,28 +2937,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -2934,28 +2970,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>28</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -2967,66 +3003,198 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>14</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
+        <v>182</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>183</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>184</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>48</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>185</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>186</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
+        <v>187</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>76</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>48</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>14</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q61" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="62" ht="25.5" customHeight="1">
-      <c r="P62" s="13">
-        <v>2964.4250000000002</v>
-      </c>
-      <c r="Q62" s="13"/>
-    </row>
-    <row r="63" ht="16.5" customHeight="1">
-      <c t="s" r="A63" s="14">
-        <v>180</v>
-      </c>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c t="s" r="G63" s="15">
-        <v>181</v>
-      </c>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="16"/>
-      <c t="s" r="K63" s="17">
-        <v>182</v>
-      </c>
-      <c r="L63" s="17"/>
-      <c r="M63" s="17"/>
-      <c r="N63" s="17"/>
-      <c r="O63" s="17"/>
-      <c r="P63" s="17"/>
-      <c r="Q63" s="17"/>
+      <c t="s" r="Q63" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>188</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>76</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>48</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>189</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>190</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>191</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>16</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>48</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>14</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="P66" s="13">
+        <v>3282.7750000000001</v>
+      </c>
+      <c r="Q66" s="13"/>
+    </row>
+    <row r="67" ht="16.5" customHeight="1">
+      <c t="s" r="A67" s="14">
+        <v>192</v>
+      </c>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c t="s" r="G67" s="15">
+        <v>193</v>
+      </c>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="16"/>
+      <c t="s" r="K67" s="17">
+        <v>194</v>
+      </c>
+      <c r="L67" s="17"/>
+      <c r="M67" s="17"/>
+      <c r="N67" s="17"/>
+      <c r="O67" s="17"/>
+      <c r="P67" s="17"/>
+      <c r="Q67" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="287">
+  <mergeCells count="307">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3310,10 +3478,30 @@
     <mergeCell ref="H61:K61"/>
     <mergeCell ref="L61:M61"/>
     <mergeCell ref="N61:O61"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="K63:Q63"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="K67:Q67"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-07_00-00.xlsx
+++ b/DaySale_2025-09-07_00-00.xlsx
@@ -587,7 +587,10 @@
     <t>مشط بلاستك طويل</t>
   </si>
   <si>
-    <t>Sunday, 7 September, 2025 7:10 PM</t>
+    <t>مناديل FINE</t>
+  </si>
+  <si>
+    <t>Sunday, 7 September, 2025 7:12 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3163,38 +3166,71 @@
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
-      <c r="P66" s="13">
-        <v>3282.7750000000001</v>
-      </c>
-      <c r="Q66" s="13"/>
-    </row>
-    <row r="67" ht="16.5" customHeight="1">
-      <c t="s" r="A67" s="14">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
         <v>192</v>
       </c>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c t="s" r="G67" s="15">
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>184</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>48</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>28</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="P67" s="13">
+        <v>3312.7750000000001</v>
+      </c>
+      <c r="Q67" s="13"/>
+    </row>
+    <row r="68" ht="16.5" customHeight="1">
+      <c t="s" r="A68" s="14">
         <v>193</v>
       </c>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="16"/>
-      <c t="s" r="K67" s="17">
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c t="s" r="G68" s="15">
         <v>194</v>
       </c>
-      <c r="L67" s="17"/>
-      <c r="M67" s="17"/>
-      <c r="N67" s="17"/>
-      <c r="O67" s="17"/>
-      <c r="P67" s="17"/>
-      <c r="Q67" s="17"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="16"/>
+      <c t="s" r="K68" s="17">
+        <v>195</v>
+      </c>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="17"/>
+      <c r="O68" s="17"/>
+      <c r="P68" s="17"/>
+      <c r="Q68" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="307">
+  <mergeCells count="312">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3498,10 +3534,15 @@
     <mergeCell ref="H65:K65"/>
     <mergeCell ref="L65:M65"/>
     <mergeCell ref="N65:O65"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="K67:Q67"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="K68:Q68"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-07_00-00.xlsx
+++ b/DaySale_2025-09-07_00-00.xlsx
@@ -164,6 +164,18 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>19.2000</t>
+  </si>
+  <si>
     <t>CEVA-FRESH TAB</t>
   </si>
   <si>
@@ -362,9 +374,6 @@
     <t>MACROFURAN 100 MG 30 CAPS</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>82.00</t>
   </si>
   <si>
@@ -416,9 +425,6 @@
     <t>PLEX BEAUTY HAIR CREAM</t>
   </si>
   <si>
-    <t>120.00</t>
-  </si>
-  <si>
     <t>120.0000</t>
   </si>
   <si>
@@ -590,7 +596,7 @@
     <t>مناديل FINE</t>
   </si>
   <si>
-    <t>Sunday, 7 September, 2025 7:12 PM</t>
+    <t>Sunday, 7 September, 2025 7:37 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1567,7 +1573,7 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1578,7 +1584,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1600,15 +1606,15 @@
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1620,14 +1626,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1637,11 +1643,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1677,7 +1683,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1710,7 +1716,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1726,7 +1732,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1736,11 +1742,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1752,14 +1758,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1769,14 +1775,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1809,7 +1815,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1842,7 +1848,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1868,14 +1874,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1884,31 +1890,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1917,31 +1923,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1950,14 +1956,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1967,14 +1973,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1983,14 +1989,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2000,14 +2006,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2016,14 +2022,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2033,11 +2039,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2049,7 +2055,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2066,14 +2072,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2082,31 +2088,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2115,28 +2121,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2148,14 +2154,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2165,11 +2171,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2181,14 +2187,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2198,11 +2204,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2214,14 +2220,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2238,7 +2244,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2254,7 +2260,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>52</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2287,7 +2293,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2304,7 +2310,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>62</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2320,7 +2326,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2330,11 +2336,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>66</v>
@@ -2346,14 +2352,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2363,14 +2369,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2386,7 +2392,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2419,13 +2425,13 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2452,24 +2458,24 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>53</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2485,7 +2491,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2495,14 +2501,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>53</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2511,14 +2517,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2528,11 +2534,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2544,14 +2550,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2561,11 +2567,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2577,14 +2583,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2594,14 +2600,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2610,14 +2616,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2627,14 +2633,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2643,14 +2649,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2660,14 +2666,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>63</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>115</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2676,14 +2682,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2693,14 +2699,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2709,14 +2715,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>159</v>
+        <v>60</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2726,14 +2732,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2742,14 +2748,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2759,11 +2765,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -2775,14 +2781,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2792,14 +2798,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>66</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2808,31 +2814,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>14</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>15</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2848,7 +2854,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>76</v>
+        <v>172</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2858,14 +2864,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>14</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2881,7 +2887,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2891,14 +2897,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>170</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2914,7 +2920,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2924,14 +2930,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>66</v>
+        <v>172</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2940,14 +2946,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2957,14 +2963,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>28</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>85</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2973,14 +2979,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2994,7 +3000,7 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3006,14 +3012,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3023,11 +3029,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>28</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3039,14 +3045,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>184</v>
+        <v>66</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3056,11 +3062,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3072,14 +3078,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>76</v>
+        <v>186</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3089,11 +3095,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>14</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>15</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3105,14 +3111,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3122,11 +3128,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>14</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3138,14 +3144,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3155,11 +3161,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>14</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>15</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3171,14 +3177,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>184</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3188,49 +3194,82 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
-      <c r="P67" s="13">
-        <v>3312.7750000000001</v>
-      </c>
-      <c r="Q67" s="13"/>
-    </row>
-    <row r="68" ht="16.5" customHeight="1">
-      <c t="s" r="A68" s="14">
-        <v>193</v>
-      </c>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c t="s" r="G68" s="15">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
         <v>194</v>
       </c>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="16"/>
-      <c t="s" r="K68" s="17">
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>186</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>48</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>28</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>89</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="P68" s="13">
+        <v>3331.9749999999999</v>
+      </c>
+      <c r="Q68" s="13"/>
+    </row>
+    <row r="69" ht="16.5" customHeight="1">
+      <c t="s" r="A69" s="14">
         <v>195</v>
       </c>
-      <c r="L68" s="17"/>
-      <c r="M68" s="17"/>
-      <c r="N68" s="17"/>
-      <c r="O68" s="17"/>
-      <c r="P68" s="17"/>
-      <c r="Q68" s="17"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c t="s" r="G69" s="15">
+        <v>196</v>
+      </c>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="16"/>
+      <c t="s" r="K69" s="17">
+        <v>197</v>
+      </c>
+      <c r="L69" s="17"/>
+      <c r="M69" s="17"/>
+      <c r="N69" s="17"/>
+      <c r="O69" s="17"/>
+      <c r="P69" s="17"/>
+      <c r="Q69" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="312">
+  <mergeCells count="317">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3539,10 +3578,15 @@
     <mergeCell ref="H66:K66"/>
     <mergeCell ref="L66:M66"/>
     <mergeCell ref="N66:O66"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="G68:I68"/>
-    <mergeCell ref="K68:Q68"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="K69:Q69"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-07_00-00.xlsx
+++ b/DaySale_2025-09-07_00-00.xlsx
@@ -62,6 +62,24 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>ALPHATHROMB 5MG TAB</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
@@ -74,9 +92,6 @@
     <t>28.7100</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>AMAGLUST 4/30 MG 30 SCORED TAB</t>
   </si>
   <si>
@@ -155,9 +170,6 @@
     <t>CARVID 6.25MG 30TAB</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>45.00</t>
   </si>
   <si>
@@ -251,9 +263,6 @@
     <t>EXTRAUMA DNA CREAM 25 GM</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>28.00</t>
   </si>
   <si>
@@ -314,9 +323,6 @@
     <t>66.00</t>
   </si>
   <si>
-    <t>66.0000</t>
-  </si>
-  <si>
     <t>GLIPTUS 50 MG 30 TABS.</t>
   </si>
   <si>
@@ -596,7 +602,7 @@
     <t>مناديل FINE</t>
   </si>
   <si>
-    <t>Sunday, 7 September, 2025 7:37 PM</t>
+    <t>Sunday, 7 September, 2025 7:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1276,18 +1282,18 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1296,14 +1302,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1313,14 +1319,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1329,14 +1335,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1346,14 +1352,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1362,14 +1368,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1379,14 +1385,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1395,14 +1401,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1419,7 +1425,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1428,14 +1434,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1445,14 +1451,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1461,7 +1467,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1478,11 +1484,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1494,14 +1500,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1511,11 +1517,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1527,28 +1533,28 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1560,20 +1566,20 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1584,7 +1590,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1606,7 +1612,7 @@
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1617,7 +1623,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1639,15 +1645,15 @@
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1659,14 +1665,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1676,11 +1682,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1716,7 +1722,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1749,7 +1755,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1765,7 +1771,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1775,11 +1781,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1791,14 +1797,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1808,14 +1814,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1848,7 +1854,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1864,7 +1870,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1874,14 +1880,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1890,14 +1896,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1907,14 +1913,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1930,24 +1936,24 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1963,13 +1969,13 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1980,7 +1986,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1996,7 +2002,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2013,7 +2019,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2029,7 +2035,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2046,7 +2052,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2062,7 +2068,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2076,7 +2082,7 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2088,14 +2094,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2105,14 +2111,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2121,31 +2127,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2154,28 +2160,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2187,14 +2193,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2204,11 +2210,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2220,14 +2226,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2237,11 +2243,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2253,14 +2259,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2270,14 +2276,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2286,14 +2292,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2303,14 +2309,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2319,14 +2325,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2336,14 +2342,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>66</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2352,14 +2358,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2369,7 +2375,7 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
@@ -2392,7 +2398,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2402,14 +2408,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2418,14 +2424,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2435,11 +2441,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2451,24 +2457,24 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>53</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
@@ -2491,24 +2497,24 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2524,7 +2530,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2534,14 +2540,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>57</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2550,14 +2556,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2567,11 +2573,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2583,14 +2589,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2600,11 +2606,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2616,14 +2622,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2633,14 +2639,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2649,14 +2655,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2666,14 +2672,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2682,14 +2688,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2699,14 +2705,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>67</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>119</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2715,14 +2721,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2732,14 +2738,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>71</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2748,14 +2754,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>161</v>
+        <v>64</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2765,14 +2771,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2781,14 +2787,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2798,14 +2804,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2814,14 +2820,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2831,14 +2837,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>70</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2847,31 +2853,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>14</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>15</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2887,24 +2893,24 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>80</v>
+        <v>174</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>14</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2920,24 +2926,24 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>172</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2953,24 +2959,24 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>70</v>
+        <v>174</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2979,31 +2985,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>28</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>89</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3012,28 +3018,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3045,28 +3051,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>33</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3078,28 +3084,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>186</v>
+        <v>70</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3111,28 +3117,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>80</v>
+        <v>188</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>14</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>15</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3144,28 +3150,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>14</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3177,28 +3183,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>14</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>15</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3210,66 +3216,99 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>186</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
-      <c r="P68" s="13">
-        <v>3331.9749999999999</v>
-      </c>
-      <c r="Q68" s="13"/>
-    </row>
-    <row r="69" ht="16.5" customHeight="1">
-      <c t="s" r="A69" s="14">
-        <v>195</v>
-      </c>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c t="s" r="G69" s="15">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
         <v>196</v>
       </c>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="16"/>
-      <c t="s" r="K69" s="17">
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>188</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>19</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>33</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="P69" s="13">
+        <v>3397.9749999999999</v>
+      </c>
+      <c r="Q69" s="13"/>
+    </row>
+    <row r="70" ht="16.5" customHeight="1">
+      <c t="s" r="A70" s="14">
         <v>197</v>
       </c>
-      <c r="L69" s="17"/>
-      <c r="M69" s="17"/>
-      <c r="N69" s="17"/>
-      <c r="O69" s="17"/>
-      <c r="P69" s="17"/>
-      <c r="Q69" s="17"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c t="s" r="G70" s="15">
+        <v>198</v>
+      </c>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="16"/>
+      <c t="s" r="K70" s="17">
+        <v>199</v>
+      </c>
+      <c r="L70" s="17"/>
+      <c r="M70" s="17"/>
+      <c r="N70" s="17"/>
+      <c r="O70" s="17"/>
+      <c r="P70" s="17"/>
+      <c r="Q70" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="317">
+  <mergeCells count="322">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3583,10 +3622,15 @@
     <mergeCell ref="H67:K67"/>
     <mergeCell ref="L67:M67"/>
     <mergeCell ref="N67:O67"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="G69:I69"/>
-    <mergeCell ref="K69:Q69"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="K70:Q70"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-07_00-00.xlsx
+++ b/DaySale_2025-09-07_00-00.xlsx
@@ -188,6 +188,18 @@
     <t>19.2000</t>
   </si>
   <si>
+    <t>CEFOZON 1 GM VIAL</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>144.0000</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
     <t>CEVA-FRESH TAB</t>
   </si>
   <si>
@@ -221,9 +233,6 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>36.00</t>
   </si>
   <si>
@@ -530,6 +539,15 @@
     <t>4.0000</t>
   </si>
   <si>
+    <t>XILONE 5MG/5ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
@@ -545,7 +563,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>54.0000</t>
+    <t>68.0000</t>
+  </si>
+  <si>
+    <t>34:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -554,7 +575,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>6.0000</t>
+    <t>9.0000</t>
   </si>
   <si>
     <t>صابون ديتول اوريجنيال 115 جم</t>
@@ -602,7 +623,7 @@
     <t>مناديل FINE</t>
   </si>
   <si>
-    <t>Sunday, 7 September, 2025 7:46 PM</t>
+    <t>Sunday, 7 September, 2025 7:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1639,24 +1660,24 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q19" s="12">
         <v>62</v>
-      </c>
-      <c t="s" r="Q19" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1678,15 +1699,15 @@
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1698,14 +1719,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1715,11 +1736,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1755,7 +1776,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1771,7 +1792,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1781,14 +1802,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1797,14 +1818,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1814,11 +1835,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1830,14 +1851,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1847,14 +1868,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1863,14 +1884,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1887,7 +1908,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1903,7 +1924,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1913,14 +1934,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1929,14 +1950,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1946,14 +1967,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1969,24 +1990,24 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2002,13 +2023,13 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -2019,7 +2040,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2035,7 +2056,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2052,7 +2073,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2068,7 +2089,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2082,10 +2103,10 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2094,14 +2115,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2111,11 +2132,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2151,7 +2172,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2167,13 +2188,13 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2184,7 +2205,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2206,7 +2227,7 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2233,7 +2254,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2266,7 +2287,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2299,7 +2320,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2316,7 +2337,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2365,7 +2386,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2382,7 +2403,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>70</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2398,7 +2419,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2408,14 +2429,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2424,14 +2445,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2441,14 +2462,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2464,7 +2485,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2497,21 +2518,21 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>57</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2523,7 +2544,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2536,7 +2557,7 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2544,10 +2565,10 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2556,7 +2577,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2573,14 +2594,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2662,7 +2683,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2679,7 +2700,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2695,7 +2716,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2712,7 +2733,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2728,7 +2749,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2738,14 +2759,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>71</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>121</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2754,14 +2775,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2771,14 +2792,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2794,7 +2815,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>163</v>
+        <v>68</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2804,14 +2825,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2837,11 +2858,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>22</v>
@@ -2853,14 +2874,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2870,14 +2891,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>74</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2886,31 +2907,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>14</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>15</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2919,31 +2940,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>62</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>70</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2952,14 +2973,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2969,14 +2990,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>171</v>
+        <v>14</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>174</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2985,7 +3006,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3002,14 +3023,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3018,14 +3039,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3035,14 +3056,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>33</v>
+        <v>174</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>92</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>185</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3051,14 +3072,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3068,14 +3089,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>33</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>92</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3084,14 +3105,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3101,11 +3122,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>33</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3117,14 +3138,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3134,11 +3155,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>33</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3157,7 +3178,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3167,11 +3188,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>14</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>15</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3183,14 +3204,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>195</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3200,11 +3221,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3216,14 +3237,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3249,14 +3270,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>188</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3266,49 +3287,115 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>33</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>92</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
-      <c r="P69" s="13">
-        <v>3397.9749999999999</v>
-      </c>
-      <c r="Q69" s="13"/>
-    </row>
-    <row r="70" ht="16.5" customHeight="1">
-      <c t="s" r="A70" s="14">
-        <v>197</v>
-      </c>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c t="s" r="G70" s="15">
-        <v>198</v>
-      </c>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="16"/>
-      <c t="s" r="K70" s="17">
-        <v>199</v>
-      </c>
-      <c r="L70" s="17"/>
-      <c r="M70" s="17"/>
-      <c r="N70" s="17"/>
-      <c r="O70" s="17"/>
-      <c r="P70" s="17"/>
-      <c r="Q70" s="17"/>
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>202</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>16</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>19</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>14</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>203</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>195</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>19</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>33</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>95</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="P71" s="13">
+        <v>3592.9749999999999</v>
+      </c>
+      <c r="Q71" s="13"/>
+    </row>
+    <row r="72" ht="16.5" customHeight="1">
+      <c t="s" r="A72" s="14">
+        <v>204</v>
+      </c>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c t="s" r="G72" s="15">
+        <v>205</v>
+      </c>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="16"/>
+      <c t="s" r="K72" s="17">
+        <v>206</v>
+      </c>
+      <c r="L72" s="17"/>
+      <c r="M72" s="17"/>
+      <c r="N72" s="17"/>
+      <c r="O72" s="17"/>
+      <c r="P72" s="17"/>
+      <c r="Q72" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="322">
+  <mergeCells count="332">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3627,10 +3714,20 @@
     <mergeCell ref="H68:K68"/>
     <mergeCell ref="L68:M68"/>
     <mergeCell ref="N68:O68"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="K70:Q70"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="G72:I72"/>
+    <mergeCell ref="K72:Q72"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-07_00-00.xlsx
+++ b/DaySale_2025-09-07_00-00.xlsx
@@ -623,7 +623,7 @@
     <t>مناديل FINE</t>
   </si>
   <si>
-    <t>Sunday, 7 September, 2025 7:49 PM</t>
+    <t>Sunday, 7 September, 2025 7:50 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-07_00-00.xlsx
+++ b/DaySale_2025-09-07_00-00.xlsx
@@ -251,6 +251,18 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>DICLAC 75 ID 30 TAB</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>-44.5500</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
     <t>DURICEF 500MG/5ML SUSP. 60ML</t>
   </si>
   <si>
@@ -368,6 +380,18 @@
     <t>149.0000</t>
   </si>
   <si>
+    <t>IMIPRAMINE 25MG 50 TAB.</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>52.50</t>
+  </si>
+  <si>
+    <t>-10.5000</t>
+  </si>
+  <si>
     <t>IVY ZAD SYRUP 120 ML</t>
   </si>
   <si>
@@ -386,6 +410,15 @@
     <t>18.0000</t>
   </si>
   <si>
+    <t>LICID LOTION 30 ML</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>MACROFURAN 100 MG 30 CAPS</t>
   </si>
   <si>
@@ -554,6 +587,18 @@
     <t>27:0</t>
   </si>
   <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>58:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>سرنجات 10 سم</t>
   </si>
   <si>
@@ -599,12 +644,6 @@
     <t>29:0</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -623,7 +662,7 @@
     <t>مناديل FINE</t>
   </si>
   <si>
-    <t>Sunday, 7 September, 2025 7:50 PM</t>
+    <t>Sunday, 7 September, 2025 7:58 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1858,24 +1897,24 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1884,14 +1923,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1901,14 +1940,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1924,7 +1963,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1934,14 +1973,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1950,14 +1989,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1974,7 +2013,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2000,14 +2039,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2016,31 +2055,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2049,31 +2088,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2082,14 +2121,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2099,14 +2138,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2115,14 +2154,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2132,14 +2171,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2148,14 +2187,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2165,11 +2204,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2181,7 +2220,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2198,14 +2237,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2214,31 +2253,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2247,7 +2286,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2260,15 +2299,15 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2280,14 +2319,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2297,11 +2336,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2313,14 +2352,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2330,14 +2369,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2346,14 +2385,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2363,14 +2402,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2379,14 +2418,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2396,14 +2435,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2412,14 +2451,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2429,14 +2468,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2445,14 +2484,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2462,14 +2501,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>77</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2478,14 +2517,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2495,14 +2534,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2511,14 +2550,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2528,14 +2567,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2544,31 +2583,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2577,7 +2616,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2594,14 +2633,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>57</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2610,14 +2649,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2627,11 +2666,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2643,7 +2682,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2656,15 +2695,15 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>57</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2676,7 +2715,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2693,14 +2732,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>57</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2709,14 +2748,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2726,14 +2765,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2742,14 +2781,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2759,11 +2798,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2775,14 +2814,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2792,14 +2831,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>74</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>124</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2808,14 +2847,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2825,14 +2864,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2841,14 +2880,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>166</v>
+        <v>62</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2858,14 +2897,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2874,14 +2913,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>169</v>
+        <v>98</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2891,11 +2930,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>74</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>22</v>
@@ -2907,14 +2946,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>173</v>
+        <v>68</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2931,7 +2970,7 @@
         <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2947,7 +2986,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>77</v>
+        <v>177</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2957,14 +2996,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2986,18 +3025,18 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>14</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>15</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3006,31 +3045,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>184</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>66</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>62</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3039,31 +3078,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>185</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3072,14 +3111,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>191</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3089,14 +3128,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>14</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3105,14 +3144,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>68</v>
+        <v>193</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3122,11 +3161,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>33</v>
+        <v>194</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>95</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3138,14 +3177,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3155,14 +3194,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>33</v>
+        <v>197</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3171,14 +3210,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3188,14 +3227,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>200</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3204,14 +3243,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>195</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3221,14 +3260,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3237,14 +3276,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3254,11 +3293,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3270,14 +3309,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3287,11 +3326,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>33</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3303,14 +3342,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3320,11 +3359,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>14</v>
+        <v>207</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>15</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3336,14 +3375,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3353,49 +3392,181 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>33</v>
+        <v>194</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>95</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
-      <c r="P71" s="13">
-        <v>3592.9749999999999</v>
-      </c>
-      <c r="Q71" s="13"/>
-    </row>
-    <row r="72" ht="16.5" customHeight="1">
-      <c t="s" r="A72" s="14">
-        <v>204</v>
-      </c>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c t="s" r="G72" s="15">
-        <v>205</v>
-      </c>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="16"/>
-      <c t="s" r="K72" s="17">
-        <v>206</v>
-      </c>
-      <c r="L72" s="17"/>
-      <c r="M72" s="17"/>
-      <c r="N72" s="17"/>
-      <c r="O72" s="17"/>
-      <c r="P72" s="17"/>
-      <c r="Q72" s="17"/>
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>211</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>18</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>19</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>14</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>212</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>18</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>19</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>213</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>214</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>215</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>16</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>19</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>14</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>216</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>210</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>19</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>33</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="P75" s="13">
+        <v>3597.9250000000002</v>
+      </c>
+      <c r="Q75" s="13"/>
+    </row>
+    <row r="76" ht="16.5" customHeight="1">
+      <c t="s" r="A76" s="14">
+        <v>217</v>
+      </c>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c t="s" r="G76" s="15">
+        <v>218</v>
+      </c>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="16"/>
+      <c t="s" r="K76" s="17">
+        <v>219</v>
+      </c>
+      <c r="L76" s="17"/>
+      <c r="M76" s="17"/>
+      <c r="N76" s="17"/>
+      <c r="O76" s="17"/>
+      <c r="P76" s="17"/>
+      <c r="Q76" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="332">
+  <mergeCells count="352">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3724,10 +3895,30 @@
     <mergeCell ref="H70:K70"/>
     <mergeCell ref="L70:M70"/>
     <mergeCell ref="N70:O70"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="G72:I72"/>
-    <mergeCell ref="K72:Q72"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="A76:F76"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="K76:Q76"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-07_00-00.xlsx
+++ b/DaySale_2025-09-07_00-00.xlsx
@@ -263,6 +263,15 @@
     <t>0:-1</t>
   </si>
   <si>
+    <t>DICLOPRO 150 MG ID 20 TABS.</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>106.0000</t>
+  </si>
+  <si>
     <t>DURICEF 500MG/5ML SUSP. 60ML</t>
   </si>
   <si>
@@ -362,6 +371,15 @@
     <t>63.3600</t>
   </si>
   <si>
+    <t>GOUTIFADE 80 MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>123.0000</t>
+  </si>
+  <si>
     <t>HAIR PHOTO SHAMPOO</t>
   </si>
   <si>
@@ -662,7 +680,7 @@
     <t>مناديل FINE</t>
   </si>
   <si>
-    <t>Sunday, 7 September, 2025 7:58 PM</t>
+    <t>Sunday, 7 September, 2025 7:59 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1930,7 +1948,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1940,11 +1958,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1956,14 +1974,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1973,14 +1991,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1989,14 +2007,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2013,7 +2031,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2029,7 +2047,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2039,14 +2057,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2055,14 +2073,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2072,14 +2090,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>33</v>
+        <v>98</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2095,24 +2113,24 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2128,13 +2146,13 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -2145,7 +2163,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2161,7 +2179,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2178,7 +2196,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2194,7 +2212,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2208,10 +2226,10 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2220,14 +2238,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2237,11 +2255,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2277,7 +2295,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2293,13 +2311,13 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2310,7 +2328,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2326,7 +2344,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2359,24 +2377,24 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2385,14 +2403,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2402,11 +2420,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2418,14 +2436,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2442,7 +2460,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2458,7 +2476,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2491,7 +2509,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2508,7 +2526,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2524,7 +2542,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2541,7 +2559,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2557,7 +2575,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2574,7 +2592,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>62</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2590,7 +2608,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2600,14 +2618,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>77</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2616,14 +2634,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2633,14 +2651,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2649,14 +2667,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2666,14 +2684,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2695,15 +2713,15 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>57</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2715,14 +2733,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2732,14 +2750,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>57</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2748,7 +2766,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2761,15 +2779,15 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>57</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2781,7 +2799,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2798,14 +2816,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>57</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2854,7 +2872,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2871,7 +2889,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2887,7 +2905,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2920,7 +2938,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2930,11 +2948,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>74</v>
+        <v>173</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>132</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>22</v>
@@ -2946,14 +2964,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2963,11 +2981,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2979,14 +2997,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>177</v>
+        <v>101</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2996,11 +3014,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>158</v>
+        <v>74</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>22</v>
@@ -3019,7 +3037,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>180</v>
+        <v>68</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3029,14 +3047,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3045,14 +3063,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3062,14 +3080,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>77</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3078,14 +3096,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>77</v>
+        <v>186</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3095,14 +3113,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3111,31 +3129,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>14</v>
+        <v>191</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>15</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3144,20 +3162,20 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>193</v>
+        <v>77</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3184,7 +3202,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>197</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3194,14 +3212,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>197</v>
+        <v>14</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3217,7 +3235,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>199</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3227,14 +3245,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>200</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3243,7 +3261,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3260,11 +3278,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>203</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>62</v>
@@ -3283,7 +3301,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3293,14 +3311,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>33</v>
+        <v>191</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>99</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>206</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3309,14 +3327,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3326,14 +3344,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>33</v>
+        <v>208</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>99</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3342,14 +3360,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3359,11 +3377,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>207</v>
+        <v>33</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>208</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3375,14 +3393,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>210</v>
+        <v>77</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3392,11 +3410,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>194</v>
+        <v>33</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>195</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3408,14 +3426,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3425,11 +3443,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>14</v>
+        <v>213</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>15</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3441,14 +3459,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3458,11 +3476,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3474,14 +3492,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3507,14 +3525,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>210</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3524,49 +3542,115 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>33</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>99</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
-      <c r="P75" s="13">
-        <v>3597.9250000000002</v>
-      </c>
-      <c r="Q75" s="13"/>
-    </row>
-    <row r="76" ht="16.5" customHeight="1">
-      <c t="s" r="A76" s="14">
-        <v>217</v>
-      </c>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c t="s" r="G76" s="15">
-        <v>218</v>
-      </c>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
-      <c r="J76" s="16"/>
-      <c t="s" r="K76" s="17">
-        <v>219</v>
-      </c>
-      <c r="L76" s="17"/>
-      <c r="M76" s="17"/>
-      <c r="N76" s="17"/>
-      <c r="O76" s="17"/>
-      <c r="P76" s="17"/>
-      <c r="Q76" s="17"/>
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>221</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>16</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>19</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>14</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>222</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>216</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>19</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>33</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>102</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="P77" s="13">
+        <v>3826.9250000000002</v>
+      </c>
+      <c r="Q77" s="13"/>
+    </row>
+    <row r="78" ht="16.5" customHeight="1">
+      <c t="s" r="A78" s="14">
+        <v>223</v>
+      </c>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c t="s" r="G78" s="15">
+        <v>224</v>
+      </c>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="16"/>
+      <c t="s" r="K78" s="17">
+        <v>225</v>
+      </c>
+      <c r="L78" s="17"/>
+      <c r="M78" s="17"/>
+      <c r="N78" s="17"/>
+      <c r="O78" s="17"/>
+      <c r="P78" s="17"/>
+      <c r="Q78" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="352">
+  <mergeCells count="362">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3915,10 +3999,20 @@
     <mergeCell ref="H74:K74"/>
     <mergeCell ref="L74:M74"/>
     <mergeCell ref="N74:O74"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="A76:F76"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="K76:Q76"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="K78:Q78"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-07_00-00.xlsx
+++ b/DaySale_2025-09-07_00-00.xlsx
@@ -140,6 +140,15 @@
     <t>12.4800</t>
   </si>
   <si>
+    <t>APEXIDONE 3MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
     <t>AUGRAM 642.9MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
   </si>
   <si>
@@ -536,6 +545,9 @@
     <t>21.0000</t>
   </si>
   <si>
+    <t>URIPAN 0.1% SYRUP 120 ML</t>
+  </si>
+  <si>
     <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
   </si>
   <si>
@@ -680,7 +692,7 @@
     <t>مناديل FINE</t>
   </si>
   <si>
-    <t>Sunday, 7 September, 2025 7:59 PM</t>
+    <t>Sunday, 7 September, 2025 8:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1552,7 +1564,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1562,14 +1574,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1578,7 +1590,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1595,7 +1607,7 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
@@ -1618,7 +1630,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1628,11 +1640,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1644,20 +1656,20 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1684,24 +1696,24 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1710,14 +1722,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1734,7 +1746,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>62</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1743,31 +1755,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1776,28 +1788,28 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1809,14 +1821,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1826,11 +1838,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1842,14 +1854,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1866,7 +1878,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1882,7 +1894,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1892,14 +1904,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1908,20 +1920,20 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1932,7 +1944,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1941,31 +1953,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q26" s="12">
         <v>86</v>
-      </c>
-      <c t="s" r="Q26" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1981,7 +1993,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1991,11 +2003,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2007,14 +2019,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2024,14 +2036,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2040,14 +2052,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2064,7 +2076,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2080,7 +2092,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2090,14 +2102,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2106,14 +2118,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2123,14 +2135,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2146,24 +2158,24 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>33</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2179,13 +2191,13 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -2196,7 +2208,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2212,7 +2224,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2229,7 +2241,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2245,7 +2257,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2259,10 +2271,10 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2271,14 +2283,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2288,11 +2300,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2328,7 +2340,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2361,7 +2373,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2377,13 +2389,13 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2416,7 +2428,7 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2443,7 +2455,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2453,14 +2465,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2469,14 +2481,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2493,7 +2505,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2509,7 +2521,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2542,7 +2554,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2575,7 +2587,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2592,7 +2604,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2608,7 +2620,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2641,7 +2653,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2658,7 +2670,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>62</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2674,7 +2686,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2684,14 +2696,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2700,14 +2712,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2717,14 +2729,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>116</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2740,7 +2752,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2773,21 +2785,21 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>57</v>
+        <v>160</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2799,7 +2811,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2812,18 +2824,18 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2832,7 +2844,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2849,14 +2861,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>60</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2938,7 +2950,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2955,7 +2967,7 @@
         <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2971,7 +2983,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2988,7 +3000,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3004,7 +3016,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3014,14 +3026,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3037,7 +3049,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3070,7 +3082,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>183</v>
+        <v>104</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3080,11 +3092,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>22</v>
@@ -3096,14 +3108,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>186</v>
+        <v>71</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3113,14 +3125,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3129,14 +3141,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3146,14 +3158,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>77</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3162,14 +3174,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>77</v>
+        <v>190</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3179,14 +3191,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3195,31 +3207,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>14</v>
+        <v>195</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>15</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3228,28 +3240,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>199</v>
+        <v>80</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3261,14 +3273,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>201</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3278,14 +3290,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>203</v>
+        <v>14</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3294,14 +3306,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>203</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3311,14 +3323,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>205</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>206</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3327,7 +3339,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3344,14 +3356,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3360,14 +3372,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3377,14 +3389,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>33</v>
+        <v>195</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>102</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>210</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3400,7 +3412,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3410,14 +3422,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>33</v>
+        <v>212</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>102</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3426,14 +3438,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3443,11 +3455,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>213</v>
+        <v>33</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>214</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3466,7 +3478,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>216</v>
+        <v>80</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3476,11 +3488,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>200</v>
+        <v>33</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>201</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3492,14 +3504,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3509,11 +3521,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>14</v>
+        <v>217</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>15</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3525,14 +3537,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>18</v>
+        <v>220</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3542,11 +3554,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3565,7 +3577,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3598,7 +3610,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>216</v>
+        <v>18</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3608,49 +3620,115 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>33</v>
+        <v>223</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>102</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
-      <c r="P77" s="13">
-        <v>3826.9250000000002</v>
-      </c>
-      <c r="Q77" s="13"/>
-    </row>
-    <row r="78" ht="16.5" customHeight="1">
-      <c t="s" r="A78" s="14">
-        <v>223</v>
-      </c>
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c t="s" r="G78" s="15">
-        <v>224</v>
-      </c>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
-      <c r="J78" s="16"/>
-      <c t="s" r="K78" s="17">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
         <v>225</v>
       </c>
-      <c r="L78" s="17"/>
-      <c r="M78" s="17"/>
-      <c r="N78" s="17"/>
-      <c r="O78" s="17"/>
-      <c r="P78" s="17"/>
-      <c r="Q78" s="17"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>16</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>19</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>14</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>226</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>220</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>19</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>33</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>105</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="P79" s="13">
+        <v>3896.5050000000001</v>
+      </c>
+      <c r="Q79" s="13"/>
+    </row>
+    <row r="80" ht="16.5" customHeight="1">
+      <c t="s" r="A80" s="14">
+        <v>227</v>
+      </c>
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c t="s" r="G80" s="15">
+        <v>228</v>
+      </c>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="16"/>
+      <c t="s" r="K80" s="17">
+        <v>229</v>
+      </c>
+      <c r="L80" s="17"/>
+      <c r="M80" s="17"/>
+      <c r="N80" s="17"/>
+      <c r="O80" s="17"/>
+      <c r="P80" s="17"/>
+      <c r="Q80" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="362">
+  <mergeCells count="372">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4009,10 +4087,20 @@
     <mergeCell ref="H76:K76"/>
     <mergeCell ref="L76:M76"/>
     <mergeCell ref="N76:O76"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="G78:I78"/>
-    <mergeCell ref="K78:Q78"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="G80:I80"/>
+    <mergeCell ref="K80:Q80"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-07_00-00.xlsx
+++ b/DaySale_2025-09-07_00-00.xlsx
@@ -692,7 +692,7 @@
     <t>مناديل FINE</t>
   </si>
   <si>
-    <t>Sunday, 7 September, 2025 8:07 PM</t>
+    <t>Sunday, 7 September, 2025 8:10 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-07_00-00.xlsx
+++ b/DaySale_2025-09-07_00-00.xlsx
@@ -221,6 +221,15 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>CINNARIZINE 25MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>CONGESTAL SYRUP 120 ML</t>
   </si>
   <si>
@@ -314,9 +323,6 @@
     <t>7:1</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
     <t>3.8400</t>
   </si>
   <si>
@@ -692,7 +698,13 @@
     <t>مناديل FINE</t>
   </si>
   <si>
-    <t>Sunday, 7 September, 2025 8:10 PM</t>
+    <t>مناديل سولو سحب</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>Sunday, 7 September, 2025 8:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1828,7 +1840,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1838,11 +1850,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1854,14 +1866,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1871,11 +1883,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1887,14 +1899,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1911,7 +1923,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1927,7 +1939,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1937,14 +1949,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1953,20 +1965,20 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1977,7 +1989,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1986,31 +1998,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
+        <v>88</v>
+      </c>
+      <c t="s" r="Q27" s="12">
         <v>89</v>
-      </c>
-      <c t="s" r="Q27" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2026,7 +2038,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2036,11 +2048,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2052,14 +2064,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2069,14 +2081,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2085,14 +2097,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2109,7 +2121,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2125,7 +2137,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2135,14 +2147,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2151,14 +2163,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2168,14 +2180,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2184,31 +2196,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2217,31 +2229,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2250,14 +2262,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2267,14 +2279,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2283,14 +2295,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2300,14 +2312,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>21</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2323,7 +2335,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2337,7 +2349,7 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2349,7 +2361,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2366,14 +2378,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2382,7 +2394,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2399,14 +2411,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2415,28 +2427,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2448,7 +2460,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2461,15 +2473,15 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2481,14 +2493,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>133</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2498,14 +2510,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2514,14 +2526,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2531,14 +2543,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2547,14 +2559,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2564,11 +2576,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2580,14 +2592,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2597,11 +2609,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2613,14 +2625,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2630,14 +2642,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2646,7 +2658,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2663,11 +2675,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>22</v>
@@ -2679,14 +2691,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2696,14 +2708,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>65</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2712,14 +2724,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2729,14 +2741,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>116</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2752,7 +2764,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2762,14 +2774,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>118</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2778,14 +2790,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2795,11 +2807,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2811,24 +2823,24 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>60</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
@@ -2857,7 +2869,7 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -2868,7 +2880,7 @@
         <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2894,14 +2906,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>60</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2910,7 +2922,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2927,11 +2939,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2943,7 +2955,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2960,11 +2972,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2976,14 +2988,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2993,14 +3005,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3009,14 +3021,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3026,14 +3038,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>97</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>98</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3042,14 +3054,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3059,11 +3071,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3075,14 +3087,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3092,14 +3104,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>77</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>141</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3108,14 +3120,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3125,14 +3137,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>80</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3141,14 +3153,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>187</v>
+        <v>74</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3158,14 +3170,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3174,14 +3186,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3191,11 +3203,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>22</v>
@@ -3207,14 +3219,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3224,14 +3236,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>80</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3240,14 +3252,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>80</v>
+        <v>196</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3257,14 +3269,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3273,28 +3285,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>201</v>
+        <v>83</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>14</v>
+        <v>200</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>15</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3323,11 +3335,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>204</v>
+        <v>14</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>205</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3339,14 +3351,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>18</v>
+        <v>205</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3356,14 +3368,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>69</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3389,14 +3401,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>210</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3405,7 +3417,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3422,14 +3434,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>65</v>
+        <v>212</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3438,14 +3450,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3455,14 +3467,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>33</v>
+        <v>214</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>105</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3471,14 +3483,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3492,7 +3504,7 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3504,14 +3516,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3521,11 +3533,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>217</v>
+        <v>33</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>218</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3537,14 +3549,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>220</v>
+        <v>65</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3554,11 +3566,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3577,7 +3589,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>18</v>
+        <v>222</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3587,11 +3599,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>14</v>
+        <v>206</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>15</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3603,7 +3615,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3620,11 +3632,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>223</v>
+        <v>14</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>224</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3636,14 +3648,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3653,11 +3665,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>14</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>15</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3669,14 +3681,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>220</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3686,49 +3698,115 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
-      <c r="P79" s="13">
-        <v>3896.5050000000001</v>
-      </c>
-      <c r="Q79" s="13"/>
-    </row>
-    <row r="80" ht="16.5" customHeight="1">
-      <c t="s" r="A80" s="14">
-        <v>227</v>
-      </c>
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c t="s" r="G80" s="15">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
         <v>228</v>
       </c>
-      <c r="H80" s="15"/>
-      <c r="I80" s="15"/>
-      <c r="J80" s="16"/>
-      <c t="s" r="K80" s="17">
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>222</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>19</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>33</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>107</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
         <v>229</v>
       </c>
-      <c r="L80" s="17"/>
-      <c r="M80" s="17"/>
-      <c r="N80" s="17"/>
-      <c r="O80" s="17"/>
-      <c r="P80" s="17"/>
-      <c r="Q80" s="17"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>230</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>19</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>56</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>57</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="P81" s="13">
+        <v>3965.5050000000001</v>
+      </c>
+      <c r="Q81" s="13"/>
+    </row>
+    <row r="82" ht="16.5" customHeight="1">
+      <c t="s" r="A82" s="14">
+        <v>231</v>
+      </c>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c t="s" r="G82" s="15">
+        <v>232</v>
+      </c>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="16"/>
+      <c t="s" r="K82" s="17">
+        <v>233</v>
+      </c>
+      <c r="L82" s="17"/>
+      <c r="M82" s="17"/>
+      <c r="N82" s="17"/>
+      <c r="O82" s="17"/>
+      <c r="P82" s="17"/>
+      <c r="Q82" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="372">
+  <mergeCells count="382">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4097,10 +4175,20 @@
     <mergeCell ref="H78:K78"/>
     <mergeCell ref="L78:M78"/>
     <mergeCell ref="N78:O78"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="G80:I80"/>
-    <mergeCell ref="K80:Q80"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="K82:Q82"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-07_00-00.xlsx
+++ b/DaySale_2025-09-07_00-00.xlsx
@@ -230,6 +230,21 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>CONCOR 10MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>0:-2</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>198.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
     <t>CONGESTAL SYRUP 120 ML</t>
   </si>
   <si>
@@ -260,9 +275,6 @@
     <t>DIASMECT 20% SUSP. 60ML</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>23.00</t>
   </si>
   <si>
@@ -459,6 +471,15 @@
   </si>
   <si>
     <t>27.0600</t>
+  </si>
+  <si>
+    <t>MEBO 0.25% HERBAL AND NATURAL OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>109.00</t>
+  </si>
+  <si>
+    <t>109.0000</t>
   </si>
   <si>
     <t>MELLITOFIX MET 12.5/500 MG 30 F.C. TABS</t>
@@ -1883,14 +1904,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1899,14 +1920,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1916,11 +1937,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1932,14 +1953,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1949,14 +1970,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1965,14 +1986,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1982,14 +2003,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1998,31 +2019,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>89</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2038,13 +2059,13 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -2055,7 +2076,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2064,14 +2085,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2081,11 +2102,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2097,14 +2118,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2114,14 +2135,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2137,7 +2158,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2147,14 +2168,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2163,14 +2184,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2180,14 +2201,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2196,14 +2217,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2213,14 +2234,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2229,31 +2250,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>28</v>
+        <v>110</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2262,31 +2283,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2295,14 +2316,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2312,14 +2333,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2328,14 +2349,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2345,14 +2366,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2361,14 +2382,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2378,11 +2399,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2394,7 +2415,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2411,14 +2432,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2427,7 +2448,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2444,14 +2465,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2460,28 +2481,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2493,7 +2514,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2506,15 +2527,15 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2526,14 +2547,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>135</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2550,7 +2571,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>89</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2566,7 +2587,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>139</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2576,14 +2597,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2592,14 +2613,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2609,11 +2630,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2625,14 +2646,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2642,11 +2663,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2658,14 +2679,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2675,14 +2696,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2691,7 +2712,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2708,11 +2729,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>22</v>
@@ -2724,14 +2745,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2741,14 +2762,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2757,14 +2778,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2774,14 +2795,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>118</v>
+        <v>158</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>83</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2790,14 +2811,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2807,14 +2828,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2823,14 +2844,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2840,14 +2861,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2856,7 +2877,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2869,15 +2890,15 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>60</v>
+        <v>166</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2889,14 +2910,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2906,14 +2927,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>60</v>
+        <v>169</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2922,7 +2943,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2935,15 +2956,15 @@
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>60</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2955,7 +2976,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2972,14 +2993,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>60</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2988,7 +3009,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3005,11 +3026,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3021,14 +3042,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3038,14 +3059,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3054,14 +3075,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3071,11 +3092,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>100</v>
+        <v>182</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>101</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3087,14 +3108,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3104,14 +3125,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3120,14 +3141,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3137,14 +3158,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3153,14 +3174,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3170,11 +3191,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3186,14 +3207,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>189</v>
+        <v>110</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3203,11 +3224,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>169</v>
+        <v>85</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>22</v>
@@ -3219,14 +3240,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>192</v>
+        <v>79</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3243,7 +3264,7 @@
         <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3269,14 +3290,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>83</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3285,14 +3306,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>83</v>
+        <v>199</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3309,7 +3330,7 @@
         <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3331,18 +3352,18 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>14</v>
+        <v>204</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>15</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3351,28 +3372,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>205</v>
+        <v>77</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3384,14 +3405,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>210</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3401,14 +3422,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>209</v>
+        <v>14</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3417,14 +3438,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>18</v>
+        <v>212</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3434,14 +3455,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>212</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3450,7 +3471,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3467,11 +3488,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>215</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>65</v>
@@ -3483,14 +3504,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3500,14 +3521,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>33</v>
+        <v>204</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>107</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>219</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3516,14 +3537,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3533,14 +3554,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>33</v>
+        <v>221</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>107</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3549,14 +3570,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3566,11 +3587,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>33</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3582,14 +3603,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>222</v>
+        <v>77</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3599,11 +3620,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>206</v>
+        <v>33</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>207</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3615,14 +3636,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3632,11 +3653,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>14</v>
+        <v>226</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>15</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3648,14 +3669,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>18</v>
+        <v>229</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3665,11 +3686,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3681,14 +3702,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3714,14 +3735,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>222</v>
+        <v>18</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3731,11 +3752,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>33</v>
+        <v>232</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>107</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3747,14 +3768,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>230</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3764,49 +3785,115 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>235</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>229</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>19</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>33</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>111</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>236</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>237</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>19</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>56</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
         <v>57</v>
       </c>
-      <c t="s" r="Q80" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="81" ht="25.5" customHeight="1">
-      <c r="P81" s="13">
-        <v>3965.5050000000001</v>
-      </c>
-      <c r="Q81" s="13"/>
-    </row>
-    <row r="82" ht="16.5" customHeight="1">
-      <c t="s" r="A82" s="14">
-        <v>231</v>
-      </c>
-      <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
-      <c t="s" r="G82" s="15">
-        <v>232</v>
-      </c>
-      <c r="H82" s="15"/>
-      <c r="I82" s="15"/>
-      <c r="J82" s="16"/>
-      <c t="s" r="K82" s="17">
-        <v>233</v>
-      </c>
-      <c r="L82" s="17"/>
-      <c r="M82" s="17"/>
-      <c r="N82" s="17"/>
-      <c r="O82" s="17"/>
-      <c r="P82" s="17"/>
-      <c r="Q82" s="17"/>
+      <c t="s" r="Q82" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="P83" s="13">
+        <v>4272.5050000000001</v>
+      </c>
+      <c r="Q83" s="13"/>
+    </row>
+    <row r="84" ht="16.5" customHeight="1">
+      <c t="s" r="A84" s="14">
+        <v>238</v>
+      </c>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c t="s" r="G84" s="15">
+        <v>239</v>
+      </c>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="16"/>
+      <c t="s" r="K84" s="17">
+        <v>240</v>
+      </c>
+      <c r="L84" s="17"/>
+      <c r="M84" s="17"/>
+      <c r="N84" s="17"/>
+      <c r="O84" s="17"/>
+      <c r="P84" s="17"/>
+      <c r="Q84" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="382">
+  <mergeCells count="392">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4185,10 +4272,20 @@
     <mergeCell ref="H80:K80"/>
     <mergeCell ref="L80:M80"/>
     <mergeCell ref="N80:O80"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="G82:I82"/>
-    <mergeCell ref="K82:Q82"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="G84:I84"/>
+    <mergeCell ref="K84:Q84"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-07_00-00.xlsx
+++ b/DaySale_2025-09-07_00-00.xlsx
@@ -245,6 +245,15 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>CONCOR COR 2.5MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
     <t>CONGESTAL SYRUP 120 ML</t>
   </si>
   <si>
@@ -308,6 +317,15 @@
     <t>78.0000</t>
   </si>
   <si>
+    <t>EPICOPRED 5 MG 30 ORODISPERSIBLE TABS.</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
     <t>EREC 100MG 12 F.C. TABLETS</t>
   </si>
   <si>
@@ -320,6 +338,12 @@
     <t>11.5200</t>
   </si>
   <si>
+    <t>EXAMIDE 20 MG 30TABS</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
     <t>EXTRAUMA DNA CREAM 25 GM</t>
   </si>
   <si>
@@ -464,6 +488,15 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>LIVERIN 20 CAPS</t>
+  </si>
+  <si>
+    <t>125.00</t>
+  </si>
+  <si>
+    <t>125.0000</t>
+  </si>
+  <si>
     <t>MACROFURAN 100 MG 30 CAPS</t>
   </si>
   <si>
@@ -638,6 +671,15 @@
     <t>34.0000</t>
   </si>
   <si>
+    <t>XITHRONE 500MG 3 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>63.0000</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
@@ -677,9 +719,6 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>9.0000</t>
-  </si>
-  <si>
     <t>صابون ديتول اوريجنيال 115 جم</t>
   </si>
   <si>
@@ -725,7 +764,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Sunday, 7 September, 2025 8:11 PM</t>
+    <t>Sunday, 7 September, 2025 9:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1927,7 +1966,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1937,11 +1976,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1953,14 +1992,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1970,11 +2009,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1986,14 +2025,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2010,7 +2049,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2026,7 +2065,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2043,7 +2082,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2059,13 +2098,13 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -2076,7 +2115,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>93</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2085,31 +2124,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>95</v>
+      </c>
+      <c t="s" r="Q29" s="12">
         <v>96</v>
-      </c>
-      <c t="s" r="Q29" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2125,7 +2164,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2135,11 +2174,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2151,14 +2190,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2168,14 +2207,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2184,14 +2223,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2201,14 +2240,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2217,14 +2256,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2234,7 +2273,7 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
@@ -2257,7 +2296,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2267,14 +2306,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>33</v>
+        <v>98</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2283,31 +2322,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2316,14 +2355,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>52</v>
+        <v>115</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2333,14 +2372,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2349,14 +2388,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2366,14 +2405,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>33</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2382,31 +2421,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>21</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2422,7 +2461,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2455,7 +2494,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2488,7 +2527,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2502,7 +2541,7 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2514,28 +2553,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2547,14 +2586,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2564,14 +2603,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2580,14 +2619,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>139</v>
+        <v>28</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2597,14 +2636,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>93</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2613,28 +2652,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2646,14 +2685,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2663,11 +2702,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2679,14 +2718,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2696,14 +2735,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2712,14 +2751,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2729,14 +2768,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2745,7 +2784,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2762,11 +2801,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2778,14 +2817,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2795,14 +2834,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2811,14 +2850,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2828,14 +2867,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2844,14 +2883,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2861,14 +2900,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>122</v>
+        <v>163</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>164</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>77</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2884,7 +2923,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2917,7 +2956,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2934,7 +2973,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2950,24 +2989,24 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>60</v>
+        <v>172</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2976,14 +3015,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2993,14 +3032,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>22</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3009,7 +3048,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3026,11 +3065,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3042,14 +3081,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3059,11 +3098,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3075,7 +3114,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3088,11 +3127,11 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>182</v>
+        <v>60</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
@@ -3115,7 +3154,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3125,11 +3164,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>185</v>
+        <v>60</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>22</v>
@@ -3141,14 +3180,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3158,11 +3197,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>104</v>
+        <v>187</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>105</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3174,14 +3213,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3191,11 +3230,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3207,14 +3246,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3224,14 +3263,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>85</v>
+        <v>193</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>147</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3240,14 +3279,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3257,14 +3296,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3273,14 +3312,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>196</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3290,14 +3329,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>176</v>
+        <v>112</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3306,14 +3345,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>199</v>
+        <v>65</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3330,7 +3369,7 @@
         <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3346,7 +3385,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>203</v>
+        <v>118</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3356,14 +3395,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>204</v>
+        <v>88</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>205</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>77</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3372,14 +3411,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3389,11 +3428,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3405,31 +3444,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>14</v>
+        <v>187</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>15</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3438,31 +3477,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3471,31 +3510,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>18</v>
+        <v>214</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>69</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>65</v>
+        <v>77</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3511,24 +3550,24 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>219</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3544,13 +3583,13 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
@@ -3561,7 +3600,7 @@
         <v>222</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3577,7 +3616,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>79</v>
+        <v>224</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3587,11 +3626,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>111</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3603,14 +3642,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>77</v>
+        <v>226</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3620,11 +3659,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>33</v>
+        <v>227</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>111</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3636,14 +3675,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3653,14 +3692,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>227</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3669,14 +3708,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>229</v>
+        <v>18</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3686,14 +3725,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>233</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3702,7 +3741,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3719,14 +3758,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3735,14 +3774,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3752,11 +3791,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>232</v>
+        <v>33</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>233</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3768,14 +3807,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3785,11 +3824,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>15</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3801,14 +3840,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>229</v>
+        <v>65</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3818,11 +3857,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>33</v>
+        <v>239</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>111</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3834,14 +3873,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3851,49 +3890,214 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>56</v>
+        <v>227</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
+        <v>228</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
+        <v>243</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>18</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>19</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>14</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>244</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>18</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>19</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>245</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>246</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>247</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>16</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>19</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>14</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>248</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>242</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>19</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>33</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>119</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>249</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>250</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>19</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>56</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
         <v>57</v>
       </c>
-      <c t="s" r="Q82" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="83" ht="24.75" customHeight="1">
-      <c r="P83" s="13">
-        <v>4272.5050000000001</v>
-      </c>
-      <c r="Q83" s="13"/>
-    </row>
-    <row r="84" ht="16.5" customHeight="1">
-      <c t="s" r="A84" s="14">
-        <v>238</v>
-      </c>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c t="s" r="G84" s="15">
-        <v>239</v>
-      </c>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="16"/>
-      <c t="s" r="K84" s="17">
-        <v>240</v>
-      </c>
-      <c r="L84" s="17"/>
-      <c r="M84" s="17"/>
-      <c r="N84" s="17"/>
-      <c r="O84" s="17"/>
-      <c r="P84" s="17"/>
-      <c r="Q84" s="17"/>
+      <c t="s" r="Q87" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="P88" s="13">
+        <v>4599.2749999999996</v>
+      </c>
+      <c r="Q88" s="13"/>
+    </row>
+    <row r="89" ht="16.5" customHeight="1">
+      <c t="s" r="A89" s="14">
+        <v>251</v>
+      </c>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c t="s" r="G89" s="15">
+        <v>252</v>
+      </c>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="16"/>
+      <c t="s" r="K89" s="17">
+        <v>253</v>
+      </c>
+      <c r="L89" s="17"/>
+      <c r="M89" s="17"/>
+      <c r="N89" s="17"/>
+      <c r="O89" s="17"/>
+      <c r="P89" s="17"/>
+      <c r="Q89" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="392">
+  <mergeCells count="417">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4282,10 +4486,35 @@
     <mergeCell ref="H82:K82"/>
     <mergeCell ref="L82:M82"/>
     <mergeCell ref="N82:O82"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="G84:I84"/>
-    <mergeCell ref="K84:Q84"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="G89:I89"/>
+    <mergeCell ref="K89:Q89"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-07_00-00.xlsx
+++ b/DaySale_2025-09-07_00-00.xlsx
@@ -326,6 +326,15 @@
     <t>22.7700</t>
   </si>
   <si>
+    <t>ERASTAPEX 20 MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
     <t>EREC 100MG 12 F.C. TABLETS</t>
   </si>
   <si>
@@ -485,7 +494,7 @@
     <t>40.00</t>
   </si>
   <si>
-    <t>40.0000</t>
+    <t>80.0000</t>
   </si>
   <si>
     <t>LIVERIN 20 CAPS</t>
@@ -764,7 +773,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Sunday, 7 September, 2025 9:02 PM</t>
+    <t>Sunday, 7 September, 2025 9:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2263,7 +2272,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2273,14 +2282,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2289,14 +2298,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2306,11 +2315,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>22</v>
@@ -2322,14 +2331,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2339,14 +2348,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2362,7 +2371,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2372,14 +2381,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2405,14 +2414,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2428,24 +2437,24 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>33</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2461,13 +2470,13 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2478,7 +2487,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2494,7 +2503,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2511,7 +2520,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2527,7 +2536,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2541,10 +2550,10 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2553,14 +2562,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2570,11 +2579,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2610,7 +2619,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2643,7 +2652,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2659,13 +2668,13 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2698,7 +2707,7 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2725,7 +2734,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>147</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2735,14 +2744,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>96</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2751,14 +2760,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2775,7 +2784,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2791,7 +2800,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2824,7 +2833,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2857,7 +2866,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2874,7 +2883,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2890,7 +2899,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2907,7 +2916,7 @@
         <v>164</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2923,7 +2932,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2940,7 +2949,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2956,7 +2965,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2973,7 +2982,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2989,7 +2998,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3006,7 +3015,7 @@
         <v>173</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>65</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3022,7 +3031,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3032,14 +3041,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>130</v>
+        <v>175</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3048,14 +3057,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3065,14 +3074,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>177</v>
+        <v>133</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>178</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3088,7 +3097,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3121,21 +3130,21 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>60</v>
+        <v>183</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3147,7 +3156,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3160,7 +3169,7 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -3168,10 +3177,10 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3180,7 +3189,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3197,14 +3206,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>187</v>
+        <v>60</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3286,7 +3295,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3303,7 +3312,7 @@
         <v>197</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3319,7 +3328,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3329,14 +3338,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>112</v>
+        <v>199</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>113</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3345,14 +3354,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3362,11 +3371,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>200</v>
+        <v>115</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>201</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3385,7 +3394,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>118</v>
+        <v>65</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3395,14 +3404,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>88</v>
+        <v>203</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>155</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3411,14 +3420,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3428,14 +3437,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>204</v>
+        <v>88</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>205</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3451,7 +3460,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>207</v>
+        <v>82</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3461,14 +3470,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3494,11 +3503,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>22</v>
@@ -3510,14 +3519,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3527,14 +3536,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>77</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3543,14 +3552,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>77</v>
+        <v>217</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3567,7 +3576,7 @@
         <v>219</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3583,7 +3592,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3616,21 +3625,21 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>224</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>14</v>
+        <v>224</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>15</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3642,14 +3651,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3659,11 +3668,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>227</v>
+        <v>14</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>228</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3675,14 +3684,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>18</v>
+        <v>229</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3696,10 +3705,10 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>69</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3708,7 +3717,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3725,14 +3734,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>232</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>233</v>
+        <v>65</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3758,14 +3767,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>69</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>52</v>
+        <v>236</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3774,14 +3783,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3791,14 +3800,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>33</v>
+        <v>238</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3807,14 +3816,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3828,7 +3837,7 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3840,14 +3849,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3857,11 +3866,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>239</v>
+        <v>33</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>240</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3880,7 +3889,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>242</v>
+        <v>65</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3890,11 +3899,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3906,14 +3915,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>18</v>
+        <v>245</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3923,11 +3932,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>14</v>
+        <v>230</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>15</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3939,7 +3948,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -3956,11 +3965,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>245</v>
+        <v>14</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>246</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -3979,7 +3988,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3989,11 +3998,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>14</v>
+        <v>248</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>15</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4005,14 +4014,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>242</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4022,11 +4031,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>119</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4038,14 +4047,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4055,49 +4064,82 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
+        <v>122</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>252</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>253</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>19</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>56</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
         <v>57</v>
       </c>
-      <c t="s" r="Q87" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="88" ht="24.75" customHeight="1">
-      <c r="P88" s="13">
-        <v>4599.2749999999996</v>
-      </c>
-      <c r="Q88" s="13"/>
-    </row>
-    <row r="89" ht="16.5" customHeight="1">
-      <c t="s" r="A89" s="14">
-        <v>251</v>
-      </c>
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c t="s" r="G89" s="15">
-        <v>252</v>
-      </c>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
-      <c r="J89" s="16"/>
-      <c t="s" r="K89" s="17">
-        <v>253</v>
-      </c>
-      <c r="L89" s="17"/>
-      <c r="M89" s="17"/>
-      <c r="N89" s="17"/>
-      <c r="O89" s="17"/>
-      <c r="P89" s="17"/>
-      <c r="Q89" s="17"/>
+      <c t="s" r="Q88" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="P89" s="13">
+        <v>4714.2749999999996</v>
+      </c>
+      <c r="Q89" s="13"/>
+    </row>
+    <row r="90" ht="16.5" customHeight="1">
+      <c t="s" r="A90" s="14">
+        <v>254</v>
+      </c>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c t="s" r="G90" s="15">
+        <v>255</v>
+      </c>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="16"/>
+      <c t="s" r="K90" s="17">
+        <v>256</v>
+      </c>
+      <c r="L90" s="17"/>
+      <c r="M90" s="17"/>
+      <c r="N90" s="17"/>
+      <c r="O90" s="17"/>
+      <c r="P90" s="17"/>
+      <c r="Q90" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="417">
+  <mergeCells count="422">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4511,10 +4553,15 @@
     <mergeCell ref="H87:K87"/>
     <mergeCell ref="L87:M87"/>
     <mergeCell ref="N87:O87"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="G89:I89"/>
-    <mergeCell ref="K89:Q89"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="G90:I90"/>
+    <mergeCell ref="K90:Q90"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-07_00-00.xlsx
+++ b/DaySale_2025-09-07_00-00.xlsx
@@ -773,7 +773,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Sunday, 7 September, 2025 9:03 PM</t>
+    <t>Sunday, 7 September, 2025 9:05 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-07_00-00.xlsx
+++ b/DaySale_2025-09-07_00-00.xlsx
@@ -95,54 +95,57 @@
     <t>AMAGLUST 4/30 MG 30 SCORED TAB</t>
   </si>
   <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>135.6600</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>ANALLERGE 4 MG 60 TAB.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>9.9000</t>
+  </si>
+  <si>
+    <t>ANGIOSARTAN PLUS 40/25MG 28 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>81.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
+    <t>APEXIDONE 3MG 30 F.C.TAB.</t>
+  </si>
+  <si>
     <t>0:2</t>
   </si>
   <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>102.0000</t>
-  </si>
-  <si>
-    <t>ANALLERGE 4 MG 60 TAB.</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>9.9000</t>
-  </si>
-  <si>
-    <t>ANGIOSARTAN PLUS 40/25MG 28 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>81.0000</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>12.4800</t>
-  </si>
-  <si>
-    <t>APEXIDONE 3MG 30 F.C.TAB.</t>
-  </si>
-  <si>
     <t>126.00</t>
   </si>
   <si>
@@ -188,9 +191,6 @@
     <t>CATAFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>120.00</t>
   </si>
   <si>
@@ -311,6 +311,15 @@
     <t>106.0000</t>
   </si>
   <si>
+    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>101.00</t>
+  </si>
+  <si>
+    <t>50.5000</t>
+  </si>
+  <si>
     <t>DURICEF 500MG/5ML SUSP. 60ML</t>
   </si>
   <si>
@@ -362,6 +371,15 @@
     <t>28.0000</t>
   </si>
   <si>
+    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
@@ -380,6 +398,15 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">FLAMOGEST  30TABS</t>
   </si>
   <si>
@@ -548,6 +575,12 @@
     <t>132.0000</t>
   </si>
   <si>
+    <t>NEVILOB 2.5 MG 14 TAB.</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
     <t>NORMOCARD 2.5 MG 30 TAB.</t>
   </si>
   <si>
@@ -584,9 +617,6 @@
     <t>90.00</t>
   </si>
   <si>
-    <t>90.0000</t>
-  </si>
-  <si>
     <t>SYMBICORT 160/4.5MCG/DOSE TURBUHALER 120 DOSES</t>
   </si>
   <si>
@@ -653,12 +683,6 @@
     <t>4:1</t>
   </si>
   <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -773,7 +797,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Sunday, 7 September, 2025 9:05 PM</t>
+    <t>Sunday, 7 September, 2025 9:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1513,7 +1537,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1523,14 +1547,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>29</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>30</v>
-      </c>
-      <c t="s" r="Q10" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1645,7 +1669,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1655,11 +1679,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>22</v>
@@ -1671,7 +1695,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1692,7 +1716,7 @@
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1704,7 +1728,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1721,11 +1745,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1737,14 +1761,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1754,11 +1778,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1770,7 +1794,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1787,11 +1811,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1803,14 +1827,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1843,7 +1867,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1975,7 +1999,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2018,11 +2042,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -2206,7 +2230,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2216,14 +2240,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2232,14 +2256,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2249,14 +2273,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2272,7 +2296,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2289,7 +2313,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2305,7 +2329,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2315,14 +2339,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2331,14 +2355,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2348,11 +2372,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>22</v>
@@ -2364,14 +2388,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2381,14 +2405,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2404,7 +2428,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2414,14 +2438,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2437,7 +2461,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>121</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2447,14 +2471,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>33</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2470,17 +2494,17 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>28</v>
+        <v>124</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>71</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
@@ -2503,7 +2527,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2513,7 +2537,7 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>33</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
@@ -2536,7 +2560,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2569,13 +2593,13 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2583,10 +2607,10 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>21</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2595,14 +2619,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2612,11 +2636,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2628,14 +2652,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2645,11 +2669,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>22</v>
@@ -2661,14 +2685,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2678,11 +2702,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2701,13 +2725,13 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2734,7 +2758,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2751,7 +2775,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2767,7 +2791,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2777,14 +2801,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>96</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2793,28 +2817,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2826,14 +2850,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2843,11 +2867,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2859,14 +2883,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>52</v>
+        <v>159</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2883,7 +2907,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>77</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2899,7 +2923,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2932,7 +2956,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2949,7 +2973,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2965,7 +2989,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2982,7 +3006,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2998,7 +3022,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3015,7 +3039,7 @@
         <v>173</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3031,7 +3055,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3048,7 +3072,7 @@
         <v>176</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>65</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3064,7 +3088,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3074,14 +3098,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>133</v>
+        <v>178</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3090,14 +3114,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3107,14 +3131,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3123,14 +3147,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3140,14 +3164,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3156,31 +3180,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>60</v>
+        <v>142</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3189,14 +3213,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3206,11 +3230,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>60</v>
+        <v>189</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>188</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>22</v>
@@ -3222,7 +3246,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3239,11 +3263,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3255,14 +3279,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3272,11 +3296,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3288,7 +3312,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3301,11 +3325,11 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>196</v>
+        <v>60</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
@@ -3328,7 +3352,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3338,11 +3362,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>199</v>
+        <v>60</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>22</v>
@@ -3354,14 +3378,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3371,11 +3395,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>115</v>
+        <v>201</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3394,7 +3418,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3427,7 +3451,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3437,14 +3461,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>88</v>
+        <v>206</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>158</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3453,14 +3477,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3470,14 +3494,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3486,14 +3510,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>210</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3503,14 +3527,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>190</v>
+        <v>118</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>211</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3526,7 +3550,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>213</v>
+        <v>65</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3536,14 +3560,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3552,14 +3576,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>217</v>
+        <v>127</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3569,14 +3593,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>218</v>
+        <v>88</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>219</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>77</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3585,14 +3609,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3602,11 +3626,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3618,14 +3642,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3635,14 +3659,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3651,31 +3675,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>15</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3684,31 +3708,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3717,31 +3741,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>69</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3750,31 +3774,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>236</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3783,14 +3807,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>18</v>
+        <v>235</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3800,14 +3824,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3816,14 +3840,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>82</v>
+        <v>237</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3833,11 +3857,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>33</v>
+        <v>238</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>122</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3856,7 +3880,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3866,14 +3890,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>33</v>
+        <v>241</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3882,14 +3906,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3899,14 +3923,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
         <v>243</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>244</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3915,14 +3939,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>245</v>
+        <v>18</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3932,14 +3956,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>231</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3948,14 +3972,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3965,11 +3989,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -3981,14 +4005,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3998,11 +4022,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>248</v>
+        <v>33</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>249</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4014,14 +4038,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4031,11 +4055,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>14</v>
+        <v>250</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>15</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4047,14 +4071,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4064,11 +4088,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>33</v>
+        <v>238</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>122</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4080,14 +4104,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>253</v>
+        <v>18</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4097,49 +4121,181 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>255</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>18</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>19</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>256</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>257</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>258</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>16</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>19</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>14</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>259</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>253</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>19</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>33</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>128</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
+        <v>260</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>261</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>19</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
         <v>57</v>
       </c>
-      <c t="s" r="Q88" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="89" ht="25.5" customHeight="1">
-      <c r="P89" s="13">
-        <v>4714.2749999999996</v>
-      </c>
-      <c r="Q89" s="13"/>
-    </row>
-    <row r="90" ht="16.5" customHeight="1">
-      <c t="s" r="A90" s="14">
-        <v>254</v>
-      </c>
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c t="s" r="G90" s="15">
-        <v>255</v>
-      </c>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15"/>
-      <c r="J90" s="16"/>
-      <c t="s" r="K90" s="17">
-        <v>256</v>
-      </c>
-      <c r="L90" s="17"/>
-      <c r="M90" s="17"/>
-      <c r="N90" s="17"/>
-      <c r="O90" s="17"/>
-      <c r="P90" s="17"/>
-      <c r="Q90" s="17"/>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>58</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="P93" s="13">
+        <v>4928.2650000000003</v>
+      </c>
+      <c r="Q93" s="13"/>
+    </row>
+    <row r="94" ht="16.5" customHeight="1">
+      <c t="s" r="A94" s="14">
+        <v>262</v>
+      </c>
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+      <c t="s" r="G94" s="15">
+        <v>263</v>
+      </c>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="16"/>
+      <c t="s" r="K94" s="17">
+        <v>264</v>
+      </c>
+      <c r="L94" s="17"/>
+      <c r="M94" s="17"/>
+      <c r="N94" s="17"/>
+      <c r="O94" s="17"/>
+      <c r="P94" s="17"/>
+      <c r="Q94" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="422">
+  <mergeCells count="442">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4558,10 +4714,30 @@
     <mergeCell ref="H88:K88"/>
     <mergeCell ref="L88:M88"/>
     <mergeCell ref="N88:O88"/>
-    <mergeCell ref="P89:Q89"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="G90:I90"/>
-    <mergeCell ref="K90:Q90"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="G94:I94"/>
+    <mergeCell ref="K94:Q94"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-07_00-00.xlsx
+++ b/DaySale_2025-09-07_00-00.xlsx
@@ -260,6 +260,18 @@
     <t>6:0</t>
   </si>
   <si>
+    <t>COSMOFER 50MG/ML FOR INF. 5 AMPS.</t>
+  </si>
+  <si>
+    <t>470.00</t>
+  </si>
+  <si>
+    <t>376.0000</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
@@ -716,63 +728,63 @@
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
-    <t>27:0</t>
+    <t>26:0</t>
   </si>
   <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
-    <t>58:0</t>
+    <t>56:0</t>
   </si>
   <si>
     <t>20.00</t>
   </si>
   <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
+    <t>34:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>صابون ديتول اوريجنيال 115 جم</t>
+  </si>
+  <si>
+    <t>فرشه اسنان POWER GOLD كبار</t>
+  </si>
+  <si>
+    <t>فرشه للشعر</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>قطن 100 جم</t>
+  </si>
+  <si>
+    <t>29:0</t>
+  </si>
+  <si>
     <t>20.0000</t>
   </si>
   <si>
-    <t>سرنجات 10 سم</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>68.0000</t>
-  </si>
-  <si>
-    <t>34:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>صابون ديتول اوريجنيال 115 جم</t>
-  </si>
-  <si>
-    <t>فرشه اسنان POWER GOLD كبار</t>
-  </si>
-  <si>
-    <t>فرشه للشعر</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>قطن 100 جم</t>
-  </si>
-  <si>
-    <t>29:0</t>
-  </si>
-  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -785,6 +797,12 @@
     <t>8.0000</t>
   </si>
   <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>24:0</t>
+  </si>
+  <si>
     <t>مشط بلاستك طويل</t>
   </si>
   <si>
@@ -797,7 +815,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Sunday, 7 September, 2025 9:07 PM</t>
+    <t>Sunday, 7 September, 2025 9:13 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2065,7 +2083,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2075,14 +2093,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q26" s="12">
         <v>86</v>
-      </c>
-      <c t="s" r="Q26" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2098,7 +2116,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2108,14 +2126,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2124,14 +2142,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2141,14 +2159,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2157,31 +2175,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>96</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2197,13 +2215,13 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -2214,7 +2232,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2223,14 +2241,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2240,14 +2258,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2256,14 +2274,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2273,14 +2291,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2289,14 +2307,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2306,14 +2324,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2322,14 +2340,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2339,14 +2357,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2355,14 +2373,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2379,7 +2397,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2395,7 +2413,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2405,11 +2423,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>22</v>
@@ -2421,14 +2439,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2438,14 +2456,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2454,14 +2472,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2471,14 +2489,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2487,14 +2505,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2504,11 +2522,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>22</v>
@@ -2520,14 +2538,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2537,14 +2555,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2553,14 +2571,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>30</v>
+        <v>131</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2570,14 +2588,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>33</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2586,28 +2604,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>22</v>
@@ -2619,31 +2637,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2652,14 +2670,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2669,14 +2687,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2685,14 +2703,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2702,14 +2720,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2718,14 +2736,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2735,11 +2753,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2751,7 +2769,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2768,14 +2786,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2784,7 +2802,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2801,14 +2819,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2817,28 +2835,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2850,7 +2868,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2863,15 +2881,15 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2883,14 +2901,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>159</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2907,7 +2925,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>96</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2923,7 +2941,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>163</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2933,14 +2951,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2949,14 +2967,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2966,11 +2984,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2982,14 +3000,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2999,14 +3017,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3015,14 +3033,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3032,14 +3050,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3048,14 +3066,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3065,14 +3083,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3081,14 +3099,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3098,14 +3116,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3114,14 +3132,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3131,14 +3149,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3147,14 +3165,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3164,14 +3182,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>65</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3180,14 +3198,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3197,14 +3215,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3213,7 +3231,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3230,14 +3248,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>189</v>
+        <v>146</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>92</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>22</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3246,14 +3264,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3263,14 +3281,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>192</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3279,14 +3297,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3296,11 +3314,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3312,28 +3330,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>60</v>
+        <v>198</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3345,7 +3363,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3358,7 +3376,7 @@
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
@@ -3366,10 +3384,10 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3378,7 +3396,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3395,14 +3413,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>201</v>
+        <v>60</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>131</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3411,7 +3429,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3428,11 +3446,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>204</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3444,7 +3462,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3461,11 +3479,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3477,14 +3495,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3494,14 +3512,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3510,14 +3528,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3527,14 +3545,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>118</v>
+        <v>213</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>119</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3543,14 +3561,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3560,11 +3578,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>213</v>
+        <v>122</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>214</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3576,14 +3594,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>127</v>
+        <v>65</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3593,14 +3611,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>88</v>
+        <v>217</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>167</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3609,14 +3627,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>82</v>
+        <v>131</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3626,14 +3644,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>217</v>
+        <v>92</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>218</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3642,14 +3660,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>220</v>
+        <v>82</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3659,14 +3677,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3675,14 +3693,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3692,11 +3710,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>121</v>
+        <v>205</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>22</v>
@@ -3708,14 +3726,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3725,14 +3743,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>226</v>
+        <v>125</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>227</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>77</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3748,7 +3766,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>77</v>
+        <v>229</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3758,14 +3776,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3774,14 +3792,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3791,11 +3809,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3807,28 +3825,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>235</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>14</v>
+        <v>236</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>15</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3840,14 +3858,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3857,14 +3875,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>238</v>
+        <v>14</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>239</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3880,7 +3898,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>18</v>
+        <v>241</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3890,11 +3908,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>65</v>
@@ -3906,7 +3924,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3923,14 +3941,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>243</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>244</v>
+        <v>65</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3956,14 +3974,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>69</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>53</v>
+        <v>247</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3972,14 +3990,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3989,14 +4007,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>33</v>
+        <v>249</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>128</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4005,14 +4023,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4026,7 +4044,7 @@
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4038,14 +4056,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4055,11 +4073,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>250</v>
+        <v>33</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>251</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4078,7 +4096,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>253</v>
+        <v>65</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4088,11 +4106,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4104,14 +4122,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>18</v>
+        <v>256</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4121,11 +4139,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>14</v>
+        <v>242</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>15</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4137,7 +4155,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4154,14 +4172,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>256</v>
+        <v>14</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>257</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4170,14 +4188,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4187,11 +4205,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>14</v>
+        <v>260</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>15</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4203,14 +4221,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4220,11 +4238,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4236,14 +4254,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>261</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4253,49 +4271,115 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>265</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>256</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>19</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>33</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>132</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>266</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>267</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>19</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>57</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
         <v>58</v>
       </c>
-      <c t="s" r="Q92" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="93" ht="24.75" customHeight="1">
-      <c r="P93" s="13">
-        <v>4928.2650000000003</v>
-      </c>
-      <c r="Q93" s="13"/>
-    </row>
-    <row r="94" ht="16.5" customHeight="1">
-      <c t="s" r="A94" s="14">
-        <v>262</v>
-      </c>
-      <c r="B94" s="14"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
-      <c t="s" r="G94" s="15">
-        <v>263</v>
-      </c>
-      <c r="H94" s="15"/>
-      <c r="I94" s="15"/>
-      <c r="J94" s="16"/>
-      <c t="s" r="K94" s="17">
-        <v>264</v>
-      </c>
-      <c r="L94" s="17"/>
-      <c r="M94" s="17"/>
-      <c r="N94" s="17"/>
-      <c r="O94" s="17"/>
-      <c r="P94" s="17"/>
-      <c r="Q94" s="17"/>
+      <c t="s" r="Q94" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="P95" s="13">
+        <v>5404.2650000000003</v>
+      </c>
+      <c r="Q95" s="13"/>
+    </row>
+    <row r="96" ht="16.5" customHeight="1">
+      <c t="s" r="A96" s="14">
+        <v>268</v>
+      </c>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c t="s" r="G96" s="15">
+        <v>269</v>
+      </c>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="16"/>
+      <c t="s" r="K96" s="17">
+        <v>270</v>
+      </c>
+      <c r="L96" s="17"/>
+      <c r="M96" s="17"/>
+      <c r="N96" s="17"/>
+      <c r="O96" s="17"/>
+      <c r="P96" s="17"/>
+      <c r="Q96" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="442">
+  <mergeCells count="452">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4734,10 +4818,20 @@
     <mergeCell ref="H92:K92"/>
     <mergeCell ref="L92:M92"/>
     <mergeCell ref="N92:O92"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="A94:F94"/>
-    <mergeCell ref="G94:I94"/>
-    <mergeCell ref="K94:Q94"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="K96:Q96"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-07_00-00.xlsx
+++ b/DaySale_2025-09-07_00-00.xlsx
@@ -230,6 +230,15 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>CIPROFLOXACIN-ORGANO 750 MG 10 TAB</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
     <t>CONCOR 10MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -323,6 +332,15 @@
     <t>106.0000</t>
   </si>
   <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>DOXIRAZOL 60 MG 14 CAPS.</t>
   </si>
   <si>
@@ -428,6 +446,15 @@
     <t>64.3500</t>
   </si>
   <si>
+    <t>FLECTOR 1% TOPICAL GEL 25 GM</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
     <t>GARAMYCIN 0.1% CREAM 15 GM</t>
   </si>
   <si>
@@ -527,6 +554,12 @@
     <t>18.0000</t>
   </si>
   <si>
+    <t>LEVCET 5MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>42.5000</t>
+  </si>
+  <si>
     <t>LICID LOTION 30 ML</t>
   </si>
   <si>
@@ -668,6 +701,9 @@
     <t>38.0000</t>
   </si>
   <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
     <t>VETOCETAMOL 24 TAB.</t>
   </si>
   <si>
@@ -773,9 +809,6 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>35.0000</t>
-  </si>
-  <si>
     <t>قطن 100 جم</t>
   </si>
   <si>
@@ -815,7 +848,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Sunday, 7 September, 2025 9:13 PM</t>
+    <t>Sunday, 7 September, 2025 9:19 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1984,7 +2017,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1994,14 +2027,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2010,14 +2043,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2027,14 +2060,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q24" s="12">
         <v>80</v>
-      </c>
-      <c t="s" r="Q24" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2050,7 +2083,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2060,11 +2093,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -2076,14 +2109,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2093,14 +2126,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2109,14 +2142,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2126,14 +2159,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2142,14 +2175,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2166,7 +2199,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2182,7 +2215,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2199,7 +2232,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2215,13 +2248,13 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -2232,7 +2265,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>100</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2241,31 +2274,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
+        <v>102</v>
+      </c>
+      <c t="s" r="Q31" s="12">
         <v>103</v>
-      </c>
-      <c t="s" r="Q31" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2281,7 +2314,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2298,7 +2331,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2314,7 +2347,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2324,14 +2357,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2340,14 +2373,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2357,11 +2390,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>22</v>
@@ -2373,14 +2406,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2390,7 +2423,7 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
@@ -2413,7 +2446,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2423,11 +2456,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>22</v>
@@ -2439,14 +2472,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2456,14 +2489,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2479,7 +2512,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2489,14 +2522,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2505,7 +2538,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2522,7 +2555,7 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
@@ -2545,7 +2578,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>128</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2555,14 +2588,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>71</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2578,7 +2611,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>131</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2588,14 +2621,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>33</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2611,7 +2644,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>30</v>
+        <v>134</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2621,7 +2654,7 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>71</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
@@ -2644,24 +2677,24 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>44</v>
+        <v>137</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>137</v>
+        <v>33</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2677,7 +2710,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2694,7 +2727,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2710,13 +2743,13 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2743,7 +2776,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2757,7 +2790,7 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>21</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2769,14 +2802,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2786,11 +2819,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2802,14 +2835,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2819,11 +2852,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>22</v>
@@ -2835,14 +2868,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2852,11 +2885,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2875,13 +2908,13 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2908,7 +2941,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2925,7 +2958,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2941,7 +2974,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>163</v>
+        <v>44</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2951,14 +2984,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>100</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2967,28 +3000,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3000,14 +3033,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3017,11 +3050,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3033,14 +3066,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>53</v>
+        <v>172</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3057,7 +3090,7 @@
         <v>174</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>77</v>
+        <v>103</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3073,7 +3106,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3106,7 +3139,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3123,7 +3156,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3139,7 +3172,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3149,14 +3182,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>182</v>
+        <v>92</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3165,14 +3198,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3182,14 +3215,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>22</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3198,14 +3231,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3215,14 +3248,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3231,14 +3264,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3248,14 +3281,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>146</v>
+        <v>190</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>191</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>77</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3271,7 +3304,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3285,10 +3318,10 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>96</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3297,14 +3330,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3314,14 +3347,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3330,14 +3363,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3347,14 +3380,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3363,31 +3396,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>60</v>
+        <v>155</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3396,14 +3429,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3413,11 +3446,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>60</v>
+        <v>204</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>203</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>22</v>
@@ -3429,7 +3462,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3446,11 +3479,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>135</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3462,14 +3495,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3479,11 +3512,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3495,7 +3528,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3508,15 +3541,15 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>210</v>
+        <v>60</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3528,14 +3561,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3545,7 +3578,7 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>213</v>
+        <v>60</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
@@ -3568,7 +3601,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3578,11 +3611,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>122</v>
+        <v>216</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3594,14 +3627,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3611,11 +3644,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3627,14 +3660,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3644,14 +3677,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>92</v>
+        <v>221</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>171</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3660,14 +3693,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3677,14 +3710,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3693,14 +3726,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>224</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3710,14 +3743,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>205</v>
+        <v>128</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>225</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3726,14 +3759,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>227</v>
+        <v>65</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3743,14 +3776,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3759,14 +3792,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>229</v>
+        <v>80</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3776,14 +3809,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>230</v>
+        <v>95</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>231</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>77</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3792,14 +3825,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3809,14 +3842,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>233</v>
+        <v>95</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>234</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3825,14 +3858,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3842,11 +3875,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3858,31 +3891,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>14</v>
+        <v>216</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>132</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>77</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3891,31 +3924,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>242</v>
+        <v>131</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>65</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3924,31 +3957,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>18</v>
+        <v>241</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>69</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3957,31 +3990,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
         <v>246</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>247</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3990,31 +4023,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>171</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4030,7 +4063,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>82</v>
+        <v>251</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4040,14 +4073,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4056,14 +4089,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>77</v>
+        <v>253</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4073,14 +4106,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>33</v>
+        <v>254</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>132</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4089,14 +4122,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4106,14 +4139,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>254</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4122,14 +4155,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>256</v>
+        <v>18</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4143,10 +4176,10 @@
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>259</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4155,7 +4188,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4172,14 +4205,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>14</v>
+        <v>261</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4188,14 +4221,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4205,11 +4238,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>260</v>
+        <v>33</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>261</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4221,14 +4254,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>263</v>
+        <v>80</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4238,11 +4271,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>72</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4261,7 +4294,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4271,11 +4304,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>14</v>
+        <v>265</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4287,14 +4320,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4304,11 +4337,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>33</v>
+        <v>254</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>132</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4320,14 +4353,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>267</v>
+        <v>18</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4337,49 +4370,214 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
+        <v>138</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>270</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>18</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>19</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>271</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>272</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>273</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>274</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>19</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>71</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>275</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>16</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>19</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>14</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>276</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>267</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>19</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>33</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>138</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>277</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>278</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>19</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>57</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
         <v>58</v>
       </c>
-      <c t="s" r="Q94" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="95" ht="24.75" customHeight="1">
-      <c r="P95" s="13">
-        <v>5404.2650000000003</v>
-      </c>
-      <c r="Q95" s="13"/>
-    </row>
-    <row r="96" ht="16.5" customHeight="1">
-      <c t="s" r="A96" s="14">
-        <v>268</v>
-      </c>
-      <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c t="s" r="G96" s="15">
-        <v>269</v>
-      </c>
-      <c r="H96" s="15"/>
-      <c r="I96" s="15"/>
-      <c r="J96" s="16"/>
-      <c t="s" r="K96" s="17">
-        <v>270</v>
-      </c>
-      <c r="L96" s="17"/>
-      <c r="M96" s="17"/>
-      <c r="N96" s="17"/>
-      <c r="O96" s="17"/>
-      <c r="P96" s="17"/>
-      <c r="Q96" s="17"/>
+      <c t="s" r="Q99" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="P100" s="13">
+        <v>5620.7650000000003</v>
+      </c>
+      <c r="Q100" s="13"/>
+    </row>
+    <row r="101" ht="16.5" customHeight="1">
+      <c t="s" r="A101" s="14">
+        <v>279</v>
+      </c>
+      <c r="B101" s="14"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="14"/>
+      <c t="s" r="G101" s="15">
+        <v>280</v>
+      </c>
+      <c r="H101" s="15"/>
+      <c r="I101" s="15"/>
+      <c r="J101" s="16"/>
+      <c t="s" r="K101" s="17">
+        <v>281</v>
+      </c>
+      <c r="L101" s="17"/>
+      <c r="M101" s="17"/>
+      <c r="N101" s="17"/>
+      <c r="O101" s="17"/>
+      <c r="P101" s="17"/>
+      <c r="Q101" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="452">
+  <mergeCells count="477">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4828,10 +5026,35 @@
     <mergeCell ref="H94:K94"/>
     <mergeCell ref="L94:M94"/>
     <mergeCell ref="N94:O94"/>
-    <mergeCell ref="P95:Q95"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="K96:Q96"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="P100:Q100"/>
+    <mergeCell ref="A101:F101"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="K101:Q101"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-07_00-00.xlsx
+++ b/DaySale_2025-09-07_00-00.xlsx
@@ -263,6 +263,12 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t>CONCOR PLUS 10/25MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
     <t>CONGESTAL SYRUP 120 ML</t>
   </si>
   <si>
@@ -347,7 +353,7 @@
     <t>101.00</t>
   </si>
   <si>
-    <t>50.5000</t>
+    <t>151.5000</t>
   </si>
   <si>
     <t>DURICEF 500MG/5ML SUSP. 60ML</t>
@@ -485,9 +491,6 @@
     <t>151.50</t>
   </si>
   <si>
-    <t>151.5000</t>
-  </si>
-  <si>
     <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
   </si>
   <si>
@@ -848,7 +851,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Sunday, 7 September, 2025 9:19 PM</t>
+    <t>Sunday, 7 September, 2025 9:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2116,7 +2119,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2126,11 +2129,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2149,7 +2152,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2159,14 +2162,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>89</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2175,14 +2178,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2192,14 +2195,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2208,14 +2211,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2225,14 +2228,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2241,14 +2244,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2258,14 +2261,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2274,31 +2277,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>103</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2307,31 +2310,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2340,14 +2343,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2357,14 +2360,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2373,14 +2376,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2390,11 +2393,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>22</v>
@@ -2406,14 +2409,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2423,14 +2426,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2446,7 +2449,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2456,14 +2459,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2472,14 +2475,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2489,14 +2492,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2505,14 +2508,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2522,14 +2525,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2538,14 +2541,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2555,7 +2558,7 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
@@ -2578,7 +2581,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2588,14 +2591,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2604,14 +2607,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2621,14 +2624,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2637,14 +2640,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>134</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2654,11 +2657,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>71</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>22</v>
@@ -2670,14 +2673,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2687,14 +2690,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2703,14 +2706,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>30</v>
+        <v>139</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2720,14 +2723,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>140</v>
+        <v>33</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2736,28 +2739,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>22</v>
@@ -2769,31 +2772,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2802,14 +2805,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2819,11 +2822,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2835,14 +2838,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2852,14 +2855,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2868,14 +2871,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2885,14 +2888,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>21</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2908,7 +2911,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2922,7 +2925,7 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2934,7 +2937,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2951,14 +2954,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>161</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2967,7 +2970,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2984,14 +2987,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3000,28 +3003,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3033,7 +3036,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3046,15 +3049,15 @@
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3066,14 +3069,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>172</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3083,14 +3086,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>103</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3099,14 +3102,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>173</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3116,14 +3119,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3132,14 +3135,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3149,11 +3152,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3165,14 +3168,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3182,14 +3185,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>92</v>
+        <v>180</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3198,14 +3201,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3215,14 +3218,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>184</v>
+        <v>94</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>80</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3231,14 +3234,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3248,14 +3251,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3264,14 +3267,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3281,14 +3284,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3297,14 +3300,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3314,14 +3317,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3330,14 +3333,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3347,14 +3350,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3363,14 +3366,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3380,14 +3383,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>65</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3396,14 +3399,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3413,14 +3416,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>155</v>
+        <v>200</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3429,7 +3432,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3446,14 +3449,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>204</v>
+        <v>157</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>99</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>22</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3462,14 +3465,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3479,14 +3482,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>207</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3495,14 +3498,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3512,11 +3515,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3528,28 +3531,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>60</v>
+        <v>210</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3561,7 +3564,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3574,7 +3577,7 @@
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
@@ -3582,10 +3585,10 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3594,7 +3597,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3611,14 +3614,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>216</v>
+        <v>60</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>141</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3627,7 +3630,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3644,11 +3647,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>219</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3660,7 +3663,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3677,11 +3680,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3693,14 +3696,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3710,14 +3713,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3726,14 +3729,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3743,14 +3746,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>128</v>
+        <v>225</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>129</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3766,7 +3769,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3776,11 +3779,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>228</v>
+        <v>130</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>229</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3792,14 +3795,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3809,14 +3812,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>95</v>
+        <v>229</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3832,7 +3835,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3842,11 +3845,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>22</v>
@@ -3865,7 +3868,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>85</v>
+        <v>139</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3875,14 +3878,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>233</v>
+        <v>97</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>234</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3891,14 +3894,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>236</v>
+        <v>87</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3908,14 +3911,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3924,14 +3927,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3941,11 +3944,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>131</v>
+        <v>217</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>132</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>22</v>
@@ -3957,14 +3960,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3974,14 +3977,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>242</v>
+        <v>133</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>243</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>80</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3990,14 +3993,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>80</v>
+        <v>242</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4007,14 +4010,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4023,14 +4026,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4040,11 +4043,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4056,31 +4059,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>251</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>14</v>
+        <v>249</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>138</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4089,14 +4092,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4106,14 +4109,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>254</v>
+        <v>14</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4122,14 +4125,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>18</v>
+        <v>254</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4139,11 +4142,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>65</v>
@@ -4155,7 +4158,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4172,14 +4175,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>258</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>259</v>
+        <v>65</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4188,7 +4191,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4205,14 +4208,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>180</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>85</v>
+        <v>260</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4221,14 +4224,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4238,14 +4241,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>33</v>
+        <v>262</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>138</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>87</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4261,7 +4264,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4275,7 +4278,7 @@
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4294,7 +4297,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4304,11 +4307,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>265</v>
+        <v>33</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4320,14 +4323,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>267</v>
+        <v>65</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4337,11 +4340,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>268</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4353,14 +4356,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>18</v>
+        <v>268</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4370,14 +4373,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>14</v>
+        <v>255</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>138</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4403,14 +4406,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>271</v>
+        <v>14</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>272</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4419,14 +4422,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>274</v>
+        <v>18</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4436,11 +4439,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>71</v>
+        <v>272</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>72</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4452,14 +4455,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>16</v>
+        <v>275</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4469,11 +4472,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4492,7 +4495,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>267</v>
+        <v>16</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4502,11 +4505,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>138</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4525,7 +4528,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4535,49 +4538,82 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
+        <v>140</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>278</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>279</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>19</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>57</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
         <v>58</v>
       </c>
-      <c t="s" r="Q99" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="100" ht="24.75" customHeight="1">
-      <c r="P100" s="13">
-        <v>5620.7650000000003</v>
-      </c>
-      <c r="Q100" s="13"/>
-    </row>
-    <row r="101" ht="16.5" customHeight="1">
-      <c t="s" r="A101" s="14">
-        <v>279</v>
-      </c>
-      <c r="B101" s="14"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14"/>
-      <c t="s" r="G101" s="15">
+      <c t="s" r="Q100" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="P101" s="13">
+        <v>5829.7650000000003</v>
+      </c>
+      <c r="Q101" s="13"/>
+    </row>
+    <row r="102" ht="16.5" customHeight="1">
+      <c t="s" r="A102" s="14">
         <v>280</v>
       </c>
-      <c r="H101" s="15"/>
-      <c r="I101" s="15"/>
-      <c r="J101" s="16"/>
-      <c t="s" r="K101" s="17">
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+      <c t="s" r="G102" s="15">
         <v>281</v>
       </c>
-      <c r="L101" s="17"/>
-      <c r="M101" s="17"/>
-      <c r="N101" s="17"/>
-      <c r="O101" s="17"/>
-      <c r="P101" s="17"/>
-      <c r="Q101" s="17"/>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="16"/>
+      <c t="s" r="K102" s="17">
+        <v>282</v>
+      </c>
+      <c r="L102" s="17"/>
+      <c r="M102" s="17"/>
+      <c r="N102" s="17"/>
+      <c r="O102" s="17"/>
+      <c r="P102" s="17"/>
+      <c r="Q102" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="477">
+  <mergeCells count="482">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5051,10 +5087,15 @@
     <mergeCell ref="H99:K99"/>
     <mergeCell ref="L99:M99"/>
     <mergeCell ref="N99:O99"/>
-    <mergeCell ref="P100:Q100"/>
-    <mergeCell ref="A101:F101"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="K101:Q101"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="P101:Q101"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="K102:Q102"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-07_00-00.xlsx
+++ b/DaySale_2025-09-07_00-00.xlsx
@@ -638,6 +638,12 @@
     <t>34.5000</t>
   </si>
   <si>
+    <t>PK-MERZ 100MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
     <t>PLEGICA 1% EYE DROPS 10 ML</t>
   </si>
   <si>
@@ -653,12 +659,30 @@
     <t>120.0000</t>
   </si>
   <si>
+    <t>RAMIXOLE 1 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>159.00</t>
+  </si>
+  <si>
+    <t>159.0000</t>
+  </si>
+  <si>
     <t>ROSASEEF 30 CAPS</t>
   </si>
   <si>
     <t>39.6000</t>
   </si>
   <si>
+    <t>SINEMET 25/250 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
     <t>SPASULANCE 62.5 MG 20 ORODISPERSIBLE FILMS</t>
   </si>
   <si>
@@ -851,7 +875,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Sunday, 7 September, 2025 9:20 PM</t>
+    <t>Sunday, 7 September, 2025 9:21 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3538,7 +3562,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3552,7 +3576,7 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>211</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3564,24 +3588,24 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>60</v>
+        <v>212</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
@@ -3610,7 +3634,7 @@
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
@@ -3621,7 +3645,7 @@
         <v>215</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3637,7 +3661,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3651,7 +3675,7 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>143</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3663,7 +3687,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3680,14 +3704,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>219</v>
+        <v>60</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>220</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3703,7 +3727,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3736,7 +3760,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3750,10 +3774,10 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>226</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3762,14 +3786,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3779,11 +3803,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>130</v>
+        <v>227</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>131</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3795,14 +3819,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3812,11 +3836,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3828,7 +3852,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3845,11 +3869,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>97</v>
+        <v>233</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>181</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>22</v>
@@ -3861,14 +3885,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>139</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3878,14 +3902,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>181</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3894,14 +3918,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3911,11 +3935,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3927,14 +3951,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>237</v>
+        <v>80</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3944,11 +3968,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>217</v>
+        <v>97</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>238</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>22</v>
@@ -3960,14 +3984,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>240</v>
+        <v>139</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3977,11 +4001,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>134</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>22</v>
@@ -4000,7 +4024,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>242</v>
+        <v>87</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4010,14 +4034,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4026,14 +4050,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>80</v>
+        <v>245</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4043,14 +4067,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4059,14 +4083,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>248</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4076,14 +4100,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>249</v>
+        <v>133</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>250</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4092,28 +4116,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>14</v>
+        <v>251</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>140</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>80</v>
@@ -4132,24 +4156,24 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>254</v>
+        <v>80</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>83</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4165,13 +4189,13 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
@@ -4179,10 +4203,10 @@
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>69</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4191,14 +4215,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>18</v>
+        <v>260</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4208,14 +4232,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>243</v>
+        <v>14</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>259</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>260</v>
+        <v>80</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4231,7 +4255,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>18</v>
+        <v>262</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4241,14 +4265,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>181</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>87</v>
+        <v>65</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4257,14 +4281,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4274,14 +4298,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>33</v>
+        <v>265</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>140</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4290,14 +4314,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4307,14 +4331,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>33</v>
+        <v>251</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>140</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>268</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4323,14 +4347,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4340,14 +4364,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>111</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>87</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4356,14 +4380,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>268</v>
+        <v>87</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4373,11 +4397,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>255</v>
+        <v>33</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>269</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4389,14 +4413,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4406,14 +4430,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
         <v>140</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4422,14 +4446,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4439,11 +4463,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>273</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4455,14 +4479,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4472,11 +4496,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>71</v>
+        <v>263</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>72</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4488,14 +4512,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4509,10 +4533,10 @@
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4521,14 +4545,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>268</v>
+        <v>18</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4538,11 +4562,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>33</v>
+        <v>280</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>140</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4554,14 +4578,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4571,49 +4595,148 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>284</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>16</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>19</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>14</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>285</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>276</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>19</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>33</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>140</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>286</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>287</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>19</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>57</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
         <v>58</v>
       </c>
-      <c t="s" r="Q100" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="101" ht="25.5" customHeight="1">
-      <c r="P101" s="13">
-        <v>5829.7650000000003</v>
-      </c>
-      <c r="Q101" s="13"/>
-    </row>
-    <row r="102" ht="16.5" customHeight="1">
-      <c t="s" r="A102" s="14">
-        <v>280</v>
-      </c>
-      <c r="B102" s="14"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
-      <c t="s" r="G102" s="15">
-        <v>281</v>
-      </c>
-      <c r="H102" s="15"/>
-      <c r="I102" s="15"/>
-      <c r="J102" s="16"/>
-      <c t="s" r="K102" s="17">
-        <v>282</v>
-      </c>
-      <c r="L102" s="17"/>
-      <c r="M102" s="17"/>
-      <c r="N102" s="17"/>
-      <c r="O102" s="17"/>
-      <c r="P102" s="17"/>
-      <c r="Q102" s="17"/>
+      <c t="s" r="Q103" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="P104" s="13">
+        <v>6191.7650000000003</v>
+      </c>
+      <c r="Q104" s="13"/>
+    </row>
+    <row r="105" ht="16.5" customHeight="1">
+      <c t="s" r="A105" s="14">
+        <v>288</v>
+      </c>
+      <c r="B105" s="14"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="14"/>
+      <c t="s" r="G105" s="15">
+        <v>289</v>
+      </c>
+      <c r="H105" s="15"/>
+      <c r="I105" s="15"/>
+      <c r="J105" s="16"/>
+      <c t="s" r="K105" s="17">
+        <v>290</v>
+      </c>
+      <c r="L105" s="17"/>
+      <c r="M105" s="17"/>
+      <c r="N105" s="17"/>
+      <c r="O105" s="17"/>
+      <c r="P105" s="17"/>
+      <c r="Q105" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="482">
+  <mergeCells count="497">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5092,10 +5215,25 @@
     <mergeCell ref="H100:K100"/>
     <mergeCell ref="L100:M100"/>
     <mergeCell ref="N100:O100"/>
-    <mergeCell ref="P101:Q101"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="K102:Q102"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="P104:Q104"/>
+    <mergeCell ref="A105:F105"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="K105:Q105"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-07_00-00.xlsx
+++ b/DaySale_2025-09-07_00-00.xlsx
@@ -518,6 +518,12 @@
     <t>235.0000</t>
   </si>
   <si>
+    <t>HALOPERIDOL RETARD 50MG/ML I.M.AMP.</t>
+  </si>
+  <si>
+    <t>19.20</t>
+  </si>
+  <si>
     <t>HEPTA PANTHENOL HAIR CREAM 100 GM</t>
   </si>
   <si>
@@ -875,7 +881,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Sunday, 7 September, 2025 9:21 PM</t>
+    <t>Sunday, 7 September, 2025 9:22 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3114,7 +3120,7 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3126,14 +3132,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>173</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3143,14 +3149,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>105</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3159,14 +3165,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>175</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3176,14 +3182,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3192,14 +3198,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3209,11 +3215,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3225,14 +3231,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3242,14 +3248,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>94</v>
+        <v>182</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>183</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3265,7 +3271,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3275,14 +3281,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>185</v>
+        <v>94</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>80</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3291,14 +3297,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3308,14 +3314,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3324,14 +3330,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3341,14 +3347,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3357,14 +3363,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3374,14 +3380,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3390,14 +3396,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3407,14 +3413,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3423,14 +3429,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3440,14 +3446,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>65</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3456,14 +3462,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3473,14 +3479,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>157</v>
+        <v>202</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>203</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3506,14 +3512,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>205</v>
+        <v>157</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>101</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>22</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3529,7 +3535,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3543,10 +3549,10 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>208</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3555,14 +3561,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3572,11 +3578,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>37</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3595,7 +3601,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3609,7 +3615,7 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>213</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3621,24 +3627,24 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>60</v>
+        <v>214</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
@@ -3661,21 +3667,21 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>217</v>
+        <v>60</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3687,14 +3693,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3704,14 +3710,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>60</v>
+        <v>219</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>220</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3727,7 +3733,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3737,14 +3743,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>222</v>
+        <v>60</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3753,14 +3759,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3770,11 +3776,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>143</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3807,7 +3813,7 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>228</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3819,7 +3825,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3836,11 +3842,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3852,14 +3858,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3869,14 +3875,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3885,14 +3891,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3902,14 +3908,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>130</v>
+        <v>235</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>131</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3918,14 +3924,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3935,11 +3941,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>237</v>
+        <v>130</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>238</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3951,14 +3957,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3968,14 +3974,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>97</v>
+        <v>239</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>181</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3984,14 +3990,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4005,7 +4011,7 @@
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>22</v>
@@ -4017,14 +4023,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>87</v>
+        <v>139</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4034,14 +4040,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>242</v>
+        <v>97</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>243</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4050,14 +4056,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>245</v>
+        <v>87</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4067,14 +4073,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4083,14 +4089,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4100,11 +4106,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>133</v>
+        <v>227</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>134</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>22</v>
@@ -4133,14 +4139,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>251</v>
+        <v>133</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>252</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>80</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4149,14 +4155,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>80</v>
+        <v>252</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4166,14 +4172,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4182,14 +4188,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4199,11 +4205,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4215,31 +4221,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>14</v>
+        <v>259</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>140</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4265,14 +4271,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>263</v>
+        <v>14</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4281,14 +4287,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>18</v>
+        <v>264</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4302,7 +4308,7 @@
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>65</v>
@@ -4331,14 +4337,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>267</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>268</v>
+        <v>65</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4347,7 +4353,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4364,14 +4370,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>181</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>87</v>
+        <v>270</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4387,7 +4393,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4397,14 +4403,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>33</v>
+        <v>272</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>140</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>87</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4413,14 +4419,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4446,14 +4452,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4463,11 +4469,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>274</v>
+        <v>33</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4486,7 +4492,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>276</v>
+        <v>65</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4496,11 +4502,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>277</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4512,14 +4518,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>18</v>
+        <v>278</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4529,14 +4535,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>14</v>
+        <v>265</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>140</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4545,7 +4551,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4562,14 +4568,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>280</v>
+        <v>14</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>281</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4578,14 +4584,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>283</v>
+        <v>18</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4595,11 +4601,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>71</v>
+        <v>282</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>72</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4618,7 +4624,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>16</v>
+        <v>285</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4628,11 +4634,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4644,14 +4650,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>276</v>
+        <v>16</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4661,11 +4667,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>140</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4677,14 +4683,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4694,49 +4700,82 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
+        <v>140</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>288</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>289</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>19</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>57</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
         <v>58</v>
       </c>
-      <c t="s" r="Q103" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="104" ht="25.5" customHeight="1">
-      <c r="P104" s="13">
-        <v>6191.7650000000003</v>
-      </c>
-      <c r="Q104" s="13"/>
-    </row>
-    <row r="105" ht="16.5" customHeight="1">
-      <c t="s" r="A105" s="14">
-        <v>288</v>
-      </c>
-      <c r="B105" s="14"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14"/>
-      <c t="s" r="G105" s="15">
-        <v>289</v>
-      </c>
-      <c r="H105" s="15"/>
-      <c r="I105" s="15"/>
-      <c r="J105" s="16"/>
-      <c t="s" r="K105" s="17">
+      <c t="s" r="Q104" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="P105" s="13">
+        <v>6210.9650000000001</v>
+      </c>
+      <c r="Q105" s="13"/>
+    </row>
+    <row r="106" ht="16.5" customHeight="1">
+      <c t="s" r="A106" s="14">
         <v>290</v>
       </c>
-      <c r="L105" s="17"/>
-      <c r="M105" s="17"/>
-      <c r="N105" s="17"/>
-      <c r="O105" s="17"/>
-      <c r="P105" s="17"/>
-      <c r="Q105" s="17"/>
+      <c r="B106" s="14"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
+      <c t="s" r="G106" s="15">
+        <v>291</v>
+      </c>
+      <c r="H106" s="15"/>
+      <c r="I106" s="15"/>
+      <c r="J106" s="16"/>
+      <c t="s" r="K106" s="17">
+        <v>292</v>
+      </c>
+      <c r="L106" s="17"/>
+      <c r="M106" s="17"/>
+      <c r="N106" s="17"/>
+      <c r="O106" s="17"/>
+      <c r="P106" s="17"/>
+      <c r="Q106" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="497">
+  <mergeCells count="502">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5230,10 +5269,15 @@
     <mergeCell ref="H103:K103"/>
     <mergeCell ref="L103:M103"/>
     <mergeCell ref="N103:O103"/>
-    <mergeCell ref="P104:Q104"/>
-    <mergeCell ref="A105:F105"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="K105:Q105"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="P105:Q105"/>
+    <mergeCell ref="A106:F106"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="K106:Q106"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-07_00-00.xlsx
+++ b/DaySale_2025-09-07_00-00.xlsx
@@ -881,7 +881,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Sunday, 7 September, 2025 9:22 PM</t>
+    <t>Sunday, 7 September, 2025 9:31 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-07_00-00.xlsx
+++ b/DaySale_2025-09-07_00-00.xlsx
@@ -179,6 +179,15 @@
     <t>44.0000</t>
   </si>
   <si>
+    <t>CAFTOHIST 0.25% EYE DROPS 3 ML</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
     <t>CARVID 6.25MG 30TAB</t>
   </si>
   <si>
@@ -818,9 +827,6 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>68.0000</t>
-  </si>
-  <si>
     <t>34:0</t>
   </si>
   <si>
@@ -881,7 +887,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Sunday, 7 September, 2025 9:31 PM</t>
+    <t>Sunday, 7 September, 2025 9:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1885,13 +1891,13 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1918,13 +1924,13 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1935,7 +1941,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1951,7 +1957,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1968,7 +1974,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>65</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1977,31 +1983,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2010,20 +2016,20 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -2050,7 +2056,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2083,7 +2089,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2093,14 +2099,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2109,14 +2115,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2126,14 +2132,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
+        <v>82</v>
+      </c>
+      <c t="s" r="Q25" s="12">
         <v>83</v>
-      </c>
-      <c t="s" r="Q25" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2149,7 +2155,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2159,11 +2165,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2175,14 +2181,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2192,11 +2198,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2208,14 +2214,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2225,14 +2231,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>91</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2241,14 +2247,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2258,14 +2264,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2274,14 +2280,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2298,7 +2304,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2314,7 +2320,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2331,7 +2337,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2347,13 +2353,13 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -2364,7 +2370,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>105</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2373,31 +2379,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
+        <v>107</v>
+      </c>
+      <c t="s" r="Q33" s="12">
         <v>108</v>
-      </c>
-      <c t="s" r="Q33" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2413,7 +2419,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2430,7 +2436,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2446,7 +2452,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2463,7 +2469,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2479,7 +2485,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2489,14 +2495,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2505,14 +2511,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2522,14 +2528,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>41</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2545,7 +2551,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2562,7 +2568,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2578,7 +2584,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2588,14 +2594,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2604,14 +2610,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2621,11 +2627,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>22</v>
@@ -2637,14 +2643,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2654,14 +2660,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2677,7 +2683,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2694,7 +2700,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2710,7 +2716,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>136</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2720,7 +2726,7 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>71</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
@@ -2753,14 +2759,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2776,7 +2782,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>30</v>
+        <v>142</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2786,14 +2792,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>33</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2809,13 +2815,13 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2842,13 +2848,13 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2859,7 +2865,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2875,7 +2881,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2908,7 +2914,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2925,7 +2931,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2941,7 +2947,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2955,10 +2961,10 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>21</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2967,14 +2973,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2984,11 +2990,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3000,7 +3006,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3017,14 +3023,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3057,7 +3063,7 @@
         <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3073,13 +3079,13 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -3112,7 +3118,7 @@
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -3120,7 +3126,7 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>61</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3132,7 +3138,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3149,11 +3155,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3172,7 +3178,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3182,14 +3188,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>105</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3198,14 +3204,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>178</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3222,7 +3228,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>108</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3238,7 +3244,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3271,7 +3277,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3281,14 +3287,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>94</v>
+        <v>185</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3297,14 +3303,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3314,14 +3320,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>187</v>
+        <v>97</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>80</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3337,7 +3343,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3354,7 +3360,7 @@
         <v>191</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3370,7 +3376,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3387,7 +3393,7 @@
         <v>194</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3403,7 +3409,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3420,7 +3426,7 @@
         <v>197</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3436,7 +3442,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3453,7 +3459,7 @@
         <v>200</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3469,7 +3475,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3486,7 +3492,7 @@
         <v>203</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>65</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3502,7 +3508,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3512,14 +3518,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>157</v>
+        <v>205</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3528,7 +3534,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3545,14 +3551,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>207</v>
+        <v>160</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>101</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>22</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3561,14 +3567,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3578,14 +3584,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>210</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3601,7 +3607,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3615,7 +3621,7 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>37</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3627,14 +3633,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3644,11 +3650,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>215</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3667,21 +3673,21 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>60</v>
+        <v>217</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3693,24 +3699,24 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>219</v>
+        <v>63</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
@@ -3733,7 +3739,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3743,14 +3749,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>60</v>
+        <v>222</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3759,14 +3765,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3776,14 +3782,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>224</v>
+        <v>63</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>225</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3799,7 +3805,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3813,7 +3819,7 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>143</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3825,7 +3831,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3842,11 +3848,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>230</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3898,7 +3904,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3915,7 +3921,7 @@
         <v>236</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3931,7 +3937,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3941,14 +3947,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>130</v>
+        <v>238</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>131</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3957,14 +3963,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3974,11 +3980,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>239</v>
+        <v>133</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>240</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3997,7 +4003,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4007,14 +4013,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>97</v>
+        <v>242</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>183</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4023,14 +4029,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4040,11 +4046,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>22</v>
@@ -4056,14 +4062,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4073,14 +4079,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>244</v>
+        <v>100</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>245</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4096,7 +4102,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>247</v>
+        <v>90</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4106,14 +4112,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
         <v>248</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4139,11 +4145,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>133</v>
+        <v>230</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>134</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>22</v>
@@ -4155,14 +4161,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4172,14 +4178,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>253</v>
+        <v>136</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>254</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>80</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4188,14 +4194,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4212,7 +4218,7 @@
         <v>257</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4228,7 +4234,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4261,24 +4267,24 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>262</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>14</v>
+        <v>262</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>140</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4287,14 +4293,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4304,14 +4310,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>265</v>
+        <v>14</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
+        <v>143</v>
+      </c>
+      <c t="s" r="Q91" s="12">
         <v>83</v>
-      </c>
-      <c t="s" r="Q91" s="12">
-        <v>65</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4327,7 +4333,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>18</v>
+        <v>267</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4337,14 +4343,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4353,7 +4359,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4370,14 +4376,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>269</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>270</v>
+        <v>68</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4403,14 +4409,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>183</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>87</v>
+        <v>272</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4426,7 +4432,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4436,14 +4442,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>33</v>
+        <v>274</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>90</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4452,14 +4458,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4473,7 +4479,7 @@
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4485,14 +4491,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4502,11 +4508,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>276</v>
+        <v>33</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4525,7 +4531,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>278</v>
+        <v>68</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4535,11 +4541,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>279</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4551,14 +4557,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>18</v>
+        <v>280</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4568,14 +4574,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>14</v>
+        <v>268</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>140</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4584,7 +4590,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4601,14 +4607,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>282</v>
+        <v>14</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>283</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4617,14 +4623,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>285</v>
+        <v>18</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4634,11 +4640,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>71</v>
+        <v>284</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>72</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4657,7 +4663,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>16</v>
+        <v>287</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4667,11 +4673,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4683,14 +4689,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>278</v>
+        <v>16</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4700,11 +4706,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>140</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4716,14 +4722,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4733,49 +4739,82 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>58</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
-      <c r="P105" s="13">
-        <v>6210.9650000000001</v>
-      </c>
-      <c r="Q105" s="13"/>
-    </row>
-    <row r="106" ht="16.5" customHeight="1">
-      <c t="s" r="A106" s="14">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
         <v>290</v>
       </c>
-      <c r="B106" s="14"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14"/>
-      <c t="s" r="G106" s="15">
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
         <v>291</v>
       </c>
-      <c r="H106" s="15"/>
-      <c r="I106" s="15"/>
-      <c r="J106" s="16"/>
-      <c t="s" r="K106" s="17">
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>19</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>60</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="P106" s="13">
+        <v>6278.9650000000001</v>
+      </c>
+      <c r="Q106" s="13"/>
+    </row>
+    <row r="107" ht="16.5" customHeight="1">
+      <c t="s" r="A107" s="14">
         <v>292</v>
       </c>
-      <c r="L106" s="17"/>
-      <c r="M106" s="17"/>
-      <c r="N106" s="17"/>
-      <c r="O106" s="17"/>
-      <c r="P106" s="17"/>
-      <c r="Q106" s="17"/>
+      <c r="B107" s="14"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="14"/>
+      <c t="s" r="G107" s="15">
+        <v>293</v>
+      </c>
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
+      <c r="J107" s="16"/>
+      <c t="s" r="K107" s="17">
+        <v>294</v>
+      </c>
+      <c r="L107" s="17"/>
+      <c r="M107" s="17"/>
+      <c r="N107" s="17"/>
+      <c r="O107" s="17"/>
+      <c r="P107" s="17"/>
+      <c r="Q107" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="502">
+  <mergeCells count="507">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5274,10 +5313,15 @@
     <mergeCell ref="H104:K104"/>
     <mergeCell ref="L104:M104"/>
     <mergeCell ref="N104:O104"/>
-    <mergeCell ref="P105:Q105"/>
-    <mergeCell ref="A106:F106"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="K106:Q106"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="P106:Q106"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="K107:Q107"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-07_00-00.xlsx
+++ b/DaySale_2025-09-07_00-00.xlsx
@@ -167,6 +167,18 @@
     <t>64.0000</t>
   </si>
   <si>
+    <t>BIOLEGAM60/100 TAB</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>192.0000</t>
+  </si>
+  <si>
     <t>BRUFEN 100MG/5ML SYRUP 150ML</t>
   </si>
   <si>
@@ -503,9 +515,6 @@
     <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
   </si>
   <si>
-    <t>192.00</t>
-  </si>
-  <si>
     <t>63.3600</t>
   </si>
   <si>
@@ -860,6 +869,9 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
+    <t>كريم فيبكس الازرق</t>
+  </si>
+  <si>
     <t>مجموعه برد</t>
   </si>
   <si>
@@ -878,6 +890,15 @@
     <t>مشط بلاستك طويل</t>
   </si>
   <si>
+    <t>معجون سنسوداين 50 مل</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
     <t>مناديل FINE</t>
   </si>
   <si>
@@ -887,7 +908,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Sunday, 7 September, 2025 9:34 PM</t>
+    <t>Sunday, 7 September, 2025 9:36 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1864,7 +1885,7 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1891,7 +1912,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1901,11 +1922,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1917,28 +1938,28 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1950,31 +1971,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1983,14 +2004,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2000,14 +2021,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>68</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2023,24 +2044,24 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
+        <v>71</v>
+      </c>
+      <c t="s" r="Q22" s="12">
         <v>72</v>
-      </c>
-      <c t="s" r="Q22" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2056,21 +2077,21 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -2082,14 +2103,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2099,11 +2120,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -2115,14 +2136,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2139,7 +2160,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2148,14 +2169,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2172,7 +2193,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2181,14 +2202,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2198,11 +2219,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2214,14 +2235,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2231,11 +2252,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2247,14 +2268,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2264,14 +2285,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2287,7 +2308,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2297,14 +2318,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
+        <v>97</v>
+      </c>
+      <c t="s" r="Q30" s="12">
         <v>98</v>
-      </c>
-      <c t="s" r="Q30" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2320,7 +2341,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2330,14 +2351,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2346,14 +2367,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2363,14 +2384,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2379,31 +2400,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>108</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2419,13 +2440,13 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -2436,7 +2457,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2445,14 +2466,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2462,14 +2483,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2478,14 +2499,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2495,14 +2516,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2511,14 +2532,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2528,14 +2549,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2544,14 +2565,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2561,14 +2582,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>41</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2577,14 +2598,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2594,14 +2615,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2610,14 +2631,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>127</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2634,7 +2655,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2650,7 +2671,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2660,11 +2681,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>22</v>
@@ -2676,14 +2697,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2693,14 +2714,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2709,14 +2730,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2726,14 +2747,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2742,14 +2763,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>139</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2759,11 +2780,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>22</v>
@@ -2775,14 +2796,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2792,14 +2813,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2808,14 +2829,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>30</v>
+        <v>146</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2825,14 +2846,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>33</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2841,28 +2862,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>22</v>
@@ -2874,31 +2895,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2907,14 +2928,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2924,11 +2945,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2940,14 +2961,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2957,14 +2978,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2973,14 +2994,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2990,14 +3011,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>21</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3006,14 +3027,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3023,11 +3044,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3039,7 +3060,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3056,14 +3077,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3072,7 +3093,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3089,14 +3110,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>54</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3112,13 +3133,13 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -3151,7 +3172,7 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -3159,7 +3180,7 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>64</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3171,7 +3192,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3188,11 +3209,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3211,7 +3232,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>178</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3221,14 +3242,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>108</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3237,14 +3258,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>181</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3261,7 +3282,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>112</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3277,7 +3298,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3310,7 +3331,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3320,14 +3341,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>97</v>
+        <v>188</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3336,14 +3357,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3353,14 +3374,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>190</v>
+        <v>101</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>191</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>83</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3376,7 +3397,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3393,7 +3414,7 @@
         <v>194</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3409,7 +3430,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3426,7 +3447,7 @@
         <v>197</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3442,7 +3463,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3459,7 +3480,7 @@
         <v>200</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3475,7 +3496,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3492,7 +3513,7 @@
         <v>203</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3508,7 +3529,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3525,7 +3546,7 @@
         <v>206</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>68</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3541,7 +3562,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3551,14 +3572,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>160</v>
+        <v>208</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3567,7 +3588,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3584,14 +3605,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>210</v>
+        <v>164</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>104</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>22</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3600,14 +3621,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3617,14 +3638,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>213</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3640,7 +3661,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3654,7 +3675,7 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>37</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3666,14 +3687,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3683,11 +3704,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>218</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3706,21 +3727,21 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>63</v>
+        <v>220</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3732,24 +3753,24 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>222</v>
+        <v>67</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
@@ -3772,7 +3793,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3782,14 +3803,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>63</v>
+        <v>225</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3798,14 +3819,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3815,14 +3836,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>227</v>
+        <v>67</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
         <v>228</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3838,7 +3859,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3852,7 +3873,7 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>146</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3864,7 +3885,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3881,11 +3902,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>233</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3937,7 +3958,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3954,7 +3975,7 @@
         <v>239</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3970,7 +3991,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3980,14 +4001,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>133</v>
+        <v>241</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>134</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3996,14 +4017,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4013,11 +4034,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>242</v>
+        <v>137</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>243</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4036,7 +4057,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4046,14 +4067,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>100</v>
+        <v>245</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>186</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4062,14 +4083,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4079,11 +4100,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>22</v>
@@ -4095,14 +4116,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>90</v>
+        <v>146</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4112,14 +4133,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>247</v>
+        <v>104</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>248</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4135,7 +4156,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>250</v>
+        <v>94</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4145,14 +4166,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
         <v>251</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4178,11 +4199,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>136</v>
+        <v>233</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>137</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>22</v>
@@ -4194,14 +4215,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4211,14 +4232,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>256</v>
+        <v>140</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>257</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>83</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4227,14 +4248,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>83</v>
+        <v>258</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4251,7 +4272,7 @@
         <v>260</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>87</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4267,7 +4288,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4300,24 +4321,24 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>265</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>14</v>
+        <v>265</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>143</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4326,14 +4347,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4343,14 +4364,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>268</v>
+        <v>14</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>68</v>
+        <v>87</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4366,7 +4387,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>18</v>
+        <v>270</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4376,14 +4397,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q93" s="12">
         <v>72</v>
-      </c>
-      <c t="s" r="Q93" s="12">
-        <v>68</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4392,7 +4413,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4409,14 +4430,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>272</v>
+        <v>72</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4425,7 +4446,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4442,14 +4463,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>186</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>90</v>
+        <v>275</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4458,14 +4479,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4475,14 +4496,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>33</v>
+        <v>277</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>143</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4491,14 +4512,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4512,7 +4533,7 @@
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4524,14 +4545,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4541,11 +4562,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>278</v>
+        <v>33</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4557,14 +4578,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>280</v>
+        <v>72</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4574,11 +4595,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>281</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4597,7 +4618,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>18</v>
+        <v>283</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4607,14 +4628,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>14</v>
+        <v>271</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>143</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4623,7 +4644,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4640,14 +4661,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>284</v>
+        <v>14</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>285</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>87</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4663,7 +4684,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>287</v>
+        <v>72</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4673,11 +4694,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>74</v>
+        <v>281</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4689,14 +4710,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4706,11 +4727,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>14</v>
+        <v>288</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>15</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4722,14 +4743,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4739,11 +4760,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4755,14 +4776,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>291</v>
+        <v>16</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4772,49 +4793,148 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
-      <c r="P106" s="13">
-        <v>6278.9650000000001</v>
-      </c>
-      <c r="Q106" s="13"/>
-    </row>
-    <row r="107" ht="16.5" customHeight="1">
-      <c t="s" r="A107" s="14">
-        <v>292</v>
-      </c>
-      <c r="B107" s="14"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14"/>
-      <c t="s" r="G107" s="15">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
         <v>293</v>
       </c>
-      <c r="H107" s="15"/>
-      <c r="I107" s="15"/>
-      <c r="J107" s="16"/>
-      <c t="s" r="K107" s="17">
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
         <v>294</v>
       </c>
-      <c r="L107" s="17"/>
-      <c r="M107" s="17"/>
-      <c r="N107" s="17"/>
-      <c r="O107" s="17"/>
-      <c r="P107" s="17"/>
-      <c r="Q107" s="17"/>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>19</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>295</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>194</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
+        <v>296</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>283</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>19</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>33</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>147</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>297</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>298</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>19</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>64</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>65</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="P109" s="13">
+        <v>6585.9650000000001</v>
+      </c>
+      <c r="Q109" s="13"/>
+    </row>
+    <row r="110" ht="16.5" customHeight="1">
+      <c t="s" r="A110" s="14">
+        <v>299</v>
+      </c>
+      <c r="B110" s="14"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+      <c t="s" r="G110" s="15">
+        <v>300</v>
+      </c>
+      <c r="H110" s="15"/>
+      <c r="I110" s="15"/>
+      <c r="J110" s="16"/>
+      <c t="s" r="K110" s="17">
+        <v>301</v>
+      </c>
+      <c r="L110" s="17"/>
+      <c r="M110" s="17"/>
+      <c r="N110" s="17"/>
+      <c r="O110" s="17"/>
+      <c r="P110" s="17"/>
+      <c r="Q110" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="507">
+  <mergeCells count="522">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5318,10 +5438,25 @@
     <mergeCell ref="H105:K105"/>
     <mergeCell ref="L105:M105"/>
     <mergeCell ref="N105:O105"/>
-    <mergeCell ref="P106:Q106"/>
-    <mergeCell ref="A107:F107"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="K107:Q107"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="P109:Q109"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="K110:Q110"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-07_00-00.xlsx
+++ b/DaySale_2025-09-07_00-00.xlsx
@@ -908,7 +908,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Sunday, 7 September, 2025 9:36 PM</t>
+    <t>Sunday, 7 September, 2025 9:41 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-07_00-00.xlsx
+++ b/DaySale_2025-09-07_00-00.xlsx
@@ -908,7 +908,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Sunday, 7 September, 2025 9:41 PM</t>
+    <t>Sunday, 7 September, 2025 9:42 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-07_00-00.xlsx
+++ b/DaySale_2025-09-07_00-00.xlsx
@@ -563,6 +563,24 @@
     <t>-10.5000</t>
   </si>
   <si>
+    <t>INDOMETHACIN 100MG 5 SUPP. (MISR)</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISOPTIN SR 240 MG  TAB</t>
+  </si>
+  <si>
+    <t>170.00</t>
+  </si>
+  <si>
+    <t>170.0000</t>
+  </si>
+  <si>
     <t>IVY ZAD SYRUP 120 ML</t>
   </si>
   <si>
@@ -632,6 +650,9 @@
     <t>63.8550</t>
   </si>
   <si>
+    <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
+  </si>
+  <si>
     <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
   </si>
   <si>
@@ -746,12 +767,6 @@
     <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
   </si>
   <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
@@ -908,7 +923,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Sunday, 7 September, 2025 9:42 PM</t>
+    <t>Sunday, 7 September, 2025 9:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3298,7 +3313,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>146</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3331,13 +3346,13 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
@@ -3364,7 +3379,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3374,14 +3389,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>101</v>
+        <v>191</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3390,14 +3405,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3407,14 +3422,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>87</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3423,7 +3438,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3440,14 +3455,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>196</v>
+        <v>101</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>197</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3463,7 +3478,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3480,7 +3495,7 @@
         <v>200</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>22</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3496,7 +3511,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3579,7 +3594,7 @@
         <v>209</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3595,7 +3610,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3605,14 +3620,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>164</v>
+        <v>211</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>87</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3621,14 +3636,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3638,14 +3653,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>213</v>
+        <v>89</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3661,7 +3676,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3678,7 +3693,7 @@
         <v>216</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3694,7 +3709,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3704,14 +3719,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>218</v>
+        <v>164</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>37</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3727,7 +3742,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3741,10 +3756,10 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>221</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3753,7 +3768,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3766,11 +3781,11 @@
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>67</v>
+        <v>222</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
@@ -3807,7 +3822,7 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>226</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3819,14 +3834,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3836,14 +3851,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>67</v>
+        <v>227</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
         <v>228</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3859,21 +3874,21 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>230</v>
+        <v>67</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3885,14 +3900,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3902,11 +3917,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>150</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3935,14 +3950,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>235</v>
+        <v>67</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3951,14 +3966,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3968,11 +3983,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3984,14 +3999,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4001,14 +4016,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>242</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4017,14 +4032,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4034,11 +4049,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>137</v>
+        <v>242</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>138</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4057,7 +4072,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4100,11 +4115,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>104</v>
+        <v>248</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>189</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>22</v>
@@ -4116,14 +4131,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>146</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4133,14 +4148,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>189</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4149,14 +4164,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4166,11 +4181,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>250</v>
+        <v>185</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>251</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4189,7 +4204,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>253</v>
+        <v>87</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4199,11 +4214,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>233</v>
+        <v>104</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>254</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>22</v>
@@ -4215,14 +4230,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>256</v>
+        <v>146</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4232,11 +4247,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>141</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>22</v>
@@ -4248,14 +4263,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>258</v>
+        <v>94</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4265,14 +4280,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>87</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4281,14 +4296,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>87</v>
+        <v>258</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4298,14 +4313,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4314,14 +4329,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>261</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4331,14 +4346,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>265</v>
+        <v>140</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>266</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4347,28 +4362,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>14</v>
+        <v>264</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>147</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>87</v>
@@ -4380,31 +4395,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>270</v>
+        <v>87</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>90</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4413,31 +4428,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>76</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4446,14 +4461,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>18</v>
+        <v>273</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4463,14 +4478,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>259</v>
+        <v>14</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>62</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>275</v>
+        <v>87</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4479,14 +4494,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>18</v>
+        <v>275</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4496,14 +4511,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>189</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4512,14 +4527,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4529,14 +4544,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>33</v>
+        <v>278</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>147</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4552,7 +4567,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4562,14 +4577,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>33</v>
+        <v>264</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>147</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>280</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4578,14 +4593,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4595,14 +4610,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>118</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4611,14 +4626,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>283</v>
+        <v>94</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4628,11 +4643,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>271</v>
+        <v>33</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>284</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4644,14 +4659,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4661,14 +4676,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
         <v>147</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>87</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4677,7 +4692,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4694,7 +4709,7 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
@@ -4717,7 +4732,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>18</v>
+        <v>288</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4727,7 +4742,7 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
@@ -4750,7 +4765,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>291</v>
+        <v>18</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4760,14 +4775,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>87</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4776,14 +4791,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4793,11 +4808,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>14</v>
+        <v>286</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>15</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4809,14 +4824,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>294</v>
+        <v>18</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4826,11 +4841,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>194</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4842,14 +4857,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4859,11 +4874,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>147</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4882,7 +4897,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>298</v>
+        <v>16</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4892,49 +4907,148 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>298</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>299</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>19</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>300</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>200</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>301</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>288</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>19</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>33</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>147</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
+        <v>302</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>303</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>19</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>64</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
         <v>65</v>
       </c>
-      <c t="s" r="Q108" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="109" ht="25.5" customHeight="1">
-      <c r="P109" s="13">
-        <v>6585.9650000000001</v>
-      </c>
-      <c r="Q109" s="13"/>
-    </row>
-    <row r="110" ht="16.5" customHeight="1">
-      <c t="s" r="A110" s="14">
-        <v>299</v>
-      </c>
-      <c r="B110" s="14"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
-      <c t="s" r="G110" s="15">
-        <v>300</v>
-      </c>
-      <c r="H110" s="15"/>
-      <c r="I110" s="15"/>
-      <c r="J110" s="16"/>
-      <c t="s" r="K110" s="17">
-        <v>301</v>
-      </c>
-      <c r="L110" s="17"/>
-      <c r="M110" s="17"/>
-      <c r="N110" s="17"/>
-      <c r="O110" s="17"/>
-      <c r="P110" s="17"/>
-      <c r="Q110" s="17"/>
+      <c t="s" r="Q111" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="P112" s="13">
+        <v>6853.9650000000001</v>
+      </c>
+      <c r="Q112" s="13"/>
+    </row>
+    <row r="113" ht="16.5" customHeight="1">
+      <c t="s" r="A113" s="14">
+        <v>304</v>
+      </c>
+      <c r="B113" s="14"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
+      <c r="F113" s="14"/>
+      <c t="s" r="G113" s="15">
+        <v>305</v>
+      </c>
+      <c r="H113" s="15"/>
+      <c r="I113" s="15"/>
+      <c r="J113" s="16"/>
+      <c t="s" r="K113" s="17">
+        <v>306</v>
+      </c>
+      <c r="L113" s="17"/>
+      <c r="M113" s="17"/>
+      <c r="N113" s="17"/>
+      <c r="O113" s="17"/>
+      <c r="P113" s="17"/>
+      <c r="Q113" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="522">
+  <mergeCells count="537">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5453,10 +5567,25 @@
     <mergeCell ref="H108:K108"/>
     <mergeCell ref="L108:M108"/>
     <mergeCell ref="N108:O108"/>
-    <mergeCell ref="P109:Q109"/>
-    <mergeCell ref="A110:F110"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="K110:Q110"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="P112:Q112"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="K113:Q113"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-07_00-00.xlsx
+++ b/DaySale_2025-09-07_00-00.xlsx
@@ -923,7 +923,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Sunday, 7 September, 2025 9:43 PM</t>
+    <t>Sunday, 7 September, 2025 9:44 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-07_00-00.xlsx
+++ b/DaySale_2025-09-07_00-00.xlsx
@@ -923,7 +923,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Sunday, 7 September, 2025 9:44 PM</t>
+    <t>Sunday, 7 September, 2025 9:54 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-07_00-00.xlsx
+++ b/DaySale_2025-09-07_00-00.xlsx
@@ -662,6 +662,15 @@
     <t>117.0000</t>
   </si>
   <si>
+    <t>NEUROGLOPENTIN 300 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>36.6300</t>
+  </si>
+  <si>
     <t>NEUROTON 6 AMP</t>
   </si>
   <si>
@@ -683,6 +692,21 @@
     <t>34.5000</t>
   </si>
   <si>
+    <t>PANADOL ACUTE HEAD COLD</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
     <t>PK-MERZ 100MG 30 F.C. TAB</t>
   </si>
   <si>
@@ -713,6 +737,9 @@
     <t>159.0000</t>
   </si>
   <si>
+    <t>RELAXON 30 CAP</t>
+  </si>
+  <si>
     <t>ROSASEEF 30 CAPS</t>
   </si>
   <si>
@@ -734,6 +761,12 @@
     <t>90.00</t>
   </si>
   <si>
+    <t xml:space="preserve">STOPADOL WOMAN </t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
     <t>SYMBICORT 160/4.5MCG/DOSE TURBUHALER 120 DOSES</t>
   </si>
   <si>
@@ -794,9 +827,6 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>4:1</t>
-  </si>
-  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -827,6 +857,15 @@
     <t>63.0000</t>
   </si>
   <si>
+    <t>ZITHOTRAC 500 MG 3 TAB</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
@@ -884,6 +923,9 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
+    <t>كريم 555</t>
+  </si>
+  <si>
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
@@ -923,7 +965,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Sunday, 7 September, 2025 9:54 PM</t>
+    <t>Sunday, 7 September, 2025 9:55 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3709,7 +3751,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3719,14 +3761,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>164</v>
+        <v>218</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>87</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3735,7 +3777,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3752,14 +3794,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>220</v>
+        <v>164</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>108</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>22</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3768,14 +3810,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3785,14 +3827,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3808,7 +3850,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3822,7 +3864,7 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>37</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3834,31 +3876,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>94</v>
+        <v>228</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3867,14 +3909,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3884,11 +3926,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>230</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3900,7 +3942,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3917,11 +3959,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>233</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3940,7 +3982,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3950,14 +3992,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>67</v>
+        <v>235</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3966,24 +4008,24 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>237</v>
+        <v>67</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
@@ -4006,7 +4048,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4020,7 +4062,7 @@
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>150</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4032,14 +4074,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4049,14 +4091,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>242</v>
+        <v>125</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>243</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4065,7 +4107,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4082,14 +4124,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>245</v>
+        <v>67</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4098,7 +4140,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4115,14 +4157,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4131,14 +4173,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4148,11 +4190,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>137</v>
+        <v>249</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4164,20 +4206,20 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
@@ -4185,10 +4227,10 @@
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>186</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4204,7 +4246,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4214,14 +4256,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>104</v>
+        <v>253</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>195</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4230,14 +4272,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>146</v>
+        <v>18</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4247,14 +4289,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>104</v>
+        <v>256</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>195</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4263,14 +4305,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4280,14 +4322,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4296,14 +4338,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>258</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4313,14 +4355,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>240</v>
+        <v>137</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>259</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4329,14 +4371,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>261</v>
+        <v>72</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4346,14 +4388,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>140</v>
+        <v>185</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>141</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4362,14 +4404,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>263</v>
+        <v>87</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4379,14 +4421,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>264</v>
+        <v>104</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>265</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>87</v>
+        <v>22</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4395,14 +4437,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>87</v>
+        <v>146</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4412,14 +4454,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>267</v>
+        <v>104</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>268</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4428,14 +4470,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4445,11 +4487,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4461,31 +4503,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>14</v>
+        <v>249</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>147</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>87</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4494,31 +4536,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>275</v>
+        <v>228</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>276</v>
+        <v>140</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>90</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>72</v>
+        <v>22</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4527,31 +4569,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>18</v>
+        <v>273</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>76</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>72</v>
+        <v>87</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4560,31 +4602,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>62</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>280</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4593,31 +4635,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>195</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4626,14 +4668,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4643,11 +4685,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>33</v>
+        <v>283</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>147</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4659,14 +4701,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>87</v>
+        <v>286</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4676,14 +4718,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
         <v>147</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>87</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4692,14 +4734,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>72</v>
+        <v>288</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4709,14 +4751,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4725,14 +4767,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>288</v>
+        <v>18</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4742,14 +4784,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>289</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4758,7 +4800,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4775,14 +4817,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>14</v>
+        <v>274</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>147</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>87</v>
+        <v>293</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4791,14 +4833,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4808,14 +4850,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>118</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4824,14 +4866,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4841,11 +4883,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>293</v>
+        <v>33</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>294</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4857,14 +4899,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>296</v>
+        <v>87</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4874,11 +4916,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4890,14 +4932,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4907,11 +4949,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>14</v>
+        <v>299</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>15</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4923,14 +4965,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4940,11 +4982,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>200</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -4956,14 +4998,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>288</v>
+        <v>18</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4973,14 +5015,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
         <v>147</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>87</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -4989,14 +5031,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>303</v>
+        <v>18</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5006,49 +5048,280 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>64</v>
+        <v>289</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
+        <v>302</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
+        <v>305</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>72</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>19</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>299</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
+        <v>306</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>18</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>19</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>307</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>308</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
+        <v>309</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>310</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>19</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>78</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
+        <v>311</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>16</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>19</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>14</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
+        <v>312</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>313</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>19</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>314</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
+        <v>200</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
+        <v>315</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>301</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>19</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>33</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>147</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
+        <v>316</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>317</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>19</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>64</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
         <v>65</v>
       </c>
-      <c t="s" r="Q111" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="112" ht="25.5" customHeight="1">
-      <c r="P112" s="13">
-        <v>6853.9650000000001</v>
-      </c>
-      <c r="Q112" s="13"/>
-    </row>
-    <row r="113" ht="16.5" customHeight="1">
-      <c t="s" r="A113" s="14">
-        <v>304</v>
-      </c>
-      <c r="B113" s="14"/>
-      <c r="C113" s="14"/>
-      <c r="D113" s="14"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="14"/>
-      <c t="s" r="G113" s="15">
-        <v>305</v>
-      </c>
-      <c r="H113" s="15"/>
-      <c r="I113" s="15"/>
-      <c r="J113" s="16"/>
-      <c t="s" r="K113" s="17">
-        <v>306</v>
-      </c>
-      <c r="L113" s="17"/>
-      <c r="M113" s="17"/>
-      <c r="N113" s="17"/>
-      <c r="O113" s="17"/>
-      <c r="P113" s="17"/>
-      <c r="Q113" s="17"/>
+      <c t="s" r="Q118" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="P119" s="13">
+        <v>7141.3649999999998</v>
+      </c>
+      <c r="Q119" s="13"/>
+    </row>
+    <row r="120" ht="16.5" customHeight="1">
+      <c t="s" r="A120" s="14">
+        <v>318</v>
+      </c>
+      <c r="B120" s="14"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14"/>
+      <c t="s" r="G120" s="15">
+        <v>319</v>
+      </c>
+      <c r="H120" s="15"/>
+      <c r="I120" s="15"/>
+      <c r="J120" s="16"/>
+      <c t="s" r="K120" s="17">
+        <v>320</v>
+      </c>
+      <c r="L120" s="17"/>
+      <c r="M120" s="17"/>
+      <c r="N120" s="17"/>
+      <c r="O120" s="17"/>
+      <c r="P120" s="17"/>
+      <c r="Q120" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="537">
+  <mergeCells count="572">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5582,10 +5855,45 @@
     <mergeCell ref="H111:K111"/>
     <mergeCell ref="L111:M111"/>
     <mergeCell ref="N111:O111"/>
-    <mergeCell ref="P112:Q112"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="K113:Q113"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="P119:Q119"/>
+    <mergeCell ref="A120:F120"/>
+    <mergeCell ref="G120:I120"/>
+    <mergeCell ref="K120:Q120"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-07_00-00.xlsx
+++ b/DaySale_2025-09-07_00-00.xlsx
@@ -621,6 +621,12 @@
   </si>
   <si>
     <t>125.0000</t>
+  </si>
+  <si>
+    <t>MAALOX 20 ORAL SACHET SUSP.</t>
+  </si>
+  <si>
+    <t>1:14</t>
   </si>
   <si>
     <t>MACROFURAN 100 MG 30 CAPS</t>
@@ -3586,7 +3592,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>30</v>
+        <v>205</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3596,14 +3602,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>205</v>
+        <v>67</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>206</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3612,14 +3618,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3629,14 +3635,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3645,14 +3651,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3662,14 +3668,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3678,14 +3684,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3695,14 +3701,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>89</v>
+        <v>213</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>90</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3711,14 +3717,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3728,14 +3734,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>215</v>
+        <v>89</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>216</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3744,14 +3750,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3761,14 +3767,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>22</v>
+        <v>72</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3777,14 +3783,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3794,14 +3800,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>164</v>
+        <v>220</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>221</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>87</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3827,14 +3833,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>223</v>
+        <v>164</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>108</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>22</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3850,7 +3856,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3864,10 +3870,10 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>226</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3876,31 +3882,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>228</v>
+        <v>18</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3909,14 +3915,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>32</v>
+        <v>230</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3926,14 +3932,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>36</v>
+        <v>231</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>92</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3942,28 +3948,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>233</v>
+        <v>36</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3982,7 +3988,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3996,7 +4002,7 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>236</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4008,24 +4014,24 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>67</v>
+        <v>237</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
@@ -4048,21 +4054,21 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>240</v>
+        <v>67</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4074,14 +4080,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4091,14 +4097,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>125</v>
+        <v>242</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>126</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4107,14 +4113,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4124,11 +4130,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>244</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>22</v>
@@ -4147,7 +4153,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4157,14 +4163,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>246</v>
+        <v>67</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4173,14 +4179,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4190,11 +4196,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>150</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4219,18 +4225,18 @@
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>185</v>
+        <v>251</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>251</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4252,18 +4258,18 @@
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>253</v>
+        <v>185</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4272,7 +4278,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4289,11 +4295,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4305,14 +4311,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4322,14 +4328,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4338,14 +4344,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4355,14 +4361,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>137</v>
+        <v>261</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>138</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4371,14 +4377,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4388,11 +4394,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>185</v>
+        <v>137</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>186</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4404,14 +4410,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4421,14 +4427,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>104</v>
+        <v>185</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4437,14 +4443,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>146</v>
+        <v>87</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4470,14 +4476,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4487,14 +4493,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>266</v>
+        <v>104</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>267</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4503,14 +4509,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>269</v>
+        <v>94</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4520,14 +4526,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4536,14 +4542,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>228</v>
+        <v>271</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4553,11 +4559,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>140</v>
+        <v>251</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>141</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>22</v>
@@ -4569,14 +4575,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>273</v>
+        <v>230</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4586,14 +4592,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>274</v>
+        <v>140</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>275</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>87</v>
+        <v>22</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4602,14 +4608,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>87</v>
+        <v>275</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4619,14 +4625,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>87</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4635,14 +4641,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4652,11 +4658,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4668,7 +4674,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4681,15 +4687,15 @@
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4701,14 +4707,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>286</v>
+        <v>16</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4718,14 +4724,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>14</v>
+        <v>285</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>147</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>87</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4751,14 +4757,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>289</v>
+        <v>14</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>72</v>
+        <v>87</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4767,14 +4773,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>18</v>
+        <v>290</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4788,7 +4794,7 @@
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>72</v>
@@ -4817,14 +4823,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>293</v>
+        <v>72</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4850,14 +4856,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>195</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>94</v>
+        <v>295</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4873,7 +4879,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4883,14 +4889,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>33</v>
+        <v>297</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>147</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4899,14 +4905,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4932,14 +4938,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4949,11 +4955,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>299</v>
+        <v>33</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4972,7 +4978,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>301</v>
+        <v>72</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4982,11 +4988,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>302</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -4998,14 +5004,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>18</v>
+        <v>303</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5015,14 +5021,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>14</v>
+        <v>291</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>147</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>87</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5031,7 +5037,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5048,14 +5054,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>289</v>
+        <v>14</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>302</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>87</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5064,14 +5070,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5081,11 +5087,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>118</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5097,14 +5103,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5114,11 +5120,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>308</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5130,14 +5136,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>310</v>
+        <v>18</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5147,11 +5153,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>78</v>
+        <v>309</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>79</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5170,7 +5176,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>16</v>
+        <v>312</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5180,11 +5186,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5196,14 +5202,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>313</v>
+        <v>16</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5213,11 +5219,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>314</v>
+        <v>14</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5229,14 +5235,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5246,11 +5252,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>33</v>
+        <v>316</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>147</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5262,14 +5268,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5279,49 +5285,82 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
+        <v>147</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>318</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>319</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>19</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>64</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
         <v>65</v>
       </c>
-      <c t="s" r="Q118" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="119" ht="25.5" customHeight="1">
-      <c r="P119" s="13">
-        <v>7141.3649999999998</v>
-      </c>
-      <c r="Q119" s="13"/>
-    </row>
-    <row r="120" ht="16.5" customHeight="1">
-      <c t="s" r="A120" s="14">
-        <v>318</v>
-      </c>
-      <c r="B120" s="14"/>
-      <c r="C120" s="14"/>
-      <c r="D120" s="14"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="14"/>
-      <c t="s" r="G120" s="15">
-        <v>319</v>
-      </c>
-      <c r="H120" s="15"/>
-      <c r="I120" s="15"/>
-      <c r="J120" s="16"/>
-      <c t="s" r="K120" s="17">
+      <c t="s" r="Q119" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="P120" s="13">
+        <v>7153.3649999999998</v>
+      </c>
+      <c r="Q120" s="13"/>
+    </row>
+    <row r="121" ht="16.5" customHeight="1">
+      <c t="s" r="A121" s="14">
         <v>320</v>
       </c>
-      <c r="L120" s="17"/>
-      <c r="M120" s="17"/>
-      <c r="N120" s="17"/>
-      <c r="O120" s="17"/>
-      <c r="P120" s="17"/>
-      <c r="Q120" s="17"/>
+      <c r="B121" s="14"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14"/>
+      <c t="s" r="G121" s="15">
+        <v>321</v>
+      </c>
+      <c r="H121" s="15"/>
+      <c r="I121" s="15"/>
+      <c r="J121" s="16"/>
+      <c t="s" r="K121" s="17">
+        <v>322</v>
+      </c>
+      <c r="L121" s="17"/>
+      <c r="M121" s="17"/>
+      <c r="N121" s="17"/>
+      <c r="O121" s="17"/>
+      <c r="P121" s="17"/>
+      <c r="Q121" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="572">
+  <mergeCells count="577">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5890,10 +5929,15 @@
     <mergeCell ref="H118:K118"/>
     <mergeCell ref="L118:M118"/>
     <mergeCell ref="N118:O118"/>
-    <mergeCell ref="P119:Q119"/>
-    <mergeCell ref="A120:F120"/>
-    <mergeCell ref="G120:I120"/>
-    <mergeCell ref="K120:Q120"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="P120:Q120"/>
+    <mergeCell ref="A121:F121"/>
+    <mergeCell ref="G121:I121"/>
+    <mergeCell ref="K121:Q121"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-07_00-00.xlsx
+++ b/DaySale_2025-09-07_00-00.xlsx
@@ -971,7 +971,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Sunday, 7 September, 2025 9:55 PM</t>
+    <t>Sunday, 7 September, 2025 9:59 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-07_00-00.xlsx
+++ b/DaySale_2025-09-07_00-00.xlsx
@@ -167,6 +167,15 @@
     <t>64.0000</t>
   </si>
   <si>
+    <t>BI-KETOGESIC 150 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
     <t>BIOLEGAM60/100 TAB</t>
   </si>
   <si>
@@ -716,9 +725,6 @@
     <t>PK-MERZ 100MG 30 F.C. TAB</t>
   </si>
   <si>
-    <t>81.00</t>
-  </si>
-  <si>
     <t>PLEGICA 1% EYE DROPS 10 ML</t>
   </si>
   <si>
@@ -971,7 +977,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Sunday, 7 September, 2025 9:59 PM</t>
+    <t>Sunday, 7 September, 2025 10:00 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1942,24 +1948,24 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1968,28 +1974,28 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -2001,14 +2007,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2041,13 +2047,13 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -2074,13 +2080,13 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -2091,7 +2097,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2107,7 +2113,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2124,7 +2130,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>72</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2133,31 +2139,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2166,20 +2172,20 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -2206,7 +2212,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2239,7 +2245,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2249,14 +2255,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>87</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2265,14 +2271,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2282,14 +2288,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
+        <v>89</v>
+      </c>
+      <c t="s" r="Q27" s="12">
         <v>90</v>
-      </c>
-      <c t="s" r="Q27" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2305,7 +2311,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2315,11 +2321,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2331,14 +2337,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2348,11 +2354,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2364,14 +2370,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2381,14 +2387,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2397,14 +2403,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2414,14 +2420,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2430,14 +2436,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2454,7 +2460,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2470,7 +2476,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2487,7 +2493,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2503,13 +2509,13 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -2520,7 +2526,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>112</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2529,31 +2535,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
+        <v>114</v>
+      </c>
+      <c t="s" r="Q35" s="12">
         <v>115</v>
-      </c>
-      <c t="s" r="Q35" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2569,7 +2575,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2586,7 +2592,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2602,7 +2608,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2619,7 +2625,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2635,7 +2641,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2645,14 +2651,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2661,14 +2667,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2678,14 +2684,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>41</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2701,7 +2707,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2718,7 +2724,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2734,7 +2740,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2744,14 +2750,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2760,14 +2766,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2777,11 +2783,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>22</v>
@@ -2793,14 +2799,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2810,14 +2816,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2833,7 +2839,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2850,7 +2856,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2866,7 +2872,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>143</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2876,7 +2882,7 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
@@ -2909,14 +2915,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2932,7 +2938,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>30</v>
+        <v>149</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2942,14 +2948,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>149</v>
+        <v>33</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2965,13 +2971,13 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2998,13 +3004,13 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -3015,7 +3021,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3031,7 +3037,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3064,7 +3070,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3081,7 +3087,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3097,7 +3103,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3111,10 +3117,10 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>21</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3123,14 +3129,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3140,11 +3146,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3156,7 +3162,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3173,14 +3179,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>54</v>
+        <v>169</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3189,7 +3195,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3206,14 +3212,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>57</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3229,13 +3235,13 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -3268,7 +3274,7 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -3276,7 +3282,7 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>68</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3288,7 +3294,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3305,11 +3311,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3328,7 +3334,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>181</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3338,14 +3344,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>112</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3354,14 +3360,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>146</v>
+        <v>184</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3378,7 +3384,7 @@
         <v>186</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>115</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3394,13 +3400,13 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>149</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
@@ -3427,13 +3433,13 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
@@ -3460,7 +3466,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3493,7 +3499,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3503,14 +3509,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>101</v>
+        <v>197</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3519,14 +3525,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3536,14 +3542,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>199</v>
+        <v>104</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>200</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>87</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3559,7 +3565,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3576,7 +3582,7 @@
         <v>203</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>90</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3592,7 +3598,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>205</v>
+        <v>22</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3602,14 +3608,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>67</v>
+        <v>205</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>76</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3618,14 +3624,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>30</v>
+        <v>208</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3635,14 +3641,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>207</v>
+        <v>70</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>208</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3658,7 +3664,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3675,7 +3681,7 @@
         <v>211</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3691,7 +3697,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3708,7 +3714,7 @@
         <v>214</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3724,7 +3730,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3734,14 +3740,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>89</v>
+        <v>216</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>90</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3750,14 +3756,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3767,14 +3773,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>217</v>
+        <v>92</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>218</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3790,7 +3796,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3807,7 +3813,7 @@
         <v>221</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>22</v>
+        <v>75</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3823,7 +3829,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3833,14 +3839,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>164</v>
+        <v>223</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>87</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3849,7 +3855,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3866,14 +3872,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>225</v>
+        <v>167</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>108</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>22</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3882,14 +3888,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3899,14 +3905,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>228</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3922,24 +3928,24 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>230</v>
+        <v>18</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3948,14 +3954,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>32</v>
+        <v>233</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3965,14 +3971,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>36</v>
+        <v>234</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>92</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3981,28 +3987,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>235</v>
+        <v>36</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4014,14 +4020,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4031,11 +4037,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>237</v>
+        <v>53</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>238</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4047,24 +4053,24 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>67</v>
+        <v>239</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
@@ -4087,21 +4093,21 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>242</v>
+        <v>70</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4113,14 +4119,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4130,14 +4136,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>125</v>
+        <v>244</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>126</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4146,14 +4152,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4163,11 +4169,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>67</v>
+        <v>128</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>246</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>22</v>
@@ -4186,7 +4192,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4196,14 +4202,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>248</v>
+        <v>70</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4212,14 +4218,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4229,11 +4235,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>150</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4258,18 +4264,18 @@
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>185</v>
+        <v>253</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>253</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4291,18 +4297,18 @@
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>255</v>
+        <v>188</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4311,7 +4317,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4328,11 +4334,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4344,14 +4350,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4361,14 +4367,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4377,14 +4383,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4394,14 +4400,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>137</v>
+        <v>263</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>138</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4410,14 +4416,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4427,11 +4433,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>186</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4443,14 +4449,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4460,14 +4466,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>104</v>
+        <v>188</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4476,14 +4482,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>146</v>
+        <v>90</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4493,11 +4499,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>22</v>
@@ -4509,14 +4515,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4526,14 +4532,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>268</v>
+        <v>107</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>269</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4542,14 +4548,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>271</v>
+        <v>97</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4559,14 +4565,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4575,14 +4581,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>230</v>
+        <v>273</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4592,11 +4598,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>140</v>
+        <v>253</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>141</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>22</v>
@@ -4608,14 +4614,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>275</v>
+        <v>233</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4625,14 +4631,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>276</v>
+        <v>143</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>277</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>87</v>
+        <v>22</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4641,14 +4647,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>87</v>
+        <v>277</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4658,14 +4664,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>90</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4674,14 +4680,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4691,11 +4697,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4707,7 +4713,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4720,15 +4726,15 @@
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4740,14 +4746,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>288</v>
+        <v>16</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4757,14 +4763,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>14</v>
+        <v>287</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>147</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>87</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4790,14 +4796,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>291</v>
+        <v>14</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
+        <v>150</v>
+      </c>
+      <c t="s" r="Q103" s="12">
         <v>90</v>
-      </c>
-      <c t="s" r="Q103" s="12">
-        <v>72</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4806,14 +4812,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>18</v>
+        <v>292</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4827,10 +4833,10 @@
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4856,14 +4862,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>295</v>
+        <v>75</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4889,14 +4895,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>195</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>94</v>
+        <v>297</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4912,7 +4918,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4922,14 +4928,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>33</v>
+        <v>299</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>147</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>97</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4938,14 +4944,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4959,7 +4965,7 @@
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4971,14 +4977,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4988,11 +4994,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>301</v>
+        <v>33</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5011,7 +5017,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>303</v>
+        <v>75</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5021,11 +5027,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>304</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5037,14 +5043,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>18</v>
+        <v>305</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5054,14 +5060,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>14</v>
+        <v>293</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>147</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>87</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5070,7 +5076,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5087,14 +5093,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>291</v>
+        <v>14</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>304</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>90</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5103,14 +5109,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5120,11 +5126,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>118</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5136,14 +5142,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5153,11 +5159,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>310</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5169,14 +5175,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>312</v>
+        <v>18</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5186,11 +5192,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>78</v>
+        <v>311</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>79</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5209,7 +5215,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>16</v>
+        <v>314</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5219,11 +5225,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5235,14 +5241,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>315</v>
+        <v>16</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5252,11 +5258,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>316</v>
+        <v>14</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5268,14 +5274,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5285,11 +5291,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>33</v>
+        <v>318</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>147</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5301,14 +5307,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5318,49 +5324,82 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
-      <c r="P120" s="13">
-        <v>7153.3649999999998</v>
-      </c>
-      <c r="Q120" s="13"/>
-    </row>
-    <row r="121" ht="16.5" customHeight="1">
-      <c t="s" r="A121" s="14">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
         <v>320</v>
       </c>
-      <c r="B121" s="14"/>
-      <c r="C121" s="14"/>
-      <c r="D121" s="14"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="14"/>
-      <c t="s" r="G121" s="15">
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
         <v>321</v>
       </c>
-      <c r="H121" s="15"/>
-      <c r="I121" s="15"/>
-      <c r="J121" s="16"/>
-      <c t="s" r="K121" s="17">
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>19</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>67</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
+        <v>68</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="P121" s="13">
+        <v>7180.0950000000003</v>
+      </c>
+      <c r="Q121" s="13"/>
+    </row>
+    <row r="122" ht="16.5" customHeight="1">
+      <c t="s" r="A122" s="14">
         <v>322</v>
       </c>
-      <c r="L121" s="17"/>
-      <c r="M121" s="17"/>
-      <c r="N121" s="17"/>
-      <c r="O121" s="17"/>
-      <c r="P121" s="17"/>
-      <c r="Q121" s="17"/>
+      <c r="B122" s="14"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14"/>
+      <c t="s" r="G122" s="15">
+        <v>323</v>
+      </c>
+      <c r="H122" s="15"/>
+      <c r="I122" s="15"/>
+      <c r="J122" s="16"/>
+      <c t="s" r="K122" s="17">
+        <v>324</v>
+      </c>
+      <c r="L122" s="17"/>
+      <c r="M122" s="17"/>
+      <c r="N122" s="17"/>
+      <c r="O122" s="17"/>
+      <c r="P122" s="17"/>
+      <c r="Q122" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="577">
+  <mergeCells count="582">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5934,10 +5973,15 @@
     <mergeCell ref="H119:K119"/>
     <mergeCell ref="L119:M119"/>
     <mergeCell ref="N119:O119"/>
-    <mergeCell ref="P120:Q120"/>
-    <mergeCell ref="A121:F121"/>
-    <mergeCell ref="G121:I121"/>
-    <mergeCell ref="K121:Q121"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="P121:Q121"/>
+    <mergeCell ref="A122:F122"/>
+    <mergeCell ref="G122:I122"/>
+    <mergeCell ref="K122:Q122"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-07_00-00.xlsx
+++ b/DaySale_2025-09-07_00-00.xlsx
@@ -977,7 +977,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Sunday, 7 September, 2025 10:00 PM</t>
+    <t>Sunday, 7 September, 2025 10:07 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-07_00-00.xlsx
+++ b/DaySale_2025-09-07_00-00.xlsx
@@ -152,6 +152,15 @@
     <t>41.5800</t>
   </si>
   <si>
+    <t>AQUA PLUS SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>AUGRAM 642.9MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
   </si>
   <si>
@@ -212,12 +221,6 @@
     <t>CARVID 6.25MG 30TAB</t>
   </si>
   <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
     <t>CATAFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -239,6 +242,15 @@
     <t>3:0</t>
   </si>
   <si>
+    <t>CERELAC رز بدون لبن</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>CEVA-FRESH TAB</t>
   </si>
   <si>
@@ -500,6 +512,18 @@
     <t>22.0000</t>
   </si>
   <si>
+    <t>GAVISCON LIQUID 24 SACHETS 10 ML</t>
+  </si>
+  <si>
+    <t>0:10</t>
+  </si>
+  <si>
+    <t>288.00</t>
+  </si>
+  <si>
+    <t>23.0400</t>
+  </si>
+  <si>
     <t>GLAPTIVIA 100MG 30 F.C. TAB.</t>
   </si>
   <si>
@@ -617,9 +641,6 @@
     <t>LICID LOTION 30 ML</t>
   </si>
   <si>
-    <t>40.00</t>
-  </si>
-  <si>
     <t>80.0000</t>
   </si>
   <si>
@@ -977,7 +998,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Sunday, 7 September, 2025 10:07 PM</t>
+    <t>Sunday, 7 September, 2025 10:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1892,11 +1913,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1908,7 +1929,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1925,7 +1946,7 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
@@ -1965,7 +1986,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1981,24 +2002,24 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2007,28 +2028,28 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -2040,14 +2061,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2080,13 +2101,13 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -2113,24 +2134,24 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2139,14 +2160,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2156,14 +2177,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>75</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2172,31 +2193,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2205,7 +2226,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -2218,15 +2239,15 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -2238,28 +2259,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2271,14 +2292,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2288,14 +2309,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>90</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2304,14 +2325,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2321,11 +2342,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2337,14 +2358,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2354,14 +2375,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2370,14 +2391,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2387,11 +2408,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2420,14 +2441,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>101</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2436,14 +2457,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2453,11 +2474,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2469,14 +2490,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2486,14 +2507,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>22</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2502,14 +2523,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2519,11 +2540,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2535,31 +2556,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>115</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2568,14 +2589,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2585,11 +2606,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2601,31 +2622,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>22</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2634,14 +2655,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2651,14 +2672,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2667,14 +2688,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2684,14 +2705,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>41</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2700,14 +2721,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2717,14 +2738,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2733,14 +2754,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2750,11 +2771,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2766,14 +2787,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>134</v>
+        <v>22</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2783,11 +2804,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>22</v>
@@ -2799,14 +2820,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2816,14 +2837,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2832,14 +2853,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>138</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2849,14 +2870,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2865,7 +2886,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2882,11 +2903,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>22</v>
@@ -2898,14 +2919,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>146</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2915,14 +2936,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2931,14 +2952,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>149</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2948,14 +2969,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>33</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2964,14 +2985,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2981,11 +3002,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>152</v>
+        <v>85</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>22</v>
@@ -2997,31 +3018,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>44</v>
+        <v>153</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>155</v>
+        <v>33</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3030,14 +3051,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3047,14 +3068,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3063,31 +3084,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3096,14 +3117,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3113,14 +3134,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3129,14 +3150,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3146,11 +3167,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>21</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3162,14 +3183,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>44</v>
+        <v>168</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3183,10 +3204,10 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>124</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3195,14 +3216,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3212,11 +3233,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>57</v>
+        <v>172</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>22</v>
@@ -3228,14 +3249,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3245,11 +3266,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3261,28 +3282,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>177</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3301,7 +3322,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3311,14 +3332,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>179</v>
+        <v>60</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>71</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3334,7 +3355,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3367,24 +3388,24 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>184</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>115</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3393,14 +3414,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3410,11 +3431,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>189</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3426,7 +3447,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3439,15 +3460,15 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3459,14 +3480,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>192</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3476,14 +3497,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>119</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3492,14 +3513,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>90</v>
+        <v>153</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3509,11 +3530,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3525,31 +3546,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>104</v>
+        <v>199</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>200</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3565,7 +3586,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3582,7 +3603,7 @@
         <v>203</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>90</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3598,7 +3619,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3631,7 +3652,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>208</v>
+        <v>22</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3641,14 +3662,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3664,7 +3685,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3674,14 +3695,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>210</v>
+        <v>78</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>22</v>
+        <v>94</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3690,14 +3711,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3707,11 +3728,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3723,14 +3744,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>30</v>
+        <v>215</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3740,14 +3761,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>216</v>
+        <v>71</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>217</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3756,14 +3777,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3773,14 +3794,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>92</v>
+        <v>217</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>93</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3796,7 +3817,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3813,7 +3834,7 @@
         <v>221</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>75</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3862,7 +3883,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3872,14 +3893,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>167</v>
+        <v>96</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>226</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>90</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3888,14 +3909,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3905,14 +3926,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>111</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>22</v>
+        <v>76</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3928,7 +3949,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3945,7 +3966,7 @@
         <v>231</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3961,24 +3982,24 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>233</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>234</v>
+        <v>175</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>22</v>
+        <v>94</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3987,31 +4008,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>36</v>
+        <v>235</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4020,14 +4041,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4037,11 +4058,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>53</v>
+        <v>237</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>37</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4053,31 +4074,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>97</v>
+        <v>240</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4086,14 +4107,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4103,11 +4124,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>242</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4119,7 +4140,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4136,11 +4157,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>244</v>
+        <v>56</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>245</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4152,14 +4173,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4169,14 +4190,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>128</v>
+        <v>246</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>129</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4185,7 +4206,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4198,18 +4219,18 @@
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4218,14 +4239,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4235,11 +4256,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4251,14 +4272,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4268,14 +4289,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>253</v>
+        <v>132</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4297,11 +4318,11 @@
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>188</v>
+        <v>71</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
@@ -4324,7 +4345,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4371,7 +4392,7 @@
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>261</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4383,28 +4404,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>263</v>
+        <v>196</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>22</v>
@@ -4416,14 +4437,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4433,11 +4454,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>140</v>
+        <v>264</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>141</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4456,7 +4477,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4466,11 +4487,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>188</v>
+        <v>267</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>189</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4482,14 +4503,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4499,11 +4520,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>107</v>
+        <v>270</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>198</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>22</v>
@@ -4515,14 +4536,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>149</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4532,14 +4553,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>198</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4548,14 +4569,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4565,11 +4586,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>270</v>
+        <v>196</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>271</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4581,14 +4602,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>273</v>
+        <v>94</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4598,11 +4619,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>253</v>
+        <v>111</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>274</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>22</v>
@@ -4621,7 +4642,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>233</v>
+        <v>153</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4631,11 +4652,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>144</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>22</v>
@@ -4654,7 +4675,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>277</v>
+        <v>101</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4664,14 +4685,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>90</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4680,14 +4701,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>90</v>
+        <v>280</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4697,14 +4718,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4713,14 +4734,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>16</v>
+        <v>240</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4730,14 +4751,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>284</v>
+        <v>147</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>285</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4746,31 +4767,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>16</v>
+        <v>284</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4779,31 +4800,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>290</v>
+        <v>94</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>14</v>
+        <v>288</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>150</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>90</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4812,31 +4833,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>292</v>
+        <v>16</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>93</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>75</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4845,14 +4866,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4862,14 +4883,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>79</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>75</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4885,7 +4906,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>18</v>
+        <v>297</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4895,14 +4916,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>278</v>
+        <v>14</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>65</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>297</v>
+        <v>94</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4918,7 +4939,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>18</v>
+        <v>299</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4928,14 +4949,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>198</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>97</v>
+        <v>76</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4944,14 +4965,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4961,14 +4982,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>33</v>
+        <v>302</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>150</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4977,14 +4998,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4994,14 +5015,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>33</v>
+        <v>285</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>150</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>304</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5010,14 +5031,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5027,14 +5048,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>121</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>101</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5043,14 +5064,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>305</v>
+        <v>101</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5060,11 +5081,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>293</v>
+        <v>33</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>306</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5076,14 +5097,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5093,14 +5114,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>90</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5109,14 +5130,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5126,11 +5147,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>306</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5142,14 +5163,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>75</v>
+        <v>312</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5159,11 +5180,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>121</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5175,7 +5196,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5192,14 +5213,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>311</v>
+        <v>14</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>312</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5208,14 +5229,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>314</v>
+        <v>18</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5225,11 +5246,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>81</v>
+        <v>300</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>82</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5241,14 +5262,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5258,11 +5279,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>14</v>
+        <v>310</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5274,14 +5295,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>317</v>
+        <v>18</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5295,7 +5316,7 @@
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5307,14 +5328,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5324,11 +5345,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>150</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5340,14 +5361,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>321</v>
+        <v>16</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5357,49 +5378,148 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
-      <c r="P121" s="13">
-        <v>7180.0950000000003</v>
-      </c>
-      <c r="Q121" s="13"/>
-    </row>
-    <row r="122" ht="16.5" customHeight="1">
-      <c t="s" r="A122" s="14">
-        <v>322</v>
-      </c>
-      <c r="B122" s="14"/>
-      <c r="C122" s="14"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="14"/>
-      <c t="s" r="G122" s="15">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
         <v>323</v>
       </c>
-      <c r="H122" s="15"/>
-      <c r="I122" s="15"/>
-      <c r="J122" s="16"/>
-      <c t="s" r="K122" s="17">
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
         <v>324</v>
       </c>
-      <c r="L122" s="17"/>
-      <c r="M122" s="17"/>
-      <c r="N122" s="17"/>
-      <c r="O122" s="17"/>
-      <c r="P122" s="17"/>
-      <c r="Q122" s="17"/>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>19</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>325</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
+        <v>210</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
+        <v>326</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>312</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>19</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>33</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
+        <v>154</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
+        <v>327</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>328</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>19</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>48</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
+        <v>49</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="P124" s="13">
+        <v>7288.1350000000002</v>
+      </c>
+      <c r="Q124" s="13"/>
+    </row>
+    <row r="125" ht="16.5" customHeight="1">
+      <c t="s" r="A125" s="14">
+        <v>329</v>
+      </c>
+      <c r="B125" s="14"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="14"/>
+      <c t="s" r="G125" s="15">
+        <v>330</v>
+      </c>
+      <c r="H125" s="15"/>
+      <c r="I125" s="15"/>
+      <c r="J125" s="16"/>
+      <c t="s" r="K125" s="17">
+        <v>331</v>
+      </c>
+      <c r="L125" s="17"/>
+      <c r="M125" s="17"/>
+      <c r="N125" s="17"/>
+      <c r="O125" s="17"/>
+      <c r="P125" s="17"/>
+      <c r="Q125" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="582">
+  <mergeCells count="597">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5978,10 +6098,25 @@
     <mergeCell ref="H120:K120"/>
     <mergeCell ref="L120:M120"/>
     <mergeCell ref="N120:O120"/>
-    <mergeCell ref="P121:Q121"/>
-    <mergeCell ref="A122:F122"/>
-    <mergeCell ref="G122:I122"/>
-    <mergeCell ref="K122:Q122"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="P124:Q124"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="G125:I125"/>
+    <mergeCell ref="K125:Q125"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-07_00-00.xlsx
+++ b/DaySale_2025-09-07_00-00.xlsx
@@ -251,6 +251,9 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>CETAFEN PLUS 30 TAB.</t>
+  </si>
+  <si>
     <t>CEVA-FRESH TAB</t>
   </si>
   <si>
@@ -998,7 +1001,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Sunday, 7 September, 2025 10:14 PM</t>
+    <t>Sunday, 7 September, 2025 10:25 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2266,24 +2269,24 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2292,28 +2295,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2325,14 +2328,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2342,11 +2345,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2358,14 +2361,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2375,14 +2378,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2391,14 +2394,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2408,14 +2411,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2424,14 +2427,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2441,11 +2444,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2457,14 +2460,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2474,11 +2477,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2490,14 +2493,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2507,14 +2510,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>105</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2523,14 +2526,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2540,14 +2543,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2556,14 +2559,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2573,14 +2576,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2589,14 +2592,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2606,14 +2609,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2622,31 +2625,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>119</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2655,31 +2658,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2688,14 +2691,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2705,14 +2708,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2721,14 +2724,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2738,14 +2741,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2754,14 +2757,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2771,14 +2774,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>41</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2787,14 +2790,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2804,14 +2807,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>41</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2820,14 +2823,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2837,14 +2840,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2853,14 +2856,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>138</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2870,14 +2873,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2886,14 +2889,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>139</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2903,11 +2906,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>22</v>
@@ -2919,14 +2922,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2936,14 +2939,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2952,14 +2955,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2969,14 +2972,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2985,14 +2988,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3002,11 +3005,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>85</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>22</v>
@@ -3018,14 +3021,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3035,14 +3038,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3051,14 +3054,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3068,14 +3071,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>33</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3084,28 +3087,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>22</v>
@@ -3117,31 +3120,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3150,14 +3153,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3167,11 +3170,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3183,14 +3186,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>168</v>
+        <v>63</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3200,14 +3203,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3216,14 +3219,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>169</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3233,14 +3236,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3249,14 +3252,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3266,14 +3269,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3282,14 +3285,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3299,11 +3302,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>128</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3315,7 +3318,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3332,14 +3335,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>60</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3348,7 +3351,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3365,14 +3368,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>60</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3381,28 +3384,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3414,7 +3417,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3427,15 +3430,15 @@
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>72</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3447,7 +3450,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3464,11 +3467,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3480,14 +3483,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>192</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3497,14 +3500,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>119</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3513,14 +3516,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>153</v>
+        <v>193</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3530,14 +3533,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>120</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3546,28 +3549,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>154</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3579,28 +3582,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3612,14 +3615,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3629,11 +3632,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3645,14 +3648,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3662,14 +3665,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>108</v>
+        <v>206</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3678,14 +3681,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3695,14 +3698,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>94</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3711,14 +3714,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3728,14 +3731,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>212</v>
+        <v>78</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3744,14 +3747,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>215</v>
+        <v>22</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3761,14 +3764,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>71</v>
+        <v>213</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>83</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3777,14 +3780,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>30</v>
+        <v>216</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3794,14 +3797,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>217</v>
+        <v>71</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>218</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3810,14 +3813,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3827,14 +3830,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3843,14 +3846,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3860,14 +3863,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3876,14 +3879,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3893,14 +3896,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>96</v>
+        <v>224</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>97</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3916,7 +3919,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3926,14 +3929,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>227</v>
+        <v>97</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>228</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3942,14 +3945,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3959,14 +3962,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>22</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3975,14 +3978,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3992,14 +3995,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>175</v>
+        <v>231</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>94</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4008,7 +4011,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4025,14 +4028,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>235</v>
+        <v>176</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>115</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>22</v>
+        <v>95</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4041,14 +4044,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4058,14 +4061,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>238</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4074,31 +4077,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>240</v>
+        <v>18</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4107,14 +4110,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>32</v>
+        <v>241</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4124,14 +4127,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>36</v>
+        <v>242</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>99</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4147,21 +4150,21 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4180,7 +4183,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4190,11 +4193,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>246</v>
+        <v>56</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>247</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4206,28 +4209,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>71</v>
+        <v>247</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4239,28 +4242,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>251</v>
+        <v>71</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4272,14 +4275,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4289,14 +4292,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>132</v>
+        <v>252</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>133</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4312,7 +4315,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4322,11 +4325,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>71</v>
+        <v>133</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>255</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>22</v>
@@ -4338,14 +4341,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4355,14 +4358,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>257</v>
+        <v>71</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4371,14 +4374,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4388,11 +4391,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>157</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4404,7 +4407,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4417,18 +4420,18 @@
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>196</v>
+        <v>261</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>262</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4437,7 +4440,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4450,18 +4453,18 @@
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>264</v>
+        <v>197</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4470,7 +4473,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4487,11 +4490,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4503,14 +4506,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4520,14 +4523,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4536,14 +4539,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4553,14 +4556,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>144</v>
+        <v>271</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>145</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4576,7 +4579,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4586,11 +4589,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>196</v>
+        <v>145</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>197</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4609,7 +4612,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4619,14 +4622,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>111</v>
+        <v>197</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4642,7 +4645,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>153</v>
+        <v>95</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4652,11 +4655,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>22</v>
@@ -4675,7 +4678,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>101</v>
+        <v>154</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4685,14 +4688,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>277</v>
+        <v>112</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>278</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4701,14 +4704,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>280</v>
+        <v>102</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4718,14 +4721,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4734,14 +4737,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>240</v>
+        <v>281</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4751,11 +4754,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>147</v>
+        <v>261</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>148</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>22</v>
@@ -4774,7 +4777,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>284</v>
+        <v>241</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4784,14 +4787,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>285</v>
+        <v>148</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>286</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>94</v>
+        <v>22</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4800,14 +4803,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>94</v>
+        <v>285</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4817,14 +4820,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>95</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4833,14 +4836,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4850,11 +4853,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4866,7 +4869,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4879,15 +4882,15 @@
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4899,14 +4902,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>297</v>
+        <v>16</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4916,14 +4919,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>14</v>
+        <v>295</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>154</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4932,14 +4935,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4949,14 +4952,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>300</v>
+        <v>14</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>97</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>76</v>
+        <v>95</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4965,14 +4968,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>18</v>
+        <v>300</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4982,11 +4985,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>76</v>
@@ -4998,7 +5001,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5015,14 +5018,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>304</v>
+        <v>76</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5031,7 +5034,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5048,14 +5051,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>206</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>101</v>
+        <v>305</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5064,14 +5067,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5081,14 +5084,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>33</v>
+        <v>307</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>154</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>102</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5104,7 +5107,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5118,7 +5121,7 @@
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5137,7 +5140,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5147,11 +5150,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>310</v>
+        <v>33</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5163,14 +5166,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>312</v>
+        <v>76</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5180,11 +5183,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>313</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5196,14 +5199,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>18</v>
+        <v>313</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5213,14 +5216,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>14</v>
+        <v>301</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>154</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5246,14 +5249,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>300</v>
+        <v>14</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>313</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>16</v>
+        <v>95</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5269,7 +5272,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5279,11 +5282,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>125</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5302,7 +5305,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5312,11 +5315,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>319</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5328,14 +5331,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>321</v>
+        <v>18</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5345,11 +5348,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>85</v>
+        <v>319</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>86</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5361,14 +5364,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>16</v>
+        <v>322</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5378,11 +5381,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5401,7 +5404,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>324</v>
+        <v>16</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5411,11 +5414,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>325</v>
+        <v>14</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>210</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5427,14 +5430,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5444,11 +5447,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>33</v>
+        <v>326</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>154</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5467,7 +5470,7 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5477,49 +5480,82 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
+        <v>155</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
+        <v>328</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>329</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>19</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
+        <v>48</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
         <v>49</v>
       </c>
-      <c t="s" r="Q123" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="124" ht="25.5" customHeight="1">
-      <c r="P124" s="13">
-        <v>7288.1350000000002</v>
-      </c>
-      <c r="Q124" s="13"/>
-    </row>
-    <row r="125" ht="16.5" customHeight="1">
-      <c t="s" r="A125" s="14">
-        <v>329</v>
-      </c>
-      <c r="B125" s="14"/>
-      <c r="C125" s="14"/>
-      <c r="D125" s="14"/>
-      <c r="E125" s="14"/>
-      <c r="F125" s="14"/>
-      <c t="s" r="G125" s="15">
+      <c t="s" r="Q124" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="P125" s="13">
+        <v>7314.8649999999998</v>
+      </c>
+      <c r="Q125" s="13"/>
+    </row>
+    <row r="126" ht="16.5" customHeight="1">
+      <c t="s" r="A126" s="14">
         <v>330</v>
       </c>
-      <c r="H125" s="15"/>
-      <c r="I125" s="15"/>
-      <c r="J125" s="16"/>
-      <c t="s" r="K125" s="17">
+      <c r="B126" s="14"/>
+      <c r="C126" s="14"/>
+      <c r="D126" s="14"/>
+      <c r="E126" s="14"/>
+      <c r="F126" s="14"/>
+      <c t="s" r="G126" s="15">
         <v>331</v>
       </c>
-      <c r="L125" s="17"/>
-      <c r="M125" s="17"/>
-      <c r="N125" s="17"/>
-      <c r="O125" s="17"/>
-      <c r="P125" s="17"/>
-      <c r="Q125" s="17"/>
+      <c r="H126" s="15"/>
+      <c r="I126" s="15"/>
+      <c r="J126" s="16"/>
+      <c t="s" r="K126" s="17">
+        <v>332</v>
+      </c>
+      <c r="L126" s="17"/>
+      <c r="M126" s="17"/>
+      <c r="N126" s="17"/>
+      <c r="O126" s="17"/>
+      <c r="P126" s="17"/>
+      <c r="Q126" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="597">
+  <mergeCells count="602">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6113,10 +6149,15 @@
     <mergeCell ref="H123:K123"/>
     <mergeCell ref="L123:M123"/>
     <mergeCell ref="N123:O123"/>
-    <mergeCell ref="P124:Q124"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="G125:I125"/>
-    <mergeCell ref="K125:Q125"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="P125:Q125"/>
+    <mergeCell ref="A126:F126"/>
+    <mergeCell ref="G126:I126"/>
+    <mergeCell ref="K126:Q126"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-07_00-00.xlsx
+++ b/DaySale_2025-09-07_00-00.xlsx
@@ -254,6 +254,18 @@
     <t>CETAFEN PLUS 30 TAB.</t>
   </si>
   <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>21:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>CEVA-FRESH TAB</t>
   </si>
   <si>
@@ -671,6 +683,15 @@
     <t>27.0600</t>
   </si>
   <si>
+    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
     <t>MEBO 0.25% HERBAL AND NATURAL OINT. 15 GM</t>
   </si>
   <si>
@@ -701,6 +722,15 @@
     <t>117.0000</t>
   </si>
   <si>
+    <t>MUCOPHYLLINE SYRUP 125 ML</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>NEUROGLOPENTIN 300 MG 30 CAPS.</t>
   </si>
   <si>
@@ -740,9 +770,6 @@
     <t>62.00</t>
   </si>
   <si>
-    <t>31.0000</t>
-  </si>
-  <si>
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
@@ -764,6 +791,15 @@
     <t>120.0000</t>
   </si>
   <si>
+    <t>POLYFRESH 0.2% EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>63.0000</t>
+  </si>
+  <si>
     <t>RAMIXOLE 1 MG 30 TAB.</t>
   </si>
   <si>
@@ -863,6 +899,9 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
+    <t>33.6600</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -887,21 +926,9 @@
     <t>XITHRONE 500MG 3 F.C.TAB.</t>
   </si>
   <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>63.0000</t>
-  </si>
-  <si>
     <t>ZITHOTRAC 500 MG 3 TAB</t>
   </si>
   <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
@@ -926,7 +953,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>34:0</t>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>35:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1001,7 +1031,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Sunday, 7 September, 2025 10:25 PM</t>
+    <t>Sunday, 7 September, 2025 10:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2308,7 +2338,7 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -2335,21 +2365,21 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2361,14 +2391,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2378,11 +2408,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2394,14 +2424,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2418,7 +2448,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>95</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2427,14 +2457,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2451,7 +2481,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2460,14 +2490,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2477,11 +2507,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2493,14 +2523,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2510,11 +2540,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2526,14 +2556,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2543,14 +2573,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>106</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2566,7 +2596,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2576,14 +2606,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
+        <v>109</v>
+      </c>
+      <c t="s" r="Q35" s="12">
         <v>110</v>
-      </c>
-      <c t="s" r="Q35" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2599,7 +2629,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2609,14 +2639,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2625,14 +2655,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2642,14 +2672,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2658,31 +2688,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>120</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2698,13 +2728,13 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2715,7 +2745,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2724,14 +2754,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2741,14 +2771,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2757,14 +2787,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2774,14 +2804,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2790,14 +2820,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2807,14 +2837,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>41</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2823,14 +2853,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2840,14 +2870,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>41</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2856,14 +2886,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2873,14 +2903,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2889,14 +2919,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2913,7 +2943,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2929,7 +2959,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>143</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2939,11 +2969,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>22</v>
@@ -2955,14 +2985,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2972,14 +3002,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2988,14 +3018,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3005,14 +3035,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3021,14 +3051,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>151</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3038,11 +3068,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>86</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>22</v>
@@ -3054,14 +3084,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3071,14 +3101,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3087,14 +3117,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3104,14 +3134,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>33</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3120,28 +3150,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>22</v>
@@ -3153,31 +3183,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3186,14 +3216,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3203,11 +3233,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3219,14 +3249,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>169</v>
+        <v>63</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3243,7 +3273,7 @@
         <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3259,7 +3289,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>173</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3269,14 +3299,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3285,14 +3315,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3302,14 +3332,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>21</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3318,14 +3348,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3335,11 +3365,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>129</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3351,7 +3381,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3368,14 +3398,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>60</v>
+        <v>182</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3384,7 +3414,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3401,14 +3431,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>60</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3417,28 +3447,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3450,7 +3480,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3463,15 +3493,15 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>72</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3483,7 +3513,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3500,11 +3530,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3516,14 +3546,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>193</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3540,7 +3570,7 @@
         <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>120</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3556,7 +3586,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>154</v>
+        <v>197</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3566,14 +3596,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3582,28 +3612,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>158</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3615,28 +3645,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3648,14 +3678,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3665,11 +3695,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3681,14 +3711,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3698,14 +3728,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>109</v>
+        <v>210</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3714,14 +3744,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3731,14 +3761,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>95</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3747,14 +3777,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3764,14 +3794,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>213</v>
+        <v>78</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>99</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3780,14 +3810,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>216</v>
+        <v>22</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3797,14 +3827,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>84</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3813,14 +3843,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>30</v>
+        <v>220</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3830,14 +3860,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>218</v>
+        <v>71</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>219</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3846,14 +3876,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3863,14 +3893,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3879,14 +3909,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3896,14 +3926,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3912,14 +3942,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3929,11 +3959,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>97</v>
+        <v>228</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>98</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3945,14 +3975,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3962,14 +3992,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>76</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3978,14 +4008,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3995,14 +4025,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>231</v>
+        <v>101</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>232</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4011,14 +4041,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4028,14 +4058,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>176</v>
+        <v>235</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>95</v>
+        <v>76</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4044,14 +4074,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4061,14 +4091,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>116</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4077,14 +4107,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4094,14 +4124,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4110,31 +4140,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>241</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>242</v>
+        <v>180</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>22</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4143,31 +4173,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>36</v>
+        <v>246</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4176,14 +4206,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4193,11 +4223,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>56</v>
+        <v>248</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>37</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4209,31 +4239,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>102</v>
+        <v>251</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>248</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4242,14 +4272,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4259,11 +4289,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>250</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4275,7 +4305,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4292,11 +4322,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>252</v>
+        <v>56</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>253</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4308,14 +4338,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4325,14 +4355,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>133</v>
+        <v>256</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>134</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4341,7 +4371,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4354,7 +4384,7 @@
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
@@ -4362,10 +4392,10 @@
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4374,14 +4404,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4391,11 +4421,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4407,14 +4437,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4424,11 +4454,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>158</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4440,28 +4470,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>197</v>
+        <v>137</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>263</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>22</v>
@@ -4473,7 +4503,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4490,14 +4520,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>265</v>
+        <v>71</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4506,14 +4536,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4523,11 +4553,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4539,14 +4569,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4556,14 +4586,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>272</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4572,31 +4602,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>145</v>
+        <v>201</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>146</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4605,14 +4635,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4622,11 +4652,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>197</v>
+        <v>277</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>198</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4638,14 +4668,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4655,14 +4685,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>112</v>
+        <v>280</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>207</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4671,14 +4701,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>154</v>
+        <v>99</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4688,11 +4718,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>112</v>
+        <v>283</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>207</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>22</v>
@@ -4704,14 +4734,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4721,11 +4751,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>278</v>
+        <v>149</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>279</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4737,14 +4767,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>281</v>
+        <v>76</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4754,14 +4784,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>261</v>
+        <v>201</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>282</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4770,14 +4800,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>241</v>
+        <v>99</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4787,11 +4817,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>149</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>22</v>
@@ -4803,14 +4833,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>285</v>
+        <v>158</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4820,14 +4850,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>286</v>
+        <v>116</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>287</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>95</v>
+        <v>22</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4836,14 +4866,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4853,11 +4883,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4869,14 +4899,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>16</v>
+        <v>293</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4886,14 +4916,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4902,31 +4932,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>295</v>
+        <v>152</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
         <v>296</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4948,18 +4978,18 @@
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>14</v>
+        <v>299</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>155</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4968,31 +4998,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>300</v>
+        <v>99</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>98</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5001,31 +5031,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>303</v>
+        <v>261</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>84</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5034,14 +5064,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5051,14 +5081,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>286</v>
+        <v>238</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>68</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>305</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5074,7 +5104,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>18</v>
+        <v>307</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5084,14 +5114,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>307</v>
+        <v>14</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>207</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5107,7 +5137,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>102</v>
+        <v>309</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5117,14 +5147,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>33</v>
+        <v>310</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>155</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5133,14 +5163,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5150,14 +5180,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>33</v>
+        <v>312</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>155</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5166,14 +5196,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5183,14 +5213,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>126</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>315</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5199,14 +5229,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>313</v>
+        <v>18</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5216,14 +5246,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>314</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>106</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5232,14 +5262,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5249,14 +5279,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>95</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5265,14 +5295,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5282,11 +5312,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>301</v>
+        <v>33</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>314</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5298,7 +5328,7 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
@@ -5315,11 +5345,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5331,14 +5361,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>18</v>
+        <v>323</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5348,11 +5378,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5364,14 +5394,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>322</v>
+        <v>18</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5381,14 +5411,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>87</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>16</v>
+        <v>99</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5397,14 +5427,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5414,11 +5444,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>14</v>
+        <v>310</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>15</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5430,14 +5460,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>325</v>
+        <v>76</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5447,11 +5477,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>211</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5463,14 +5493,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>313</v>
+        <v>18</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5480,11 +5510,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>33</v>
+        <v>329</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>155</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5496,14 +5526,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5513,49 +5543,181 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
+        <v>91</v>
+      </c>
+      <c t="s" r="Q124" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
+        <v>333</v>
+      </c>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>16</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>19</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
+        <v>14</v>
+      </c>
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
+        <v>334</v>
+      </c>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
+        <v>335</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>19</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
+        <v>336</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
+        <v>215</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
+        <v>337</v>
+      </c>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
+        <v>323</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>19</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
+        <v>33</v>
+      </c>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
+        <v>159</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
+        <v>338</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>339</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>19</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>48</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
         <v>49</v>
       </c>
-      <c t="s" r="Q124" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="125" ht="24.75" customHeight="1">
-      <c r="P125" s="13">
-        <v>7314.8649999999998</v>
-      </c>
-      <c r="Q125" s="13"/>
-    </row>
-    <row r="126" ht="16.5" customHeight="1">
-      <c t="s" r="A126" s="14">
-        <v>330</v>
-      </c>
-      <c r="B126" s="14"/>
-      <c r="C126" s="14"/>
-      <c r="D126" s="14"/>
-      <c r="E126" s="14"/>
-      <c r="F126" s="14"/>
-      <c t="s" r="G126" s="15">
-        <v>331</v>
-      </c>
-      <c r="H126" s="15"/>
-      <c r="I126" s="15"/>
-      <c r="J126" s="16"/>
-      <c t="s" r="K126" s="17">
-        <v>332</v>
-      </c>
-      <c r="L126" s="17"/>
-      <c r="M126" s="17"/>
-      <c r="N126" s="17"/>
-      <c r="O126" s="17"/>
-      <c r="P126" s="17"/>
-      <c r="Q126" s="17"/>
+      <c t="s" r="Q128" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="P129" s="13">
+        <v>7534.6949999999997</v>
+      </c>
+      <c r="Q129" s="13"/>
+    </row>
+    <row r="130" ht="16.5" customHeight="1">
+      <c t="s" r="A130" s="14">
+        <v>340</v>
+      </c>
+      <c r="B130" s="14"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="14"/>
+      <c r="E130" s="14"/>
+      <c r="F130" s="14"/>
+      <c t="s" r="G130" s="15">
+        <v>341</v>
+      </c>
+      <c r="H130" s="15"/>
+      <c r="I130" s="15"/>
+      <c r="J130" s="16"/>
+      <c t="s" r="K130" s="17">
+        <v>342</v>
+      </c>
+      <c r="L130" s="17"/>
+      <c r="M130" s="17"/>
+      <c r="N130" s="17"/>
+      <c r="O130" s="17"/>
+      <c r="P130" s="17"/>
+      <c r="Q130" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="602">
+  <mergeCells count="622">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6154,10 +6316,30 @@
     <mergeCell ref="H124:K124"/>
     <mergeCell ref="L124:M124"/>
     <mergeCell ref="N124:O124"/>
-    <mergeCell ref="P125:Q125"/>
-    <mergeCell ref="A126:F126"/>
-    <mergeCell ref="G126:I126"/>
-    <mergeCell ref="K126:Q126"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="P129:Q129"/>
+    <mergeCell ref="A130:F130"/>
+    <mergeCell ref="G130:I130"/>
+    <mergeCell ref="K130:Q130"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-07_00-00.xlsx
+++ b/DaySale_2025-09-07_00-00.xlsx
@@ -770,6 +770,15 @@
     <t>62.00</t>
   </si>
   <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
@@ -1031,7 +1040,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Sunday, 7 September, 2025 10:33 PM</t>
+    <t>Sunday, 7 September, 2025 10:36 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4279,24 +4288,24 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>32</v>
+        <v>254</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>36</v>
+        <v>255</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4305,28 +4314,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4338,14 +4347,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4355,11 +4364,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>256</v>
+        <v>56</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>257</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4378,21 +4387,21 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>71</v>
+        <v>259</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4404,24 +4413,24 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>261</v>
+        <v>71</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
@@ -4444,7 +4453,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4477,7 +4486,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4487,14 +4496,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>137</v>
+        <v>267</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>138</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4503,14 +4512,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4520,11 +4529,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>71</v>
+        <v>137</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>268</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>22</v>
@@ -4536,14 +4545,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4553,14 +4562,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>270</v>
+        <v>71</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
         <v>271</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4576,7 +4585,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4590,7 +4599,7 @@
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>162</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4602,7 +4611,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4615,18 +4624,18 @@
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>201</v>
+        <v>276</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>275</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4635,7 +4644,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4648,18 +4657,18 @@
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>277</v>
+        <v>201</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
         <v>278</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4708,7 +4717,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4725,7 +4734,7 @@
         <v>284</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4741,7 +4750,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4751,14 +4760,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>149</v>
+        <v>286</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>150</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4767,14 +4776,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4784,11 +4793,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>201</v>
+        <v>149</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>202</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4800,14 +4809,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4817,14 +4826,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>116</v>
+        <v>201</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4833,14 +4842,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>158</v>
+        <v>99</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4866,14 +4875,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>106</v>
+        <v>158</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4883,14 +4892,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>290</v>
+        <v>116</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>291</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4906,7 +4915,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>293</v>
+        <v>106</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4916,14 +4925,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
         <v>294</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4939,7 +4948,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>63</v>
+        <v>296</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4949,14 +4958,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>152</v>
+        <v>276</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4965,14 +4974,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>298</v>
+        <v>63</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4982,14 +4991,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>299</v>
+        <v>152</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>99</v>
+        <v>44</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4998,14 +5007,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>99</v>
+        <v>301</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5022,7 +5031,7 @@
         <v>303</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>99</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5038,7 +5047,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5048,11 +5057,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>261</v>
+        <v>305</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>262</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5064,7 +5073,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5077,15 +5086,15 @@
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5097,14 +5106,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>307</v>
+        <v>16</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5114,14 +5123,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>14</v>
+        <v>238</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>159</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5130,14 +5139,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5147,14 +5156,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>310</v>
+        <v>14</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>102</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>76</v>
+        <v>99</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5170,7 +5179,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>18</v>
+        <v>312</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5180,11 +5189,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>76</v>
@@ -5196,7 +5205,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5213,14 +5222,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>314</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>315</v>
+        <v>76</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5246,14 +5255,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>211</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>106</v>
+        <v>318</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5262,14 +5271,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5279,14 +5288,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>33</v>
+        <v>320</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>159</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>16</v>
+        <v>106</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5295,14 +5304,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5328,14 +5337,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5345,11 +5354,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>321</v>
+        <v>33</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5361,14 +5370,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>323</v>
+        <v>76</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5378,11 +5387,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>324</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5401,7 +5410,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>18</v>
+        <v>326</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5411,14 +5420,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>159</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5427,7 +5436,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5444,14 +5453,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>310</v>
+        <v>14</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>324</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>16</v>
+        <v>99</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5460,14 +5469,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5477,11 +5486,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>130</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5493,14 +5502,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5510,11 +5519,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>330</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5533,7 +5542,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>332</v>
+        <v>18</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5543,11 +5552,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>90</v>
+        <v>332</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>91</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>16</v>
@@ -5559,14 +5568,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>16</v>
+        <v>335</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5576,11 +5585,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
@@ -5592,14 +5601,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>335</v>
+        <v>16</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5609,11 +5618,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>336</v>
+        <v>14</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>215</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
@@ -5632,7 +5641,7 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5642,11 +5651,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>33</v>
+        <v>339</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>159</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>16</v>
@@ -5658,14 +5667,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5675,49 +5684,82 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
+        <v>159</v>
+      </c>
+      <c t="s" r="Q128" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
+        <v>341</v>
+      </c>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
+        <v>342</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>19</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
+        <v>48</v>
+      </c>
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
         <v>49</v>
       </c>
-      <c t="s" r="Q128" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="129" ht="25.5" customHeight="1">
-      <c r="P129" s="13">
-        <v>7534.6949999999997</v>
-      </c>
-      <c r="Q129" s="13"/>
-    </row>
-    <row r="130" ht="16.5" customHeight="1">
-      <c t="s" r="A130" s="14">
-        <v>340</v>
-      </c>
-      <c r="B130" s="14"/>
-      <c r="C130" s="14"/>
-      <c r="D130" s="14"/>
-      <c r="E130" s="14"/>
-      <c r="F130" s="14"/>
-      <c t="s" r="G130" s="15">
-        <v>341</v>
-      </c>
-      <c r="H130" s="15"/>
-      <c r="I130" s="15"/>
-      <c r="J130" s="16"/>
-      <c t="s" r="K130" s="17">
-        <v>342</v>
-      </c>
-      <c r="L130" s="17"/>
-      <c r="M130" s="17"/>
-      <c r="N130" s="17"/>
-      <c r="O130" s="17"/>
-      <c r="P130" s="17"/>
-      <c r="Q130" s="17"/>
+      <c t="s" r="Q129" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="P130" s="13">
+        <v>7557.6949999999997</v>
+      </c>
+      <c r="Q130" s="13"/>
+    </row>
+    <row r="131" ht="16.5" customHeight="1">
+      <c t="s" r="A131" s="14">
+        <v>343</v>
+      </c>
+      <c r="B131" s="14"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="14"/>
+      <c r="F131" s="14"/>
+      <c t="s" r="G131" s="15">
+        <v>344</v>
+      </c>
+      <c r="H131" s="15"/>
+      <c r="I131" s="15"/>
+      <c r="J131" s="16"/>
+      <c t="s" r="K131" s="17">
+        <v>345</v>
+      </c>
+      <c r="L131" s="17"/>
+      <c r="M131" s="17"/>
+      <c r="N131" s="17"/>
+      <c r="O131" s="17"/>
+      <c r="P131" s="17"/>
+      <c r="Q131" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="622">
+  <mergeCells count="627">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6336,10 +6378,15 @@
     <mergeCell ref="H128:K128"/>
     <mergeCell ref="L128:M128"/>
     <mergeCell ref="N128:O128"/>
-    <mergeCell ref="P129:Q129"/>
-    <mergeCell ref="A130:F130"/>
-    <mergeCell ref="G130:I130"/>
-    <mergeCell ref="K130:Q130"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="P130:Q130"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="G131:I131"/>
+    <mergeCell ref="K131:Q131"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-07_00-00.xlsx
+++ b/DaySale_2025-09-07_00-00.xlsx
@@ -1040,7 +1040,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Sunday, 7 September, 2025 10:36 PM</t>
+    <t>Sunday, 7 September, 2025 10:43 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-07_00-00.xlsx
+++ b/DaySale_2025-09-07_00-00.xlsx
@@ -701,6 +701,9 @@
     <t>109.0000</t>
   </si>
   <si>
+    <t>MEGALASE SYRUP 125 ML</t>
+  </si>
+  <si>
     <t>MELLITOFIX MET 12.5/500 MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -761,15 +764,24 @@
     <t>34.5000</t>
   </si>
   <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
+  </si>
+  <si>
     <t>PANADOL ACUTE HEAD COLD</t>
   </si>
   <si>
-    <t>4:1</t>
-  </si>
-  <si>
     <t>62.00</t>
   </si>
   <si>
+    <t>62.0000</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -1040,7 +1052,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Sunday, 7 September, 2025 10:43 PM</t>
+    <t>Sunday, 7 September, 2025 10:55 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3991,7 +4003,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4001,14 +4013,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>231</v>
+        <v>83</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>232</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4017,14 +4029,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4034,14 +4046,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>101</v>
+        <v>232</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>102</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4057,7 +4069,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4067,14 +4079,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>235</v>
+        <v>101</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>236</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4083,14 +4095,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4100,14 +4112,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4116,14 +4128,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4133,14 +4145,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4149,14 +4161,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4166,14 +4178,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>180</v>
+        <v>242</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>99</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4182,7 +4194,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4199,14 +4211,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>246</v>
+        <v>180</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>120</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>22</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4215,14 +4227,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4232,14 +4244,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>249</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4248,31 +4260,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>251</v>
+        <v>18</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>84</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4281,14 +4293,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4298,14 +4310,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>255</v>
+        <v>83</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4314,28 +4326,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4347,28 +4359,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>56</v>
+        <v>255</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>37</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4380,14 +4392,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>106</v>
+        <v>258</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4401,10 +4413,10 @@
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>260</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4413,14 +4425,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4430,11 +4442,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>262</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4446,14 +4458,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4463,11 +4475,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>264</v>
+        <v>56</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>265</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4479,14 +4491,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4496,11 +4508,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4512,31 +4524,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>137</v>
+        <v>71</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>138</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4545,14 +4557,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4562,14 +4574,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>71</v>
+        <v>268</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4578,14 +4590,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4595,11 +4607,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4611,14 +4623,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4628,14 +4640,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>276</v>
+        <v>137</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4644,7 +4656,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4657,15 +4669,15 @@
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>201</v>
+        <v>71</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>22</v>
@@ -4677,14 +4689,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4694,11 +4706,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4710,7 +4722,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4727,11 +4739,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>284</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4743,28 +4755,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>286</v>
+        <v>201</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>22</v>
@@ -4776,14 +4788,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4793,11 +4805,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>149</v>
+        <v>284</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>150</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4809,14 +4821,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4826,11 +4838,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>201</v>
+        <v>287</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>202</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4842,7 +4854,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4859,11 +4871,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>116</v>
+        <v>290</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>211</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>22</v>
@@ -4875,14 +4887,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>158</v>
+        <v>16</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4892,14 +4904,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>211</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4908,14 +4920,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4925,11 +4937,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>293</v>
+        <v>201</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>294</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4941,14 +4953,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>296</v>
+        <v>99</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4958,11 +4970,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>276</v>
+        <v>116</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>297</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>22</v>
@@ -4974,14 +4986,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>63</v>
+        <v>158</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4991,14 +5003,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>299</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5007,14 +5019,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>301</v>
+        <v>106</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5024,14 +5036,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5040,14 +5052,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>99</v>
+        <v>300</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5057,14 +5069,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>305</v>
+        <v>280</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5073,14 +5085,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5090,14 +5102,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>264</v>
+        <v>152</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>265</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5106,31 +5118,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>16</v>
+        <v>305</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>238</v>
+        <v>306</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>239</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>99</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5139,31 +5151,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>310</v>
+        <v>99</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>14</v>
+        <v>309</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>159</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5179,24 +5191,24 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>312</v>
+        <v>16</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>313</v>
+        <v>268</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>102</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5205,14 +5217,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5222,14 +5234,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>315</v>
+        <v>239</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>88</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5238,14 +5250,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>18</v>
+        <v>314</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5255,14 +5267,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>302</v>
+        <v>14</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>317</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>318</v>
+        <v>99</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5271,14 +5283,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>18</v>
+        <v>316</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5288,14 +5300,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>211</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>106</v>
+        <v>76</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5304,14 +5316,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5321,14 +5333,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>33</v>
+        <v>319</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>159</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5337,14 +5349,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5354,14 +5366,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>33</v>
+        <v>306</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>159</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>16</v>
+        <v>322</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5377,7 +5389,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5391,10 +5403,10 @@
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>130</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>16</v>
+        <v>106</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5410,7 +5422,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>326</v>
+        <v>106</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5420,11 +5432,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>313</v>
+        <v>33</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>327</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5436,14 +5448,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5453,14 +5465,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
         <v>159</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5469,14 +5481,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5486,11 +5498,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>327</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5502,14 +5514,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>76</v>
+        <v>330</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5519,11 +5531,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>130</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5535,7 +5547,7 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
@@ -5552,14 +5564,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>332</v>
+        <v>14</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>333</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>16</v>
+        <v>99</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5568,14 +5580,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>335</v>
+        <v>18</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5585,11 +5597,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>90</v>
+        <v>317</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>91</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
@@ -5601,14 +5613,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5618,11 +5630,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>14</v>
+        <v>328</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>15</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
@@ -5634,14 +5646,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>338</v>
+        <v>18</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5651,11 +5663,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>215</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>16</v>
@@ -5667,14 +5679,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5684,11 +5696,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>159</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>16</v>
@@ -5700,14 +5712,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>342</v>
+        <v>16</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5717,49 +5729,148 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="A130" s="7">
+        <v>124</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c t="s" r="C130" s="8">
+        <v>341</v>
+      </c>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
+        <v>342</v>
+      </c>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c t="s" r="L130" s="10">
+        <v>19</v>
+      </c>
+      <c r="M130" s="10"/>
+      <c t="s" r="N130" s="8">
+        <v>343</v>
+      </c>
+      <c r="O130" s="8"/>
+      <c t="s" r="P130" s="11">
+        <v>215</v>
+      </c>
+      <c t="s" r="Q130" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="A131" s="7">
+        <v>125</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c t="s" r="C131" s="8">
+        <v>344</v>
+      </c>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c t="s" r="H131" s="9">
+        <v>330</v>
+      </c>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c t="s" r="L131" s="10">
+        <v>19</v>
+      </c>
+      <c r="M131" s="10"/>
+      <c t="s" r="N131" s="8">
+        <v>33</v>
+      </c>
+      <c r="O131" s="8"/>
+      <c t="s" r="P131" s="11">
+        <v>159</v>
+      </c>
+      <c t="s" r="Q131" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="A132" s="7">
+        <v>126</v>
+      </c>
+      <c r="B132" s="7"/>
+      <c t="s" r="C132" s="8">
+        <v>345</v>
+      </c>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c t="s" r="H132" s="9">
+        <v>346</v>
+      </c>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c t="s" r="L132" s="10">
+        <v>19</v>
+      </c>
+      <c r="M132" s="10"/>
+      <c t="s" r="N132" s="8">
+        <v>48</v>
+      </c>
+      <c r="O132" s="8"/>
+      <c t="s" r="P132" s="11">
         <v>49</v>
       </c>
-      <c t="s" r="Q129" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="130" ht="24.75" customHeight="1">
-      <c r="P130" s="13">
-        <v>7557.6949999999997</v>
-      </c>
-      <c r="Q130" s="13"/>
-    </row>
-    <row r="131" ht="16.5" customHeight="1">
-      <c t="s" r="A131" s="14">
-        <v>343</v>
-      </c>
-      <c r="B131" s="14"/>
-      <c r="C131" s="14"/>
-      <c r="D131" s="14"/>
-      <c r="E131" s="14"/>
-      <c r="F131" s="14"/>
-      <c t="s" r="G131" s="15">
-        <v>344</v>
-      </c>
-      <c r="H131" s="15"/>
-      <c r="I131" s="15"/>
-      <c r="J131" s="16"/>
-      <c t="s" r="K131" s="17">
-        <v>345</v>
-      </c>
-      <c r="L131" s="17"/>
-      <c r="M131" s="17"/>
-      <c r="N131" s="17"/>
-      <c r="O131" s="17"/>
-      <c r="P131" s="17"/>
-      <c r="Q131" s="17"/>
+      <c t="s" r="Q132" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="P133" s="13">
+        <v>7674.6949999999997</v>
+      </c>
+      <c r="Q133" s="13"/>
+    </row>
+    <row r="134" ht="16.5" customHeight="1">
+      <c t="s" r="A134" s="14">
+        <v>347</v>
+      </c>
+      <c r="B134" s="14"/>
+      <c r="C134" s="14"/>
+      <c r="D134" s="14"/>
+      <c r="E134" s="14"/>
+      <c r="F134" s="14"/>
+      <c t="s" r="G134" s="15">
+        <v>348</v>
+      </c>
+      <c r="H134" s="15"/>
+      <c r="I134" s="15"/>
+      <c r="J134" s="16"/>
+      <c t="s" r="K134" s="17">
+        <v>349</v>
+      </c>
+      <c r="L134" s="17"/>
+      <c r="M134" s="17"/>
+      <c r="N134" s="17"/>
+      <c r="O134" s="17"/>
+      <c r="P134" s="17"/>
+      <c r="Q134" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="627">
+  <mergeCells count="642">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6383,10 +6494,25 @@
     <mergeCell ref="H129:K129"/>
     <mergeCell ref="L129:M129"/>
     <mergeCell ref="N129:O129"/>
-    <mergeCell ref="P130:Q130"/>
-    <mergeCell ref="A131:F131"/>
-    <mergeCell ref="G131:I131"/>
-    <mergeCell ref="K131:Q131"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:G132"/>
+    <mergeCell ref="H132:K132"/>
+    <mergeCell ref="L132:M132"/>
+    <mergeCell ref="N132:O132"/>
+    <mergeCell ref="P133:Q133"/>
+    <mergeCell ref="A134:F134"/>
+    <mergeCell ref="G134:I134"/>
+    <mergeCell ref="K134:Q134"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-07_00-00.xlsx
+++ b/DaySale_2025-09-07_00-00.xlsx
@@ -500,6 +500,15 @@
     <t>90.0000</t>
   </si>
   <si>
+    <t>FLAGYL 500MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">FLAMOGEST  30TABS</t>
   </si>
   <si>
@@ -938,12 +947,6 @@
     <t>XILONE 5MG/5ML SYRUP 100ML</t>
   </si>
   <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
     <t>XITHRONE 500MG 3 F.C.TAB.</t>
   </si>
   <si>
@@ -1052,7 +1055,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Sunday, 7 September, 2025 10:55 PM</t>
+    <t>Sunday, 7 September, 2025 10:56 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3211,13 +3214,13 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -3228,7 +3231,7 @@
         <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3244,13 +3247,13 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -3261,7 +3264,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3277,7 +3280,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3310,7 +3313,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>173</v>
+        <v>63</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3320,14 +3323,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3336,14 +3339,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>176</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3360,7 +3363,7 @@
         <v>178</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3376,7 +3379,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3390,10 +3393,10 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>21</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3402,14 +3405,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3419,11 +3422,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>133</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3435,7 +3438,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3452,14 +3455,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>60</v>
+        <v>185</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3468,7 +3471,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3485,14 +3488,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>186</v>
+        <v>60</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3508,13 +3511,13 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
@@ -3547,7 +3550,7 @@
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3555,7 +3558,7 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>72</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3567,7 +3570,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3584,11 +3587,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>195</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3607,7 +3610,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>197</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3617,14 +3620,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>124</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3633,14 +3636,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3657,7 +3660,7 @@
         <v>202</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>124</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3673,13 +3676,13 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>158</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
@@ -3706,13 +3709,13 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
@@ -3739,7 +3742,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3772,7 +3775,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3782,14 +3785,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>113</v>
+        <v>213</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3798,14 +3801,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3815,14 +3818,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>99</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3831,14 +3834,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3848,14 +3851,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>217</v>
+        <v>78</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>218</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>99</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3871,7 +3874,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>220</v>
+        <v>22</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3881,14 +3884,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>71</v>
+        <v>220</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>88</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3897,14 +3900,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>30</v>
+        <v>223</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3914,14 +3917,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>222</v>
+        <v>71</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>223</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3937,7 +3940,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3954,7 +3957,7 @@
         <v>226</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3970,7 +3973,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4003,7 +4006,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4013,11 +4016,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>83</v>
+        <v>231</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>84</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -4029,14 +4032,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4046,14 +4049,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>232</v>
+        <v>83</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>233</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4069,7 +4072,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4079,14 +4082,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>101</v>
+        <v>235</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>102</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4095,14 +4098,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4112,14 +4115,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>236</v>
+        <v>101</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>237</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4135,7 +4138,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4152,7 +4155,7 @@
         <v>240</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4168,7 +4171,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4185,7 +4188,7 @@
         <v>243</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4201,7 +4204,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4211,14 +4214,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>180</v>
+        <v>245</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>99</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4227,7 +4230,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4244,14 +4247,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>247</v>
+        <v>183</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>120</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>22</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4260,14 +4263,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4277,14 +4280,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4300,7 +4303,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>252</v>
+        <v>18</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4310,11 +4313,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>83</v>
+        <v>252</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>84</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4326,14 +4329,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>63</v>
+        <v>255</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4343,11 +4346,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4359,7 +4362,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4372,15 +4375,15 @@
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>255</v>
+        <v>90</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>256</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4399,24 +4402,24 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>258</v>
+        <v>63</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>120</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4432,24 +4435,24 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>32</v>
+        <v>261</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>36</v>
+        <v>262</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4458,28 +4461,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4491,14 +4494,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4508,11 +4511,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>263</v>
+        <v>56</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>264</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4531,21 +4534,21 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>71</v>
+        <v>266</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4557,24 +4560,24 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>268</v>
+        <v>71</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
@@ -4597,7 +4600,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4630,7 +4633,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4640,14 +4643,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>137</v>
+        <v>274</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>138</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4656,14 +4659,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4673,11 +4676,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>71</v>
+        <v>137</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>275</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>22</v>
@@ -4689,14 +4692,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4706,14 +4709,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>277</v>
+        <v>71</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
         <v>278</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4729,7 +4732,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4743,7 +4746,7 @@
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>162</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4755,7 +4758,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4768,18 +4771,18 @@
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>201</v>
+        <v>283</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>282</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4788,7 +4791,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4801,18 +4804,18 @@
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>284</v>
+        <v>204</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
         <v>285</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4861,7 +4864,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4878,7 +4881,7 @@
         <v>291</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4894,7 +4897,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4904,14 +4907,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>149</v>
+        <v>293</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>150</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4920,14 +4923,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4937,11 +4940,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>201</v>
+        <v>149</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>202</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4953,14 +4956,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4970,14 +4973,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>116</v>
+        <v>204</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4986,14 +4989,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>158</v>
+        <v>99</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5007,7 +5010,7 @@
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>22</v>
@@ -5019,14 +5022,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>106</v>
+        <v>158</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5036,14 +5039,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>297</v>
+        <v>116</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>298</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5059,7 +5062,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>300</v>
+        <v>106</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5069,14 +5072,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
         <v>301</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5092,7 +5095,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>63</v>
+        <v>303</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5102,14 +5105,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>152</v>
+        <v>283</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5118,14 +5121,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>305</v>
+        <v>63</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5135,14 +5138,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>306</v>
+        <v>152</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>99</v>
+        <v>44</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5151,14 +5154,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>99</v>
+        <v>308</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5175,7 +5178,7 @@
         <v>310</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>99</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5191,7 +5194,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5201,11 +5204,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>268</v>
+        <v>164</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>269</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5230,15 +5233,15 @@
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5257,7 +5260,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>314</v>
+        <v>16</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5267,14 +5270,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>14</v>
+        <v>242</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>159</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5283,14 +5286,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5300,14 +5303,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>317</v>
+        <v>14</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>102</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>76</v>
+        <v>99</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5316,14 +5319,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>18</v>
+        <v>317</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5333,11 +5336,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>76</v>
@@ -5349,7 +5352,7 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
@@ -5366,14 +5369,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>321</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>322</v>
+        <v>76</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5382,7 +5385,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5399,14 +5402,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>211</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>106</v>
+        <v>323</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5415,14 +5418,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5432,14 +5435,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>33</v>
+        <v>325</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>159</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>16</v>
+        <v>106</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5455,7 +5458,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5488,7 +5491,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5498,11 +5501,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>328</v>
+        <v>33</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5514,14 +5517,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>330</v>
+        <v>76</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5531,11 +5534,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>331</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5547,14 +5550,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>18</v>
+        <v>331</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5564,14 +5567,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>14</v>
+        <v>318</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>159</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5597,14 +5600,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>317</v>
+        <v>14</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>331</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>16</v>
+        <v>99</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5620,7 +5623,7 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5630,11 +5633,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>130</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
@@ -5653,7 +5656,7 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5663,11 +5666,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>337</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>16</v>
@@ -5679,14 +5682,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>339</v>
+        <v>18</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5696,11 +5699,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>90</v>
+        <v>337</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>91</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>16</v>
@@ -5712,14 +5715,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>16</v>
+        <v>340</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5729,11 +5732,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>16</v>
@@ -5752,7 +5755,7 @@
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>342</v>
+        <v>16</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5762,11 +5765,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>343</v>
+        <v>14</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>215</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>16</v>
@@ -5778,14 +5781,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5795,11 +5798,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>33</v>
+        <v>344</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>159</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>16</v>
@@ -5818,7 +5821,7 @@
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5828,49 +5831,82 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
+        <v>159</v>
+      </c>
+      <c t="s" r="Q132" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="A133" s="7">
+        <v>127</v>
+      </c>
+      <c r="B133" s="7"/>
+      <c t="s" r="C133" s="8">
+        <v>346</v>
+      </c>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c t="s" r="H133" s="9">
+        <v>347</v>
+      </c>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c t="s" r="L133" s="10">
+        <v>19</v>
+      </c>
+      <c r="M133" s="10"/>
+      <c t="s" r="N133" s="8">
+        <v>48</v>
+      </c>
+      <c r="O133" s="8"/>
+      <c t="s" r="P133" s="11">
         <v>49</v>
       </c>
-      <c t="s" r="Q132" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="133" ht="24.75" customHeight="1">
-      <c r="P133" s="13">
-        <v>7674.6949999999997</v>
-      </c>
-      <c r="Q133" s="13"/>
-    </row>
-    <row r="134" ht="16.5" customHeight="1">
-      <c t="s" r="A134" s="14">
-        <v>347</v>
-      </c>
-      <c r="B134" s="14"/>
-      <c r="C134" s="14"/>
-      <c r="D134" s="14"/>
-      <c r="E134" s="14"/>
-      <c r="F134" s="14"/>
-      <c t="s" r="G134" s="15">
+      <c t="s" r="Q133" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="P134" s="13">
+        <v>7708.6949999999997</v>
+      </c>
+      <c r="Q134" s="13"/>
+    </row>
+    <row r="135" ht="16.5" customHeight="1">
+      <c t="s" r="A135" s="14">
         <v>348</v>
       </c>
-      <c r="H134" s="15"/>
-      <c r="I134" s="15"/>
-      <c r="J134" s="16"/>
-      <c t="s" r="K134" s="17">
+      <c r="B135" s="14"/>
+      <c r="C135" s="14"/>
+      <c r="D135" s="14"/>
+      <c r="E135" s="14"/>
+      <c r="F135" s="14"/>
+      <c t="s" r="G135" s="15">
         <v>349</v>
       </c>
-      <c r="L134" s="17"/>
-      <c r="M134" s="17"/>
-      <c r="N134" s="17"/>
-      <c r="O134" s="17"/>
-      <c r="P134" s="17"/>
-      <c r="Q134" s="17"/>
+      <c r="H135" s="15"/>
+      <c r="I135" s="15"/>
+      <c r="J135" s="16"/>
+      <c t="s" r="K135" s="17">
+        <v>350</v>
+      </c>
+      <c r="L135" s="17"/>
+      <c r="M135" s="17"/>
+      <c r="N135" s="17"/>
+      <c r="O135" s="17"/>
+      <c r="P135" s="17"/>
+      <c r="Q135" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="642">
+  <mergeCells count="647">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6509,10 +6545,15 @@
     <mergeCell ref="H132:K132"/>
     <mergeCell ref="L132:M132"/>
     <mergeCell ref="N132:O132"/>
-    <mergeCell ref="P133:Q133"/>
-    <mergeCell ref="A134:F134"/>
-    <mergeCell ref="G134:I134"/>
-    <mergeCell ref="K134:Q134"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="H133:K133"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="N133:O133"/>
+    <mergeCell ref="P134:Q134"/>
+    <mergeCell ref="A135:F135"/>
+    <mergeCell ref="G135:I135"/>
+    <mergeCell ref="K135:Q135"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-07_00-00.xlsx
+++ b/DaySale_2025-09-07_00-00.xlsx
@@ -1055,7 +1055,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Sunday, 7 September, 2025 10:56 PM</t>
+    <t>Sunday, 7 September, 2025 11:01 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-07_00-00.xlsx
+++ b/DaySale_2025-09-07_00-00.xlsx
@@ -1055,7 +1055,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Sunday, 7 September, 2025 11:01 PM</t>
+    <t>Sunday, 7 September, 2025 11:06 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-07_00-00.xlsx
+++ b/DaySale_2025-09-07_00-00.xlsx
@@ -506,445 +506,448 @@
     <t>34.00</t>
   </si>
   <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLAMOGEST  30TABS</t>
+  </si>
+  <si>
+    <t>195.00</t>
+  </si>
+  <si>
+    <t>64.3500</t>
+  </si>
+  <si>
+    <t>FLECTOR 1% TOPICAL GEL 25 GM</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>GAVISCON LIQUID 24 SACHETS 10 ML</t>
+  </si>
+  <si>
+    <t>0:10</t>
+  </si>
+  <si>
+    <t>288.00</t>
+  </si>
+  <si>
+    <t>23.0400</t>
+  </si>
+  <si>
+    <t>GLAPTIVIA 100MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>303.00</t>
+  </si>
+  <si>
+    <t>99.9900</t>
+  </si>
+  <si>
+    <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>GLIPTUS 50 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>151.50</t>
+  </si>
+  <si>
+    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>63.3600</t>
+  </si>
+  <si>
+    <t>GOUTIFADE 80 MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>123.0000</t>
+  </si>
+  <si>
+    <t>HAIR PHOTO SHAMPOO</t>
+  </si>
+  <si>
+    <t>235.00</t>
+  </si>
+  <si>
+    <t>235.0000</t>
+  </si>
+  <si>
+    <t>HALOPERIDOL RETARD 50MG/ML I.M.AMP.</t>
+  </si>
+  <si>
+    <t>19.20</t>
+  </si>
+  <si>
+    <t>HEPTA PANTHENOL HAIR CREAM 100 GM</t>
+  </si>
+  <si>
+    <t>149.00</t>
+  </si>
+  <si>
+    <t>149.0000</t>
+  </si>
+  <si>
+    <t>IMIPRAMINE 25MG 50 TAB.</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>52.50</t>
+  </si>
+  <si>
+    <t>-10.5000</t>
+  </si>
+  <si>
+    <t>INDOMETHACIN 100MG 5 SUPP. (MISR)</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISOPTIN SR 240 MG  TAB</t>
+  </si>
+  <si>
+    <t>170.00</t>
+  </si>
+  <si>
+    <t>170.0000</t>
+  </si>
+  <si>
+    <t>IVY ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>LAMIFEN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>LEVCET 5MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>42.5000</t>
+  </si>
+  <si>
+    <t>LICID LOTION 30 ML</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>LIVERIN 20 CAPS</t>
+  </si>
+  <si>
+    <t>125.00</t>
+  </si>
+  <si>
+    <t>125.0000</t>
+  </si>
+  <si>
+    <t>MAALOX 20 ORAL SACHET SUSP.</t>
+  </si>
+  <si>
+    <t>1:14</t>
+  </si>
+  <si>
+    <t>MACROFURAN 100 MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>27.0600</t>
+  </si>
+  <si>
+    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t>MEBO 0.25% HERBAL AND NATURAL OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>109.00</t>
+  </si>
+  <si>
+    <t>109.0000</t>
+  </si>
+  <si>
+    <t>MEGALASE SYRUP 125 ML</t>
+  </si>
+  <si>
+    <t>MELLITOFIX MET 12.5/500 MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>193.50</t>
+  </si>
+  <si>
+    <t>63.8550</t>
+  </si>
+  <si>
+    <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>117.0000</t>
+  </si>
+  <si>
+    <t>MUCOPHYLLINE SYRUP 125 ML</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>NEUROGLOPENTIN 300 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>36.6300</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>132.0000</t>
+  </si>
+  <si>
+    <t>NEVILOB 2.5 MG 14 TAB.</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>NORMOCARD 2.5 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>34.50</t>
+  </si>
+  <si>
+    <t>34.5000</t>
+  </si>
+  <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>PANADOL ACUTE HEAD COLD</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>PK-MERZ 100MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>PLEGICA 1% EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>PLEX BEAUTY HAIR CREAM</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>POLYFRESH 0.2% EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>63.0000</t>
+  </si>
+  <si>
+    <t>RAMIXOLE 1 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>159.00</t>
+  </si>
+  <si>
+    <t>159.0000</t>
+  </si>
+  <si>
+    <t>RELAXON 30 CAP</t>
+  </si>
+  <si>
+    <t>ROSASEEF 30 CAPS</t>
+  </si>
+  <si>
+    <t>39.6000</t>
+  </si>
+  <si>
+    <t>SINEMET 25/250 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
+    <t>SPASULANCE 62.5 MG 20 ORODISPERSIBLE FILMS</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STOPADOL WOMAN </t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>SYMBICORT 160/4.5MCG/DOSE TURBUHALER 120 DOSES</t>
+  </si>
+  <si>
+    <t>432.00</t>
+  </si>
+  <si>
+    <t>432.0000</t>
+  </si>
+  <si>
+    <t>UNICTAM 250MG/5ML SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>71.0000</t>
+  </si>
+  <si>
+    <t>URINEX 24 CAPS</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>URIPAN 0.1% SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
+  </si>
+  <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>VETOCETAMOL 24 TAB.</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
+  </si>
+  <si>
+    <t>3:6</t>
+  </si>
+  <si>
+    <t>14.4000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8302:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>XILONE 5MG/5ML SYRUP 100ML</t>
+  </si>
+  <si>
     <t>34.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLAMOGEST  30TABS</t>
-  </si>
-  <si>
-    <t>195.00</t>
-  </si>
-  <si>
-    <t>64.3500</t>
-  </si>
-  <si>
-    <t>FLECTOR 1% TOPICAL GEL 25 GM</t>
-  </si>
-  <si>
-    <t>32.00</t>
-  </si>
-  <si>
-    <t>32.0000</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>GAVISCON LIQUID 24 SACHETS 10 ML</t>
-  </si>
-  <si>
-    <t>0:10</t>
-  </si>
-  <si>
-    <t>288.00</t>
-  </si>
-  <si>
-    <t>23.0400</t>
-  </si>
-  <si>
-    <t>GLAPTIVIA 100MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>303.00</t>
-  </si>
-  <si>
-    <t>99.9900</t>
-  </si>
-  <si>
-    <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>GLIPTUS 50 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>151.50</t>
-  </si>
-  <si>
-    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
-  </si>
-  <si>
-    <t>63.3600</t>
-  </si>
-  <si>
-    <t>GOUTIFADE 80 MG 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>123.00</t>
-  </si>
-  <si>
-    <t>123.0000</t>
-  </si>
-  <si>
-    <t>HAIR PHOTO SHAMPOO</t>
-  </si>
-  <si>
-    <t>235.00</t>
-  </si>
-  <si>
-    <t>235.0000</t>
-  </si>
-  <si>
-    <t>HALOPERIDOL RETARD 50MG/ML I.M.AMP.</t>
-  </si>
-  <si>
-    <t>19.20</t>
-  </si>
-  <si>
-    <t>HEPTA PANTHENOL HAIR CREAM 100 GM</t>
-  </si>
-  <si>
-    <t>149.00</t>
-  </si>
-  <si>
-    <t>149.0000</t>
-  </si>
-  <si>
-    <t>IMIPRAMINE 25MG 50 TAB.</t>
-  </si>
-  <si>
-    <t>1:4</t>
-  </si>
-  <si>
-    <t>52.50</t>
-  </si>
-  <si>
-    <t>-10.5000</t>
-  </si>
-  <si>
-    <t>INDOMETHACIN 100MG 5 SUPP. (MISR)</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISOPTIN SR 240 MG  TAB</t>
-  </si>
-  <si>
-    <t>170.00</t>
-  </si>
-  <si>
-    <t>170.0000</t>
-  </si>
-  <si>
-    <t>IVY ZAD SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>LAMIFEN 1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>LEVCET 5MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>42.5000</t>
-  </si>
-  <si>
-    <t>LICID LOTION 30 ML</t>
-  </si>
-  <si>
-    <t>80.0000</t>
-  </si>
-  <si>
-    <t>LIVERIN 20 CAPS</t>
-  </si>
-  <si>
-    <t>125.00</t>
-  </si>
-  <si>
-    <t>125.0000</t>
-  </si>
-  <si>
-    <t>MAALOX 20 ORAL SACHET SUSP.</t>
-  </si>
-  <si>
-    <t>1:14</t>
-  </si>
-  <si>
-    <t>MACROFURAN 100 MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>82.00</t>
-  </si>
-  <si>
-    <t>27.0600</t>
-  </si>
-  <si>
-    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
-    <t>MEBO 0.25% HERBAL AND NATURAL OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>109.00</t>
-  </si>
-  <si>
-    <t>109.0000</t>
-  </si>
-  <si>
-    <t>MEGALASE SYRUP 125 ML</t>
-  </si>
-  <si>
-    <t>MELLITOFIX MET 12.5/500 MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>193.50</t>
-  </si>
-  <si>
-    <t>63.8550</t>
-  </si>
-  <si>
-    <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>117.0000</t>
-  </si>
-  <si>
-    <t>MUCOPHYLLINE SYRUP 125 ML</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>NEUROGLOPENTIN 300 MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>111.00</t>
-  </si>
-  <si>
-    <t>36.6300</t>
-  </si>
-  <si>
-    <t>NEUROTON 6 AMP</t>
-  </si>
-  <si>
-    <t>132.0000</t>
-  </si>
-  <si>
-    <t>NEVILOB 2.5 MG 14 TAB.</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>NORMOCARD 2.5 MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>34.50</t>
-  </si>
-  <si>
-    <t>34.5000</t>
-  </si>
-  <si>
-    <t>OPLEX-N SYRUP 125ML</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>PANADOL ACUTE HEAD COLD</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>PANADOL EXTRA 48 TAB</t>
-  </si>
-  <si>
-    <t>PK-MERZ 100MG 30 F.C. TAB</t>
-  </si>
-  <si>
-    <t>PLEGICA 1% EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>27.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>PLEX BEAUTY HAIR CREAM</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>POLYFRESH 0.2% EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>63.0000</t>
-  </si>
-  <si>
-    <t>RAMIXOLE 1 MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>159.00</t>
-  </si>
-  <si>
-    <t>159.0000</t>
-  </si>
-  <si>
-    <t>RELAXON 30 CAP</t>
-  </si>
-  <si>
-    <t>ROSASEEF 30 CAPS</t>
-  </si>
-  <si>
-    <t>39.6000</t>
-  </si>
-  <si>
-    <t>SINEMET 25/250 MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>122.00</t>
-  </si>
-  <si>
-    <t>122.0000</t>
-  </si>
-  <si>
-    <t>SPASULANCE 62.5 MG 20 ORODISPERSIBLE FILMS</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STOPADOL WOMAN </t>
-  </si>
-  <si>
-    <t>19.0000</t>
-  </si>
-  <si>
-    <t>SYMBICORT 160/4.5MCG/DOSE TURBUHALER 120 DOSES</t>
-  </si>
-  <si>
-    <t>432.00</t>
-  </si>
-  <si>
-    <t>432.0000</t>
-  </si>
-  <si>
-    <t>UNICTAM 250MG/5ML SUSP. 60ML</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>71.0000</t>
-  </si>
-  <si>
-    <t>URINEX 24 CAPS</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>21.0000</t>
-  </si>
-  <si>
-    <t>URIPAN 0.1% SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
-  </si>
-  <si>
-    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
-  </si>
-  <si>
-    <t>VETOCETAMOL 24 TAB.</t>
-  </si>
-  <si>
-    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
-  </si>
-  <si>
-    <t>3:6</t>
-  </si>
-  <si>
-    <t>14.4000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>33.6600</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8302:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>XILONE 5MG/5ML SYRUP 100ML</t>
   </si>
   <si>
     <t>XITHRONE 500MG 3 F.C.TAB.</t>
@@ -3214,7 +3217,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3231,7 +3234,7 @@
         <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -5208,7 +5211,7 @@
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>165</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5220,7 +5223,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5253,7 +5256,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5286,14 +5289,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5319,14 +5322,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5336,7 +5339,7 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
@@ -5352,7 +5355,7 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
@@ -5369,7 +5372,7 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
@@ -5385,7 +5388,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5406,10 +5409,10 @@
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5418,7 +5421,7 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -5435,7 +5438,7 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
@@ -5451,7 +5454,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5484,7 +5487,7 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
@@ -5517,7 +5520,7 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
@@ -5534,7 +5537,7 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
@@ -5550,14 +5553,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5567,11 +5570,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>16</v>
@@ -5583,7 +5586,7 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
@@ -5616,7 +5619,7 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
@@ -5633,11 +5636,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
@@ -5649,7 +5652,7 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
@@ -5666,7 +5669,7 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
@@ -5682,7 +5685,7 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
@@ -5699,11 +5702,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>16</v>
@@ -5715,14 +5718,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5748,7 +5751,7 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
@@ -5781,14 +5784,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5798,7 +5801,7 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
@@ -5814,14 +5817,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5847,14 +5850,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5876,13 +5879,13 @@
     </row>
     <row r="134" ht="25.5" customHeight="1">
       <c r="P134" s="13">
-        <v>7708.6949999999997</v>
+        <v>7691.6949999999997</v>
       </c>
       <c r="Q134" s="13"/>
     </row>
     <row r="135" ht="16.5" customHeight="1">
       <c t="s" r="A135" s="14">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B135" s="14"/>
       <c r="C135" s="14"/>
@@ -5890,13 +5893,13 @@
       <c r="E135" s="14"/>
       <c r="F135" s="14"/>
       <c t="s" r="G135" s="15">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H135" s="15"/>
       <c r="I135" s="15"/>
       <c r="J135" s="16"/>
       <c t="s" r="K135" s="17">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L135" s="17"/>
       <c r="M135" s="17"/>

--- a/DaySale_2025-09-07_00-00.xlsx
+++ b/DaySale_2025-09-07_00-00.xlsx
@@ -404,6 +404,15 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
     <t>DOXIRAZOL 60 MG 14 CAPS.</t>
   </si>
   <si>
@@ -638,6 +647,15 @@
     <t>170.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">IVY PRONT  SYRUP</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
     <t>IVY ZAD SYRUP 120 ML</t>
   </si>
   <si>
@@ -695,12 +713,6 @@
     <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
   </si>
   <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
     <t>MEBO 0.25% HERBAL AND NATURAL OINT. 15 GM</t>
   </si>
   <si>
@@ -1043,9 +1055,6 @@
     <t>معجون سنسوداين 50 مل</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
     <t>80.00</t>
   </si>
   <si>
@@ -1058,7 +1067,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Sunday, 7 September, 2025 11:06 PM</t>
+    <t>Sunday, 7 September, 2025 11:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2854,7 +2863,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2864,14 +2873,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2887,7 +2896,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2897,14 +2906,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2913,14 +2922,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2930,14 +2939,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>41</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2953,7 +2962,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2970,7 +2979,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2986,7 +2995,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>143</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2996,14 +3005,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3012,14 +3021,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>146</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3029,11 +3038,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>22</v>
@@ -3045,14 +3054,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3062,14 +3071,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3085,7 +3094,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3102,7 +3111,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3118,7 +3127,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>155</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3128,7 +3137,7 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>90</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
@@ -3161,14 +3170,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3184,7 +3193,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>30</v>
+        <v>161</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3194,14 +3203,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>33</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3250,13 +3259,13 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -3283,13 +3292,13 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -3300,7 +3309,7 @@
         <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3316,7 +3325,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3349,7 +3358,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>176</v>
+        <v>63</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3359,14 +3368,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3375,14 +3384,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>179</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3399,7 +3408,7 @@
         <v>181</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3415,7 +3424,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3429,10 +3438,10 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>21</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3441,14 +3450,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3458,11 +3467,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>133</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3474,7 +3483,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3491,14 +3500,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>60</v>
+        <v>188</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3507,7 +3516,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3524,14 +3533,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>60</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3547,13 +3556,13 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3586,7 +3595,7 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
@@ -3594,7 +3603,7 @@
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>72</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3606,7 +3615,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3623,11 +3632,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>198</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3646,7 +3655,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>200</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3656,14 +3665,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>124</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3672,14 +3681,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>158</v>
+        <v>203</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3696,7 +3705,7 @@
         <v>205</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>124</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3712,13 +3721,13 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>18</v>
+        <v>161</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
@@ -3745,13 +3754,13 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
@@ -3778,13 +3787,13 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
@@ -3811,7 +3820,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3821,14 +3830,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>113</v>
+        <v>216</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3837,14 +3846,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3854,14 +3863,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>78</v>
+        <v>219</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3870,7 +3879,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3887,14 +3896,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>220</v>
+        <v>113</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3903,14 +3912,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>223</v>
+        <v>63</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3920,14 +3929,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>88</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>44</v>
+        <v>99</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3936,14 +3945,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3953,14 +3962,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3969,14 +3978,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>63</v>
+        <v>229</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3986,14 +3995,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>228</v>
+        <v>71</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>229</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4009,7 +4018,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4026,7 +4035,7 @@
         <v>232</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4042,7 +4051,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4052,11 +4061,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>83</v>
+        <v>213</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>84</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -4075,7 +4084,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4092,7 +4101,7 @@
         <v>236</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4108,7 +4117,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4118,11 +4127,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4141,7 +4150,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4158,7 +4167,7 @@
         <v>240</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>76</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4174,7 +4183,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4184,11 +4193,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>242</v>
+        <v>101</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>243</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4200,14 +4209,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4217,14 +4226,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>22</v>
+        <v>76</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4233,14 +4242,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4250,14 +4259,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>183</v>
+        <v>246</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4266,14 +4275,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4283,11 +4292,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>22</v>
@@ -4306,7 +4315,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4316,14 +4325,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>252</v>
+        <v>186</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4332,14 +4341,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>255</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4349,14 +4358,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>83</v>
+        <v>254</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4365,14 +4374,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4382,11 +4391,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>90</v>
+        <v>256</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>91</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4398,28 +4407,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>63</v>
+        <v>259</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>258</v>
+        <v>83</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>259</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4438,7 +4447,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>261</v>
+        <v>63</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4448,14 +4457,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>262</v>
+        <v>90</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4464,14 +4473,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4481,11 +4490,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>36</v>
+        <v>262</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>104</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4504,7 +4513,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>44</v>
+        <v>265</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4514,14 +4523,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>56</v>
+        <v>266</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>37</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4530,28 +4539,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>106</v>
+        <v>32</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>266</v>
+        <v>36</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>267</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4570,21 +4579,21 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>269</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4596,14 +4605,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4613,11 +4622,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4629,28 +4638,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>274</v>
+        <v>71</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4662,14 +4671,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4679,14 +4688,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>137</v>
+        <v>275</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>138</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4702,7 +4711,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4712,14 +4721,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>71</v>
+        <v>278</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4728,14 +4737,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4745,14 +4754,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>280</v>
+        <v>140</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>281</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4761,7 +4770,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4778,14 +4787,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>283</v>
+        <v>71</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>162</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4794,31 +4803,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>204</v>
+        <v>284</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
         <v>285</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4848,7 +4857,7 @@
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>288</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4860,7 +4869,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4873,18 +4882,18 @@
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>290</v>
+        <v>207</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4893,14 +4902,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4910,14 +4919,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4926,14 +4935,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4943,11 +4952,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>149</v>
+        <v>294</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>150</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4966,7 +4975,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4976,14 +4985,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>204</v>
+        <v>297</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>205</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4992,14 +5001,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5009,14 +5018,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>214</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5025,14 +5034,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>158</v>
+        <v>76</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5042,14 +5051,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>116</v>
+        <v>207</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5058,14 +5067,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5075,14 +5084,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>300</v>
+        <v>116</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>301</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5098,7 +5107,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>303</v>
+        <v>161</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5108,11 +5117,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>283</v>
+        <v>116</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>304</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>22</v>
@@ -5124,14 +5133,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5141,14 +5150,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>152</v>
+        <v>304</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5157,14 +5166,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5174,14 +5183,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>99</v>
+        <v>22</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5190,14 +5199,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5207,14 +5216,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5223,14 +5232,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>16</v>
+        <v>312</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5240,14 +5249,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>271</v>
+        <v>313</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>272</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>99</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5256,28 +5265,28 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>242</v>
+        <v>167</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>243</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5289,31 +5298,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>316</v>
+        <v>16</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>14</v>
+        <v>275</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>159</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5322,14 +5331,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>318</v>
+        <v>16</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5339,14 +5348,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>319</v>
+        <v>246</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>102</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5355,14 +5364,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>18</v>
+        <v>320</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5372,14 +5381,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>321</v>
+        <v>14</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>88</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>76</v>
+        <v>99</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5388,14 +5397,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>18</v>
+        <v>322</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5405,14 +5414,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>323</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>324</v>
+        <v>76</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5421,7 +5430,7 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -5438,14 +5447,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>214</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>106</v>
+        <v>76</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5454,14 +5463,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5471,14 +5480,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>33</v>
+        <v>313</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>159</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>16</v>
+        <v>328</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5487,14 +5496,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5504,14 +5513,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>33</v>
+        <v>330</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>159</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>16</v>
+        <v>106</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5520,14 +5529,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5537,11 +5546,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>330</v>
+        <v>33</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5553,14 +5562,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>332</v>
+        <v>99</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5570,11 +5579,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>319</v>
+        <v>33</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>333</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>16</v>
@@ -5586,14 +5595,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5603,14 +5612,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>14</v>
+        <v>334</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5626,7 +5635,7 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>18</v>
+        <v>336</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5636,11 +5645,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
@@ -5652,14 +5661,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5669,14 +5678,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>330</v>
+        <v>14</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>16</v>
+        <v>99</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5685,7 +5694,7 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
@@ -5702,11 +5711,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>16</v>
@@ -5725,7 +5734,7 @@
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>341</v>
+        <v>76</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5735,11 +5744,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>90</v>
+        <v>334</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>16</v>
@@ -5751,14 +5760,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5768,11 +5777,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>14</v>
+        <v>342</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>15</v>
+        <v>343</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>16</v>
@@ -5784,14 +5793,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5801,11 +5810,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>345</v>
+        <v>90</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>16</v>
@@ -5824,7 +5833,7 @@
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>332</v>
+        <v>16</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5834,11 +5843,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>159</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>16</v>
@@ -5857,7 +5866,7 @@
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>348</v>
+        <v>132</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5867,49 +5876,115 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>48</v>
+        <v>348</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
+        <v>224</v>
+      </c>
+      <c t="s" r="Q133" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="A134" s="7">
+        <v>128</v>
+      </c>
+      <c r="B134" s="7"/>
+      <c t="s" r="C134" s="8">
+        <v>349</v>
+      </c>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c t="s" r="H134" s="9">
+        <v>336</v>
+      </c>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c t="s" r="L134" s="10">
+        <v>19</v>
+      </c>
+      <c r="M134" s="10"/>
+      <c t="s" r="N134" s="8">
+        <v>33</v>
+      </c>
+      <c r="O134" s="8"/>
+      <c t="s" r="P134" s="11">
+        <v>162</v>
+      </c>
+      <c t="s" r="Q134" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" ht="24.75" customHeight="1">
+      <c r="A135" s="7">
+        <v>129</v>
+      </c>
+      <c r="B135" s="7"/>
+      <c t="s" r="C135" s="8">
+        <v>350</v>
+      </c>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c t="s" r="H135" s="9">
+        <v>351</v>
+      </c>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+      <c t="s" r="L135" s="10">
+        <v>19</v>
+      </c>
+      <c r="M135" s="10"/>
+      <c t="s" r="N135" s="8">
+        <v>48</v>
+      </c>
+      <c r="O135" s="8"/>
+      <c t="s" r="P135" s="11">
         <v>49</v>
       </c>
-      <c t="s" r="Q133" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="134" ht="25.5" customHeight="1">
-      <c r="P134" s="13">
-        <v>7691.6949999999997</v>
-      </c>
-      <c r="Q134" s="13"/>
-    </row>
-    <row r="135" ht="16.5" customHeight="1">
-      <c t="s" r="A135" s="14">
-        <v>349</v>
-      </c>
-      <c r="B135" s="14"/>
-      <c r="C135" s="14"/>
-      <c r="D135" s="14"/>
-      <c r="E135" s="14"/>
-      <c r="F135" s="14"/>
-      <c t="s" r="G135" s="15">
-        <v>350</v>
-      </c>
-      <c r="H135" s="15"/>
-      <c r="I135" s="15"/>
-      <c r="J135" s="16"/>
-      <c t="s" r="K135" s="17">
-        <v>351</v>
-      </c>
-      <c r="L135" s="17"/>
-      <c r="M135" s="17"/>
-      <c r="N135" s="17"/>
-      <c r="O135" s="17"/>
-      <c r="P135" s="17"/>
-      <c r="Q135" s="17"/>
+      <c t="s" r="Q135" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136" ht="25.5" customHeight="1">
+      <c r="P136" s="13">
+        <v>7796.6949999999997</v>
+      </c>
+      <c r="Q136" s="13"/>
+    </row>
+    <row r="137" ht="16.5" customHeight="1">
+      <c t="s" r="A137" s="14">
+        <v>352</v>
+      </c>
+      <c r="B137" s="14"/>
+      <c r="C137" s="14"/>
+      <c r="D137" s="14"/>
+      <c r="E137" s="14"/>
+      <c r="F137" s="14"/>
+      <c t="s" r="G137" s="15">
+        <v>353</v>
+      </c>
+      <c r="H137" s="15"/>
+      <c r="I137" s="15"/>
+      <c r="J137" s="16"/>
+      <c t="s" r="K137" s="17">
+        <v>354</v>
+      </c>
+      <c r="L137" s="17"/>
+      <c r="M137" s="17"/>
+      <c r="N137" s="17"/>
+      <c r="O137" s="17"/>
+      <c r="P137" s="17"/>
+      <c r="Q137" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="647">
+  <mergeCells count="657">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6553,10 +6628,20 @@
     <mergeCell ref="H133:K133"/>
     <mergeCell ref="L133:M133"/>
     <mergeCell ref="N133:O133"/>
-    <mergeCell ref="P134:Q134"/>
-    <mergeCell ref="A135:F135"/>
-    <mergeCell ref="G135:I135"/>
-    <mergeCell ref="K135:Q135"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="H134:K134"/>
+    <mergeCell ref="L134:M134"/>
+    <mergeCell ref="N134:O134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:G135"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="N135:O135"/>
+    <mergeCell ref="P136:Q136"/>
+    <mergeCell ref="A137:F137"/>
+    <mergeCell ref="G137:I137"/>
+    <mergeCell ref="K137:Q137"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-07_00-00.xlsx
+++ b/DaySale_2025-09-07_00-00.xlsx
@@ -1067,7 +1067,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Sunday, 7 September, 2025 11:07 PM</t>
+    <t>Sunday, 7 September, 2025 11:35 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-07_00-00.xlsx
+++ b/DaySale_2025-09-07_00-00.xlsx
@@ -665,6 +665,9 @@
     <t>65.0000</t>
   </si>
   <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
     <t>LAMIFEN 1% CREAM 15 GM</t>
   </si>
   <si>
@@ -1067,7 +1070,7 @@
     <t>12:0</t>
   </si>
   <si>
-    <t>Sunday, 7 September, 2025 11:35 PM</t>
+    <t>Sunday, 7 September, 2025 11:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3853,7 +3856,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3863,14 +3866,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>219</v>
+        <v>101</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>220</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3879,14 +3882,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3896,14 +3899,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>113</v>
+        <v>220</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3912,14 +3915,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3929,14 +3932,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>99</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3945,14 +3948,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3962,14 +3965,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>226</v>
+        <v>78</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>99</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3978,14 +3981,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>229</v>
+        <v>22</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3995,14 +3998,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>71</v>
+        <v>227</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>88</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4011,14 +4014,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>30</v>
+        <v>230</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4028,14 +4031,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>231</v>
+        <v>71</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>232</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4044,14 +4047,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4061,14 +4064,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4084,7 +4087,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4094,11 +4097,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4110,14 +4113,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4127,11 +4130,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>83</v>
+        <v>236</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>84</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4150,7 +4153,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4160,14 +4163,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>239</v>
+        <v>83</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>240</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4176,14 +4179,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4193,14 +4196,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>101</v>
+        <v>240</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>102</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4216,7 +4219,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4226,14 +4229,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>243</v>
+        <v>101</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>244</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4242,14 +4245,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4259,14 +4262,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4275,14 +4278,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4292,14 +4295,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4308,14 +4311,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4325,14 +4328,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>186</v>
+        <v>250</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>99</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4341,7 +4344,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4358,14 +4361,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>254</v>
+        <v>186</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>120</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>22</v>
+        <v>99</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4374,14 +4377,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4391,14 +4394,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>257</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4407,14 +4410,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>259</v>
+        <v>18</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4424,11 +4427,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>83</v>
+        <v>257</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>84</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4440,14 +4443,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>63</v>
+        <v>260</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4457,11 +4460,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4486,15 +4489,15 @@
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>262</v>
+        <v>90</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>263</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4506,31 +4509,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>265</v>
+        <v>63</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>120</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4539,31 +4542,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>32</v>
+        <v>266</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>36</v>
+        <v>267</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4579,21 +4582,21 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4612,7 +4615,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4622,11 +4625,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>270</v>
+        <v>56</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>271</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4638,28 +4641,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>71</v>
+        <v>271</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4671,28 +4674,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>275</v>
+        <v>71</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4704,14 +4707,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4721,11 +4724,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4737,14 +4740,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4754,14 +4757,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>140</v>
+        <v>279</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>141</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4777,7 +4780,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4787,11 +4790,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>71</v>
+        <v>140</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>282</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>22</v>
@@ -4803,14 +4806,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4820,14 +4823,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>284</v>
+        <v>71</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4836,14 +4839,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4853,11 +4856,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>165</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4869,7 +4872,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4882,18 +4885,18 @@
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>207</v>
+        <v>288</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>289</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4902,7 +4905,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4915,18 +4918,18 @@
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>291</v>
+        <v>207</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4935,7 +4938,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4952,11 +4955,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4968,14 +4971,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4985,14 +4988,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5001,14 +5004,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5018,14 +5021,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>152</v>
+        <v>298</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>153</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5041,7 +5044,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5051,11 +5054,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>207</v>
+        <v>152</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>208</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5074,7 +5077,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5084,14 +5087,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>116</v>
+        <v>207</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5107,7 +5110,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>161</v>
+        <v>99</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5121,7 +5124,7 @@
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>22</v>
@@ -5140,7 +5143,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>106</v>
+        <v>161</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5150,14 +5153,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>304</v>
+        <v>116</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>305</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5166,14 +5169,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>307</v>
+        <v>106</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5183,14 +5186,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5199,14 +5202,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>63</v>
+        <v>308</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5216,14 +5219,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>155</v>
+        <v>288</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5232,14 +5235,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>312</v>
+        <v>63</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5249,14 +5252,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>313</v>
+        <v>155</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>99</v>
+        <v>44</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5265,14 +5268,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>99</v>
+        <v>313</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5282,14 +5285,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>167</v>
+        <v>314</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>99</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5298,14 +5301,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5315,11 +5318,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>275</v>
+        <v>167</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>276</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5344,15 +5347,15 @@
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5371,7 +5374,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>320</v>
+        <v>16</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5381,14 +5384,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>14</v>
+        <v>247</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>162</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5397,14 +5400,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5414,14 +5417,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>323</v>
+        <v>14</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>102</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>76</v>
+        <v>99</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5430,14 +5433,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>18</v>
+        <v>323</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5447,11 +5450,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>76</v>
@@ -5463,7 +5466,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5480,14 +5483,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>327</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>328</v>
+        <v>76</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5496,7 +5499,7 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
@@ -5513,14 +5516,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>220</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>106</v>
+        <v>329</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5529,14 +5532,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5546,14 +5549,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>33</v>
+        <v>331</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>162</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>16</v>
+        <v>132</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5569,7 +5572,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5602,7 +5605,7 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5612,11 +5615,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>334</v>
+        <v>33</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
@@ -5628,14 +5631,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>336</v>
+        <v>76</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5645,11 +5648,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>337</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
@@ -5661,14 +5664,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>18</v>
+        <v>337</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5678,14 +5681,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>14</v>
+        <v>324</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>162</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5711,14 +5714,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>323</v>
+        <v>14</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>337</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>16</v>
+        <v>99</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5734,7 +5737,7 @@
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5744,11 +5747,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>130</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>16</v>
@@ -5767,7 +5770,7 @@
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5777,11 +5780,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>343</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>16</v>
@@ -5793,14 +5796,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>345</v>
+        <v>18</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5810,11 +5813,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>90</v>
+        <v>343</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>91</v>
+        <v>344</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>16</v>
@@ -5826,14 +5829,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>16</v>
+        <v>346</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5843,11 +5846,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>16</v>
@@ -5866,7 +5869,7 @@
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>132</v>
+        <v>16</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5876,11 +5879,11 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>348</v>
+        <v>14</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>224</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>16</v>
@@ -5892,14 +5895,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>336</v>
+        <v>132</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5909,11 +5912,11 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>33</v>
+        <v>349</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>162</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>16</v>
@@ -5932,7 +5935,7 @@
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -5942,49 +5945,82 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
+        <v>162</v>
+      </c>
+      <c t="s" r="Q135" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136" ht="25.5" customHeight="1">
+      <c r="A136" s="7">
+        <v>130</v>
+      </c>
+      <c r="B136" s="7"/>
+      <c t="s" r="C136" s="8">
+        <v>351</v>
+      </c>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c t="s" r="H136" s="9">
+        <v>352</v>
+      </c>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
+      <c t="s" r="L136" s="10">
+        <v>19</v>
+      </c>
+      <c r="M136" s="10"/>
+      <c t="s" r="N136" s="8">
+        <v>48</v>
+      </c>
+      <c r="O136" s="8"/>
+      <c t="s" r="P136" s="11">
         <v>49</v>
       </c>
-      <c t="s" r="Q135" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="136" ht="25.5" customHeight="1">
-      <c r="P136" s="13">
-        <v>7796.6949999999997</v>
-      </c>
-      <c r="Q136" s="13"/>
-    </row>
-    <row r="137" ht="16.5" customHeight="1">
-      <c t="s" r="A137" s="14">
-        <v>352</v>
-      </c>
-      <c r="B137" s="14"/>
-      <c r="C137" s="14"/>
-      <c r="D137" s="14"/>
-      <c r="E137" s="14"/>
-      <c r="F137" s="14"/>
-      <c t="s" r="G137" s="15">
+      <c t="s" r="Q136" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" ht="25.5" customHeight="1">
+      <c r="P137" s="13">
+        <v>7811.6949999999997</v>
+      </c>
+      <c r="Q137" s="13"/>
+    </row>
+    <row r="138" ht="16.5" customHeight="1">
+      <c t="s" r="A138" s="14">
         <v>353</v>
       </c>
-      <c r="H137" s="15"/>
-      <c r="I137" s="15"/>
-      <c r="J137" s="16"/>
-      <c t="s" r="K137" s="17">
+      <c r="B138" s="14"/>
+      <c r="C138" s="14"/>
+      <c r="D138" s="14"/>
+      <c r="E138" s="14"/>
+      <c r="F138" s="14"/>
+      <c t="s" r="G138" s="15">
         <v>354</v>
       </c>
-      <c r="L137" s="17"/>
-      <c r="M137" s="17"/>
-      <c r="N137" s="17"/>
-      <c r="O137" s="17"/>
-      <c r="P137" s="17"/>
-      <c r="Q137" s="17"/>
+      <c r="H138" s="15"/>
+      <c r="I138" s="15"/>
+      <c r="J138" s="16"/>
+      <c t="s" r="K138" s="17">
+        <v>355</v>
+      </c>
+      <c r="L138" s="17"/>
+      <c r="M138" s="17"/>
+      <c r="N138" s="17"/>
+      <c r="O138" s="17"/>
+      <c r="P138" s="17"/>
+      <c r="Q138" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="657">
+  <mergeCells count="662">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6638,10 +6674,15 @@
     <mergeCell ref="H135:K135"/>
     <mergeCell ref="L135:M135"/>
     <mergeCell ref="N135:O135"/>
-    <mergeCell ref="P136:Q136"/>
-    <mergeCell ref="A137:F137"/>
-    <mergeCell ref="G137:I137"/>
-    <mergeCell ref="K137:Q137"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="C136:G136"/>
+    <mergeCell ref="H136:K136"/>
+    <mergeCell ref="L136:M136"/>
+    <mergeCell ref="N136:O136"/>
+    <mergeCell ref="P137:Q137"/>
+    <mergeCell ref="A138:F138"/>
+    <mergeCell ref="G138:I138"/>
+    <mergeCell ref="K138:Q138"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-07_00-00.xlsx
+++ b/DaySale_2025-09-07_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Monday, 8 September, 2025 12:01 AM</t>
+    <t>Monday, 8 September, 2025 12:04 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-07_00-00.xlsx
+++ b/DaySale_2025-09-07_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Monday, 8 September, 2025 12:04 AM</t>
+    <t>Monday, 8 September, 2025 12:07 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-07_00-00.xlsx
+++ b/DaySale_2025-09-07_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Monday, 8 September, 2025 12:07 AM</t>
+    <t>Monday, 8 September, 2025 12:09 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-07_00-00.xlsx
+++ b/DaySale_2025-09-07_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Monday, 8 September, 2025 12:09 AM</t>
+    <t>Monday, 8 September, 2025 12:11 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-07_00-00.xlsx
+++ b/DaySale_2025-09-07_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Monday, 8 September, 2025 12:11 AM</t>
+    <t>Monday, 8 September, 2025 12:16 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-07_00-00.xlsx
+++ b/DaySale_2025-09-07_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Monday, 8 September, 2025 12:16 AM</t>
+    <t>Monday, 8 September, 2025 12:18 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-07_00-00.xlsx
+++ b/DaySale_2025-09-07_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Monday, 8 September, 2025 12:18 AM</t>
+    <t>Monday, 8 September, 2025 12:20 AM</t>
   </si>
   <si>
     <t>1/1</t>
